--- a/MRK GR.xlsx
+++ b/MRK GR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FE7636-554A-44A3-8C82-81E7C075926F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1984C733-9232-4EB2-9D74-71D143C64BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51525" yWindow="7260" windowWidth="22905" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -532,7 +532,7 @@
     <numFmt numFmtId="170" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -613,12 +613,6 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1358,7 +1352,7 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1400,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="11">
-        <v>173.95</v>
+        <v>177.95</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -1442,7 +1436,7 @@
       </c>
       <c r="J4" s="12">
         <f>J3*J2</f>
-        <v>75629.611878099997</v>
+        <v>77368.7233901</v>
       </c>
       <c r="K4" s="13"/>
     </row>
@@ -1503,7 +1497,7 @@
       </c>
       <c r="J7" s="12">
         <f>J4-J5+J6</f>
-        <v>85794.811878100008</v>
+        <v>87533.923390100012</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -1578,10 +1572,10 @@
   <dimension ref="A1:CL86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AW54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BH55" sqref="BH55"/>
+      <selection pane="bottomRight" activeCell="BE30" sqref="BE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1965,27 +1959,27 @@
         <v>0</v>
       </c>
       <c r="BE3" s="36">
-        <f t="shared" ref="BE3:BE7" si="4">+BA3*0.95</f>
+        <f>484-249-234</f>
+        <v>1</v>
+      </c>
+      <c r="BF3" s="36">
+        <f t="shared" ref="BF3:BF7" si="4">+BB3*0.95</f>
+        <v>-0.95</v>
+      </c>
+      <c r="BG3" s="36">
+        <f t="shared" ref="BG3:BG7" si="5">+BC3*0.95</f>
+        <v>0.95</v>
+      </c>
+      <c r="BH3" s="36">
+        <f t="shared" ref="BH3:BH7" si="6">+BD3*0.95</f>
         <v>0</v>
       </c>
-      <c r="BF3" s="36">
-        <f t="shared" ref="BF3:BF7" si="5">+BB3*0.95</f>
-        <v>-0.95</v>
-      </c>
-      <c r="BG3" s="36">
-        <f t="shared" ref="BG3:BG7" si="6">+BC3*0.95</f>
+      <c r="BI3" s="36">
+        <f t="shared" ref="BI3:BI7" si="7">+BE3*0.95</f>
         <v>0.95</v>
       </c>
-      <c r="BH3" s="36">
-        <f t="shared" ref="BH3:BH7" si="7">+BD3*0.95</f>
-        <v>0</v>
-      </c>
-      <c r="BI3" s="36">
-        <f t="shared" ref="BI3:BI7" si="8">+BE3*0.95</f>
-        <v>0</v>
-      </c>
       <c r="BJ3" s="36">
-        <f t="shared" ref="BJ3:BJ7" si="9">+BF3*0.95</f>
+        <f t="shared" ref="BJ3:BJ7" si="8">+BF3*0.95</f>
         <v>-0.90249999999999997</v>
       </c>
       <c r="BK3" s="19"/>
@@ -2088,27 +2082,27 @@
         <v>11</v>
       </c>
       <c r="BE4" s="36">
+        <f>453-274-166</f>
+        <v>13</v>
+      </c>
+      <c r="BF4" s="36">
         <f t="shared" si="4"/>
-        <v>11.399999999999999</v>
-      </c>
-      <c r="BF4" s="36">
+        <v>14.25</v>
+      </c>
+      <c r="BG4" s="36">
         <f t="shared" si="5"/>
-        <v>14.25</v>
-      </c>
-      <c r="BG4" s="36">
+        <v>8.5499999999999989</v>
+      </c>
+      <c r="BH4" s="36">
         <f t="shared" si="6"/>
-        <v>8.5499999999999989</v>
-      </c>
-      <c r="BH4" s="36">
+        <v>10.45</v>
+      </c>
+      <c r="BI4" s="36">
         <f t="shared" si="7"/>
-        <v>10.45</v>
-      </c>
-      <c r="BI4" s="36">
+        <v>12.35</v>
+      </c>
+      <c r="BJ4" s="36">
         <f t="shared" si="8"/>
-        <v>10.829999999999998</v>
-      </c>
-      <c r="BJ4" s="36">
-        <f t="shared" si="9"/>
         <v>13.5375</v>
       </c>
       <c r="BK4" s="19"/>
@@ -2205,27 +2199,26 @@
         <v>38</v>
       </c>
       <c r="BE5" s="36">
+        <v>49</v>
+      </c>
+      <c r="BF5" s="36">
         <f t="shared" si="4"/>
-        <v>31.349999999999998</v>
-      </c>
-      <c r="BF5" s="36">
+        <v>44.65</v>
+      </c>
+      <c r="BG5" s="36">
         <f t="shared" si="5"/>
-        <v>44.65</v>
-      </c>
-      <c r="BG5" s="36">
+        <v>30.4</v>
+      </c>
+      <c r="BH5" s="36">
         <f t="shared" si="6"/>
-        <v>30.4</v>
-      </c>
-      <c r="BH5" s="36">
+        <v>36.1</v>
+      </c>
+      <c r="BI5" s="36">
         <f t="shared" si="7"/>
-        <v>36.1</v>
-      </c>
-      <c r="BI5" s="36">
+        <v>46.55</v>
+      </c>
+      <c r="BJ5" s="36">
         <f t="shared" si="8"/>
-        <v>29.782499999999995</v>
-      </c>
-      <c r="BJ5" s="36">
-        <f t="shared" si="9"/>
         <v>42.417499999999997</v>
       </c>
       <c r="BK5" s="19"/>
@@ -2320,27 +2313,26 @@
         <v>68</v>
       </c>
       <c r="BE6" s="36">
+        <v>69</v>
+      </c>
+      <c r="BF6" s="36">
         <f t="shared" si="4"/>
+        <v>60.8</v>
+      </c>
+      <c r="BG6" s="36">
+        <f t="shared" si="5"/>
         <v>57.949999999999996</v>
       </c>
-      <c r="BF6" s="36">
-        <f t="shared" si="5"/>
-        <v>60.8</v>
-      </c>
-      <c r="BG6" s="36">
+      <c r="BH6" s="36">
         <f t="shared" si="6"/>
-        <v>57.949999999999996</v>
-      </c>
-      <c r="BH6" s="36">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="BI6" s="36">
         <f t="shared" si="7"/>
-        <v>64.599999999999994</v>
-      </c>
-      <c r="BI6" s="36">
+        <v>65.55</v>
+      </c>
+      <c r="BJ6" s="36">
         <f t="shared" si="8"/>
-        <v>55.052499999999995</v>
-      </c>
-      <c r="BJ6" s="36">
-        <f t="shared" si="9"/>
         <v>57.76</v>
       </c>
       <c r="BK6" s="19"/>
@@ -2441,27 +2433,27 @@
         <v>109</v>
       </c>
       <c r="BE7" s="36">
-        <f>+BA7*0.95</f>
+        <f>730-237-152-143-69</f>
+        <v>129</v>
+      </c>
+      <c r="BF7" s="36">
+        <f t="shared" si="4"/>
+        <v>102.6</v>
+      </c>
+      <c r="BG7" s="36">
+        <f t="shared" si="5"/>
+        <v>101.64999999999999</v>
+      </c>
+      <c r="BH7" s="36">
+        <f t="shared" si="6"/>
         <v>103.55</v>
       </c>
-      <c r="BF7" s="36">
-        <f t="shared" si="5"/>
-        <v>102.6</v>
-      </c>
-      <c r="BG7" s="36">
-        <f t="shared" si="6"/>
-        <v>101.64999999999999</v>
-      </c>
-      <c r="BH7" s="36">
+      <c r="BI7" s="36">
         <f t="shared" si="7"/>
-        <v>103.55</v>
-      </c>
-      <c r="BI7" s="36">
+        <v>122.55</v>
+      </c>
+      <c r="BJ7" s="36">
         <f t="shared" si="8"/>
-        <v>98.372499999999988</v>
-      </c>
-      <c r="BJ7" s="36">
-        <f t="shared" si="9"/>
         <v>97.469999999999985</v>
       </c>
       <c r="BK7" s="19"/>
@@ -2558,27 +2550,26 @@
         <v>146</v>
       </c>
       <c r="BE8" s="36">
-        <f>+BA8*1.3</f>
-        <v>135.20000000000002</v>
+        <v>166</v>
       </c>
       <c r="BF8" s="36">
-        <f t="shared" ref="BF8:BJ8" si="10">+BB8*1.3</f>
+        <f t="shared" ref="BF8:BJ8" si="9">+BB8*1.3</f>
         <v>156</v>
       </c>
       <c r="BG8" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>166.4</v>
       </c>
       <c r="BH8" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>189.8</v>
       </c>
       <c r="BI8" s="36">
-        <f t="shared" si="10"/>
-        <v>175.76000000000002</v>
+        <f t="shared" si="9"/>
+        <v>215.8</v>
       </c>
       <c r="BJ8" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>202.8</v>
       </c>
       <c r="BK8" s="19"/>
@@ -2673,27 +2664,26 @@
         <v>139</v>
       </c>
       <c r="BE9" s="36">
-        <f>+BA9*1.05</f>
-        <v>129.15</v>
+        <v>143</v>
       </c>
       <c r="BF9" s="36">
-        <f t="shared" ref="BF9:BF10" si="11">+BB9*1.05</f>
+        <f t="shared" ref="BF9:BF10" si="10">+BB9*1.05</f>
         <v>134.4</v>
       </c>
       <c r="BG9" s="36">
-        <f t="shared" ref="BG9:BG10" si="12">+BC9*1.05</f>
+        <f t="shared" ref="BG9:BG10" si="11">+BC9*1.05</f>
         <v>134.4</v>
       </c>
       <c r="BH9" s="36">
-        <f t="shared" ref="BH9:BH10" si="13">+BD9*1.05</f>
+        <f t="shared" ref="BH9:BH10" si="12">+BD9*1.05</f>
         <v>145.95000000000002</v>
       </c>
       <c r="BI9" s="36">
-        <f t="shared" ref="BI9:BI10" si="14">+BE9*1.05</f>
-        <v>135.60750000000002</v>
+        <f t="shared" ref="BI9:BI10" si="13">+BE9*1.05</f>
+        <v>150.15</v>
       </c>
       <c r="BJ9" s="36">
-        <f t="shared" ref="BJ9:BJ10" si="15">+BF9*1.05</f>
+        <f t="shared" ref="BJ9:BJ10" si="14">+BF9*1.05</f>
         <v>141.12</v>
       </c>
       <c r="BK9" s="19"/>
@@ -2788,27 +2778,26 @@
         <v>147</v>
       </c>
       <c r="BE10" s="36">
-        <f t="shared" ref="BE10" si="16">+BA10*1.05</f>
-        <v>139.65</v>
+        <v>152</v>
       </c>
       <c r="BF10" s="36">
+        <f t="shared" si="10"/>
+        <v>143.85</v>
+      </c>
+      <c r="BG10" s="36">
         <f t="shared" si="11"/>
-        <v>143.85</v>
-      </c>
-      <c r="BG10" s="36">
+        <v>144.9</v>
+      </c>
+      <c r="BH10" s="36">
         <f t="shared" si="12"/>
-        <v>144.9</v>
-      </c>
-      <c r="BH10" s="36">
+        <v>154.35</v>
+      </c>
+      <c r="BI10" s="36">
         <f t="shared" si="13"/>
-        <v>154.35</v>
-      </c>
-      <c r="BI10" s="36">
+        <v>159.6</v>
+      </c>
+      <c r="BJ10" s="36">
         <f t="shared" si="14"/>
-        <v>146.63250000000002</v>
-      </c>
-      <c r="BJ10" s="36">
-        <f t="shared" si="15"/>
         <v>151.04249999999999</v>
       </c>
       <c r="BK10" s="19"/>
@@ -2909,27 +2898,27 @@
         <v>153</v>
       </c>
       <c r="BE11" s="36">
-        <f t="shared" ref="BE11:BE12" si="17">+BA11*1.05</f>
-        <v>155.4</v>
+        <f>373-221</f>
+        <v>152</v>
       </c>
       <c r="BF11" s="36">
-        <f t="shared" ref="BF11:BF12" si="18">+BB11*1.05</f>
+        <f t="shared" ref="BF11:BF12" si="15">+BB11*1.05</f>
         <v>152.25</v>
       </c>
       <c r="BG11" s="36">
-        <f t="shared" ref="BG11:BG12" si="19">+BC11*1.05</f>
+        <f t="shared" ref="BG11:BG12" si="16">+BC11*1.05</f>
         <v>148.05000000000001</v>
       </c>
       <c r="BH11" s="36">
-        <f t="shared" ref="BH11:BH12" si="20">+BD11*1.05</f>
+        <f t="shared" ref="BH11:BH12" si="17">+BD11*1.05</f>
         <v>160.65</v>
       </c>
       <c r="BI11" s="36">
-        <f t="shared" ref="BI11:BI12" si="21">+BE11*1.05</f>
-        <v>163.17000000000002</v>
+        <f t="shared" ref="BI11:BI12" si="18">+BE11*1.05</f>
+        <v>159.6</v>
       </c>
       <c r="BJ11" s="36">
-        <f t="shared" ref="BJ11:BJ12" si="22">+BF11*1.05</f>
+        <f t="shared" ref="BJ11:BJ12" si="19">+BF11*1.05</f>
         <v>159.86250000000001</v>
       </c>
       <c r="BK11" s="19"/>
@@ -3026,27 +3015,26 @@
         <v>212</v>
       </c>
       <c r="BE12" s="36">
-        <f>+BA12*1.05</f>
-        <v>206.85000000000002</v>
+        <v>234</v>
       </c>
       <c r="BF12" s="36">
+        <f t="shared" si="15"/>
+        <v>201.60000000000002</v>
+      </c>
+      <c r="BG12" s="36">
+        <f t="shared" si="16"/>
+        <v>198.45000000000002</v>
+      </c>
+      <c r="BH12" s="36">
+        <f t="shared" si="17"/>
+        <v>222.60000000000002</v>
+      </c>
+      <c r="BI12" s="36">
         <f t="shared" si="18"/>
-        <v>201.60000000000002</v>
-      </c>
-      <c r="BG12" s="36">
+        <v>245.70000000000002</v>
+      </c>
+      <c r="BJ12" s="36">
         <f t="shared" si="19"/>
-        <v>198.45000000000002</v>
-      </c>
-      <c r="BH12" s="36">
-        <f t="shared" si="20"/>
-        <v>222.60000000000002</v>
-      </c>
-      <c r="BI12" s="36">
-        <f t="shared" si="21"/>
-        <v>217.19250000000002</v>
-      </c>
-      <c r="BJ12" s="36">
-        <f t="shared" si="22"/>
         <v>211.68000000000004</v>
       </c>
       <c r="BK12" s="19"/>
@@ -3141,27 +3129,26 @@
         <v>198</v>
       </c>
       <c r="BE13" s="36">
-        <f t="shared" ref="BE13:BE16" si="23">+BA13*0.9</f>
-        <v>171.9</v>
+        <v>221</v>
       </c>
       <c r="BF13" s="36">
-        <f t="shared" ref="BF13:BF16" si="24">+BB13*0.9</f>
+        <f t="shared" ref="BF13:BF16" si="20">+BB13*0.9</f>
         <v>171</v>
       </c>
       <c r="BG13" s="36">
-        <f t="shared" ref="BG13:BG16" si="25">+BC13*0.9</f>
+        <f t="shared" ref="BG13:BG16" si="21">+BC13*0.9</f>
         <v>180</v>
       </c>
       <c r="BH13" s="36">
-        <f t="shared" ref="BH13:BH16" si="26">+BD13*0.9</f>
+        <f t="shared" ref="BH13:BH16" si="22">+BD13*0.9</f>
         <v>178.20000000000002</v>
       </c>
       <c r="BI13" s="36">
-        <f t="shared" ref="BI13:BI16" si="27">+BE13*0.9</f>
-        <v>154.71</v>
+        <f t="shared" ref="BI13:BI16" si="23">+BE13*0.9</f>
+        <v>198.9</v>
       </c>
       <c r="BJ13" s="36">
-        <f t="shared" ref="BJ13:BJ16" si="28">+BF13*0.9</f>
+        <f t="shared" ref="BJ13:BJ16" si="24">+BF13*0.9</f>
         <v>153.9</v>
       </c>
       <c r="BK13" s="19"/>
@@ -3256,27 +3243,26 @@
         <v>217</v>
       </c>
       <c r="BE14" s="36">
+        <v>249</v>
+      </c>
+      <c r="BF14" s="36">
+        <f t="shared" si="20"/>
+        <v>219.6</v>
+      </c>
+      <c r="BG14" s="36">
+        <f t="shared" si="21"/>
+        <v>180.9</v>
+      </c>
+      <c r="BH14" s="36">
+        <f t="shared" si="22"/>
+        <v>195.3</v>
+      </c>
+      <c r="BI14" s="36">
         <f t="shared" si="23"/>
-        <v>210.6</v>
-      </c>
-      <c r="BF14" s="36">
+        <v>224.1</v>
+      </c>
+      <c r="BJ14" s="36">
         <f t="shared" si="24"/>
-        <v>219.6</v>
-      </c>
-      <c r="BG14" s="36">
-        <f t="shared" si="25"/>
-        <v>180.9</v>
-      </c>
-      <c r="BH14" s="36">
-        <f t="shared" si="26"/>
-        <v>195.3</v>
-      </c>
-      <c r="BI14" s="36">
-        <f t="shared" si="27"/>
-        <v>189.54</v>
-      </c>
-      <c r="BJ14" s="36">
-        <f t="shared" si="28"/>
         <v>197.64</v>
       </c>
       <c r="BK14" s="19"/>
@@ -3371,27 +3357,26 @@
         <v>228</v>
       </c>
       <c r="BE15" s="36">
+        <v>237</v>
+      </c>
+      <c r="BF15" s="36">
+        <f t="shared" si="20"/>
+        <v>202.5</v>
+      </c>
+      <c r="BG15" s="36">
+        <f t="shared" si="21"/>
+        <v>196.20000000000002</v>
+      </c>
+      <c r="BH15" s="36">
+        <f t="shared" si="22"/>
+        <v>205.20000000000002</v>
+      </c>
+      <c r="BI15" s="36">
         <f t="shared" si="23"/>
-        <v>188.1</v>
-      </c>
-      <c r="BF15" s="36">
+        <v>213.3</v>
+      </c>
+      <c r="BJ15" s="36">
         <f t="shared" si="24"/>
-        <v>202.5</v>
-      </c>
-      <c r="BG15" s="36">
-        <f t="shared" si="25"/>
-        <v>196.20000000000002</v>
-      </c>
-      <c r="BH15" s="36">
-        <f t="shared" si="26"/>
-        <v>205.20000000000002</v>
-      </c>
-      <c r="BI15" s="36">
-        <f t="shared" si="27"/>
-        <v>169.29</v>
-      </c>
-      <c r="BJ15" s="36">
-        <f t="shared" si="28"/>
         <v>182.25</v>
       </c>
       <c r="BK15" s="19"/>
@@ -3486,27 +3471,26 @@
         <v>258</v>
       </c>
       <c r="BE16" s="36">
-        <f>+BA16*0.9</f>
-        <v>209.70000000000002</v>
+        <v>274</v>
       </c>
       <c r="BF16" s="36">
+        <f t="shared" si="20"/>
+        <v>235.8</v>
+      </c>
+      <c r="BG16" s="36">
+        <f t="shared" si="21"/>
+        <v>217.8</v>
+      </c>
+      <c r="BH16" s="36">
+        <f t="shared" si="22"/>
+        <v>232.20000000000002</v>
+      </c>
+      <c r="BI16" s="36">
+        <f t="shared" si="23"/>
+        <v>246.6</v>
+      </c>
+      <c r="BJ16" s="36">
         <f t="shared" si="24"/>
-        <v>235.8</v>
-      </c>
-      <c r="BG16" s="36">
-        <f t="shared" si="25"/>
-        <v>217.8</v>
-      </c>
-      <c r="BH16" s="36">
-        <f t="shared" si="26"/>
-        <v>232.20000000000002</v>
-      </c>
-      <c r="BI16" s="36">
-        <f t="shared" si="27"/>
-        <v>188.73000000000002</v>
-      </c>
-      <c r="BJ16" s="36">
-        <f t="shared" si="28"/>
         <v>212.22000000000003</v>
       </c>
       <c r="BK16" s="19"/>
@@ -3558,11 +3542,11 @@
         <v>1450.5</v>
       </c>
       <c r="M17" s="23">
-        <f t="shared" ref="M17:N17" si="29">+I17</f>
+        <f t="shared" ref="M17:N17" si="25">+I17</f>
         <v>1393.5</v>
       </c>
       <c r="N17" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>1573.7</v>
       </c>
       <c r="O17" s="23"/>
@@ -3594,83 +3578,83 @@
       <c r="AO17" s="23"/>
       <c r="AP17" s="23"/>
       <c r="AQ17" s="23">
-        <f t="shared" ref="AQ17:AX17" si="30">SUM(AQ3:AQ16)</f>
+        <f t="shared" ref="AQ17:AV17" si="26">SUM(AQ3:AQ16)</f>
         <v>0</v>
       </c>
       <c r="AR17" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AS17" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AT17" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AU17" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AV17" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AW17" s="23">
-        <f>SUM(AW3:AW16)</f>
+        <f t="shared" ref="AW17:BJ17" si="27">SUM(AW3:AW16)</f>
         <v>1701</v>
       </c>
       <c r="AX17" s="23">
-        <f>SUM(AX3:AX16)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AY17" s="23">
-        <f>SUM(AY3:AY16)</f>
+        <f t="shared" si="27"/>
         <v>1639</v>
       </c>
       <c r="AZ17" s="23">
-        <f>SUM(AZ3:AZ16)</f>
+        <f t="shared" si="27"/>
         <v>1788</v>
       </c>
       <c r="BA17" s="23">
-        <f>SUM(BA3:BA16)</f>
+        <f t="shared" si="27"/>
         <v>1787</v>
       </c>
       <c r="BB17" s="23">
-        <f>SUM(BB3:BB16)</f>
+        <f t="shared" si="27"/>
         <v>1876</v>
       </c>
       <c r="BC17" s="23">
-        <f>SUM(BC3:BC16)</f>
+        <f t="shared" si="27"/>
         <v>1795</v>
       </c>
       <c r="BD17" s="23">
-        <f>SUM(BD3:BD16)</f>
+        <f t="shared" si="27"/>
         <v>1924</v>
       </c>
       <c r="BE17" s="23">
-        <f>SUM(BE3:BE16)</f>
-        <v>1750.8</v>
+        <f t="shared" si="27"/>
+        <v>2089</v>
       </c>
       <c r="BF17" s="23">
-        <f>SUM(BF3:BF16)</f>
+        <f t="shared" si="27"/>
         <v>1838.35</v>
       </c>
       <c r="BG17" s="23">
-        <f>SUM(BG3:BG16)</f>
+        <f t="shared" si="27"/>
         <v>1766.6000000000001</v>
       </c>
       <c r="BH17" s="23">
-        <f>SUM(BH3:BH16)</f>
+        <f t="shared" si="27"/>
         <v>1898.9500000000003</v>
       </c>
       <c r="BI17" s="23">
-        <f>SUM(BI3:BI16)</f>
-        <v>1734.67</v>
+        <f t="shared" si="27"/>
+        <v>2061.6999999999998</v>
       </c>
       <c r="BJ17" s="23">
-        <f>SUM(BJ3:BJ16)</f>
+        <f t="shared" si="27"/>
         <v>1822.7975000000004</v>
       </c>
       <c r="BK17" s="23"/>
@@ -3688,35 +3672,35 @@
         <v>5762.5999999999995</v>
       </c>
       <c r="BT17" s="23">
-        <f t="shared" ref="BT17:CG17" si="31">SUM(L17:O17)</f>
+        <f t="shared" ref="BT17:CG17" si="28">SUM(L17:O17)</f>
         <v>4417.7</v>
       </c>
       <c r="BU17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>2967.2</v>
       </c>
       <c r="BV17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>1573.7</v>
       </c>
       <c r="BW17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BX17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BY17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="BZ17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CA17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CB17" s="23">
@@ -3728,39 +3712,39 @@
         <v>7090</v>
       </c>
       <c r="CD17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CE17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CF17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CG17" s="23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CH17" s="23">
-        <f t="shared" ref="CH17" si="32">SUM(Z17:AC17)</f>
+        <f t="shared" ref="CH17" si="29">SUM(Z17:AC17)</f>
         <v>0</v>
       </c>
       <c r="CI17" s="23">
-        <f t="shared" ref="CI17" si="33">SUM(AA17:AD17)</f>
+        <f t="shared" ref="CI17" si="30">SUM(AA17:AD17)</f>
         <v>0</v>
       </c>
       <c r="CJ17" s="23">
-        <f t="shared" ref="CJ17" si="34">SUM(AB17:AE17)</f>
+        <f t="shared" ref="CJ17" si="31">SUM(AB17:AE17)</f>
         <v>0</v>
       </c>
       <c r="CK17" s="23">
-        <f t="shared" ref="CK17" si="35">SUM(AC17:AF17)</f>
+        <f t="shared" ref="CK17" si="32">SUM(AC17:AF17)</f>
         <v>0</v>
       </c>
       <c r="CL17" s="23">
-        <f t="shared" ref="CL17" si="36">SUM(AD17:AG17)</f>
+        <f t="shared" ref="CL17" si="33">SUM(AD17:AG17)</f>
         <v>0</v>
       </c>
     </row>
@@ -3795,11 +3779,11 @@
         <v>119.59500000000001</v>
       </c>
       <c r="M18" s="19">
-        <f t="shared" ref="M18:N18" si="37">+I18*1.05</f>
+        <f t="shared" ref="M18:N18" si="34">+I18*1.05</f>
         <v>131.25</v>
       </c>
       <c r="N18" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>132.51</v>
       </c>
       <c r="O18" s="19"/>
@@ -3857,11 +3841,11 @@
       <c r="BP18" s="19"/>
       <c r="BQ18" s="19"/>
       <c r="BR18" s="19">
-        <f t="shared" ref="BR18:BR45" si="38">SUM(G18:J18)</f>
+        <f t="shared" ref="BR18:BR45" si="35">SUM(G18:J18)</f>
         <v>472</v>
       </c>
       <c r="BS18" s="19">
-        <f t="shared" ref="BS18:BS30" si="39">SUM(K18:N18)</f>
+        <f t="shared" ref="BS18:BS30" si="36">SUM(K18:N18)</f>
         <v>499.55500000000001</v>
       </c>
       <c r="BT18" s="19"/>
@@ -4199,28 +4183,27 @@
         <v>266</v>
       </c>
       <c r="BE22" s="19">
-        <f>+BD22</f>
-        <v>266</v>
+        <v>244.4</v>
       </c>
       <c r="BF22" s="19">
-        <f t="shared" ref="BF22:BJ22" si="40">+BE22</f>
-        <v>266</v>
+        <f t="shared" ref="BF22:BJ22" si="37">+BE22</f>
+        <v>244.4</v>
       </c>
       <c r="BG22" s="19">
-        <f t="shared" si="40"/>
-        <v>266</v>
+        <f t="shared" si="37"/>
+        <v>244.4</v>
       </c>
       <c r="BH22" s="19">
-        <f t="shared" si="40"/>
-        <v>266</v>
+        <f t="shared" si="37"/>
+        <v>244.4</v>
       </c>
       <c r="BI22" s="19">
-        <f t="shared" si="40"/>
-        <v>266</v>
+        <f t="shared" si="37"/>
+        <v>244.4</v>
       </c>
       <c r="BJ22" s="19">
-        <f t="shared" si="40"/>
-        <v>266</v>
+        <f t="shared" si="37"/>
+        <v>244.4</v>
       </c>
       <c r="BK22" s="19"/>
       <c r="BM22" s="19"/>
@@ -4297,28 +4280,27 @@
         <v>1233</v>
       </c>
       <c r="BE23" s="19">
-        <f t="shared" ref="BE23:BJ23" si="41">+BD23</f>
-        <v>1233</v>
+        <v>1246.4000000000001</v>
       </c>
       <c r="BF23" s="19">
-        <f t="shared" si="41"/>
-        <v>1233</v>
+        <f t="shared" ref="BE23:BJ23" si="38">+BE23</f>
+        <v>1246.4000000000001</v>
       </c>
       <c r="BG23" s="19">
-        <f t="shared" si="41"/>
-        <v>1233</v>
+        <f t="shared" si="38"/>
+        <v>1246.4000000000001</v>
       </c>
       <c r="BH23" s="19">
-        <f t="shared" si="41"/>
-        <v>1233</v>
+        <f t="shared" si="38"/>
+        <v>1246.4000000000001</v>
       </c>
       <c r="BI23" s="19">
-        <f t="shared" si="41"/>
-        <v>1233</v>
+        <f t="shared" si="38"/>
+        <v>1246.4000000000001</v>
       </c>
       <c r="BJ23" s="19">
-        <f t="shared" si="41"/>
-        <v>1233</v>
+        <f t="shared" si="38"/>
+        <v>1246.4000000000001</v>
       </c>
       <c r="BK23" s="19"/>
       <c r="BM23" s="19"/>
@@ -4408,27 +4390,26 @@
         <v>1149</v>
       </c>
       <c r="BE24" s="19">
-        <f>+BA24*1.05</f>
-        <v>1245.3</v>
+        <v>1190</v>
       </c>
       <c r="BF24" s="19">
-        <f t="shared" ref="BF24:BJ24" si="42">+BB24*1.05</f>
+        <f t="shared" ref="BF24:BJ24" si="39">+BB24*1.05</f>
         <v>1324.05</v>
       </c>
       <c r="BG24" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>1313.865</v>
       </c>
       <c r="BH24" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>1206.45</v>
       </c>
       <c r="BI24" s="19">
-        <f t="shared" si="42"/>
-        <v>1307.5650000000001</v>
+        <f t="shared" si="39"/>
+        <v>1249.5</v>
       </c>
       <c r="BJ24" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>1390.2525000000001</v>
       </c>
       <c r="BK24" s="19"/>
@@ -4480,11 +4461,11 @@
         <v>613.4</v>
       </c>
       <c r="M25" s="23">
-        <f t="shared" ref="M25:N25" si="43">+L25+5</f>
+        <f t="shared" ref="M25:N25" si="40">+L25+5</f>
         <v>618.4</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>623.4</v>
       </c>
       <c r="O25" s="23"/>
@@ -4516,35 +4497,35 @@
       <c r="AO25" s="23"/>
       <c r="AP25" s="23"/>
       <c r="AQ25" s="23">
-        <f t="shared" ref="AQ25:AX25" si="44">SUM(AQ20:AQ24)</f>
+        <f t="shared" ref="AQ25:AX25" si="41">SUM(AQ20:AQ24)</f>
         <v>0</v>
       </c>
       <c r="AR25" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AS25" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AT25" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AU25" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AV25" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>1806</v>
       </c>
       <c r="AW25" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>1910</v>
       </c>
       <c r="AX25" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AY25" s="23">
@@ -4568,32 +4549,32 @@
         <v>2445.3000000000002</v>
       </c>
       <c r="BD25" s="23">
-        <f>SUM(BD20:BD24)</f>
+        <f t="shared" ref="BD25:BJ25" si="42">SUM(BD20:BD24)</f>
         <v>2648</v>
       </c>
       <c r="BE25" s="23">
-        <f>SUM(BE20:BE24)</f>
-        <v>2744.3</v>
+        <f t="shared" si="42"/>
+        <v>2680.8</v>
       </c>
       <c r="BF25" s="23">
-        <f>SUM(BF20:BF24)</f>
-        <v>2823.05</v>
+        <f t="shared" si="42"/>
+        <v>2814.8500000000004</v>
       </c>
       <c r="BG25" s="23">
-        <f>SUM(BG20:BG24)</f>
-        <v>2812.8649999999998</v>
+        <f t="shared" si="42"/>
+        <v>2804.665</v>
       </c>
       <c r="BH25" s="23">
-        <f>SUM(BH20:BH24)</f>
-        <v>2705.45</v>
+        <f t="shared" si="42"/>
+        <v>2697.25</v>
       </c>
       <c r="BI25" s="23">
-        <f>SUM(BI20:BI24)</f>
-        <v>2806.5650000000001</v>
+        <f t="shared" si="42"/>
+        <v>2740.3</v>
       </c>
       <c r="BJ25" s="23">
-        <f>SUM(BJ20:BJ24)</f>
-        <v>2889.2525000000001</v>
+        <f t="shared" si="42"/>
+        <v>2881.0525000000002</v>
       </c>
       <c r="BK25" s="23"/>
       <c r="BM25" s="23"/>
@@ -4602,43 +4583,43 @@
       <c r="BP25" s="23"/>
       <c r="BQ25" s="23"/>
       <c r="BR25" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1680.9999999999998</v>
       </c>
       <c r="BS25" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>2463.6</v>
       </c>
       <c r="BT25" s="23">
-        <f t="shared" ref="BT25:CL25" si="45">SUM(BT20:BT24)</f>
+        <f t="shared" ref="BT25:CL25" si="43">SUM(BT20:BT24)</f>
         <v>0</v>
       </c>
       <c r="BU25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BV25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BW25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BX25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BY25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BZ25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CA25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CB25" s="23">
@@ -4650,39 +4631,39 @@
         <v>8990</v>
       </c>
       <c r="CD25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CE25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CF25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CG25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CH25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CI25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CJ25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CK25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="CL25" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -4834,27 +4815,26 @@
         <v>111</v>
       </c>
       <c r="BE27" s="19">
-        <f t="shared" ref="BE27:BE28" si="46">+BA27*1.1</f>
-        <v>105.60000000000001</v>
+        <v>106.4</v>
       </c>
       <c r="BF27" s="19">
-        <f t="shared" ref="BF27:BF28" si="47">+BB27*1.1</f>
+        <f t="shared" ref="BF27:BF28" si="44">+BB27*1.1</f>
         <v>108.9</v>
       </c>
       <c r="BG27" s="19">
-        <f t="shared" ref="BG27:BG28" si="48">+BC27*1.1</f>
+        <f t="shared" ref="BG27:BG28" si="45">+BC27*1.1</f>
         <v>126.50000000000001</v>
       </c>
       <c r="BH27" s="19">
-        <f t="shared" ref="BH27:BH28" si="49">+BD27*1.1</f>
+        <f t="shared" ref="BH27:BH28" si="46">+BD27*1.1</f>
         <v>122.10000000000001</v>
       </c>
       <c r="BI27" s="19">
-        <f t="shared" ref="BI27:BI28" si="50">+BE27*1.1</f>
-        <v>116.16000000000003</v>
+        <f t="shared" ref="BI27:BI28" si="47">+BE27*1.1</f>
+        <v>117.04000000000002</v>
       </c>
       <c r="BJ27" s="19">
-        <f t="shared" ref="BJ27:BJ28" si="51">+BF27*1.1</f>
+        <f t="shared" ref="BJ27:BJ28" si="48">+BF27*1.1</f>
         <v>119.79000000000002</v>
       </c>
       <c r="BK27" s="19"/>
@@ -4949,27 +4929,26 @@
         <v>233</v>
       </c>
       <c r="BE28" s="19">
-        <f>+BA28*1.1</f>
-        <v>293.70000000000005</v>
+        <v>200.4</v>
       </c>
       <c r="BF28" s="19">
+        <f t="shared" si="44"/>
+        <v>277.20000000000005</v>
+      </c>
+      <c r="BG28" s="19">
+        <f t="shared" si="45"/>
+        <v>288.20000000000005</v>
+      </c>
+      <c r="BH28" s="19">
+        <f t="shared" si="46"/>
+        <v>256.3</v>
+      </c>
+      <c r="BI28" s="19">
         <f t="shared" si="47"/>
-        <v>277.20000000000005</v>
-      </c>
-      <c r="BG28" s="19">
+        <v>220.44000000000003</v>
+      </c>
+      <c r="BJ28" s="19">
         <f t="shared" si="48"/>
-        <v>288.20000000000005</v>
-      </c>
-      <c r="BH28" s="19">
-        <f t="shared" si="49"/>
-        <v>256.3</v>
-      </c>
-      <c r="BI28" s="19">
-        <f t="shared" si="50"/>
-        <v>323.07000000000005</v>
-      </c>
-      <c r="BJ28" s="19">
-        <f t="shared" si="51"/>
         <v>304.92000000000007</v>
       </c>
       <c r="BK28" s="19"/>
@@ -5064,27 +5043,26 @@
         <v>653</v>
       </c>
       <c r="BE29" s="19">
-        <f>+BA29*1.3</f>
-        <v>744.9</v>
+        <v>729</v>
       </c>
       <c r="BF29" s="19">
-        <f t="shared" ref="BF29:BJ29" si="52">+BB29*1.3</f>
+        <f t="shared" ref="BF29:BJ29" si="49">+BB29*1.3</f>
         <v>783.9</v>
       </c>
       <c r="BG29" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>755.30000000000007</v>
       </c>
       <c r="BH29" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>848.9</v>
       </c>
       <c r="BI29" s="19">
-        <f t="shared" si="52"/>
-        <v>968.37</v>
+        <f t="shared" si="49"/>
+        <v>947.7</v>
       </c>
       <c r="BJ29" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>1019.07</v>
       </c>
       <c r="BK29" s="19"/>
@@ -5136,11 +5114,11 @@
         <v>395.89</v>
       </c>
       <c r="M30" s="23">
-        <f t="shared" ref="M30:N30" si="53">+I30*1.1</f>
+        <f t="shared" ref="M30:N30" si="50">+I30*1.1</f>
         <v>380.27000000000004</v>
       </c>
       <c r="N30" s="23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>359.70000000000005</v>
       </c>
       <c r="O30" s="23"/>
@@ -5172,35 +5150,35 @@
       <c r="AO30" s="23"/>
       <c r="AP30" s="23"/>
       <c r="AQ30" s="23">
-        <f t="shared" ref="AQ30:AX30" si="54">SUM(AQ27:AQ29)</f>
+        <f t="shared" ref="AQ30:AX30" si="51">SUM(AQ27:AQ29)</f>
         <v>0</v>
       </c>
       <c r="AR30" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AS30" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AT30" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AU30" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AV30" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AW30" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>835</v>
       </c>
       <c r="AX30" s="23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AY30" s="23">
@@ -5227,27 +5205,27 @@
         <v>997</v>
       </c>
       <c r="BE30" s="23">
-        <f t="shared" ref="BE30:BJ30" si="55">SUM(BE27:BE29)</f>
-        <v>1144.2</v>
+        <f t="shared" ref="BE30:BJ30" si="52">SUM(BE27:BE29)</f>
+        <v>1035.8</v>
       </c>
       <c r="BF30" s="23">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>1170</v>
       </c>
       <c r="BG30" s="23">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>1170</v>
       </c>
       <c r="BH30" s="23">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>1227.3</v>
       </c>
       <c r="BI30" s="23">
-        <f t="shared" si="55"/>
-        <v>1407.6000000000001</v>
+        <f t="shared" si="52"/>
+        <v>1285.18</v>
       </c>
       <c r="BJ30" s="23">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>1443.7800000000002</v>
       </c>
       <c r="BK30" s="23"/>
@@ -5257,87 +5235,87 @@
       <c r="BP30" s="23"/>
       <c r="BQ30" s="23"/>
       <c r="BR30" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1384</v>
       </c>
       <c r="BS30" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>1543.8600000000001</v>
       </c>
       <c r="BT30" s="23">
-        <f t="shared" ref="BT30" si="56">SUM(BT27:BT29)</f>
+        <f t="shared" ref="BT30" si="53">SUM(BT27:BT29)</f>
         <v>0</v>
       </c>
       <c r="BU30" s="23">
-        <f t="shared" ref="BU30" si="57">SUM(BU27:BU29)</f>
+        <f t="shared" ref="BU30" si="54">SUM(BU27:BU29)</f>
         <v>0</v>
       </c>
       <c r="BV30" s="23">
-        <f t="shared" ref="BV30" si="58">SUM(BV27:BV29)</f>
+        <f t="shared" ref="BV30" si="55">SUM(BV27:BV29)</f>
         <v>0</v>
       </c>
       <c r="BW30" s="23">
-        <f t="shared" ref="BW30" si="59">SUM(BW27:BW29)</f>
+        <f t="shared" ref="BW30" si="56">SUM(BW27:BW29)</f>
         <v>0</v>
       </c>
       <c r="BX30" s="23">
-        <f t="shared" ref="BX30" si="60">SUM(BX27:BX29)</f>
+        <f t="shared" ref="BX30" si="57">SUM(BX27:BX29)</f>
         <v>0</v>
       </c>
       <c r="BY30" s="23">
-        <f t="shared" ref="BY30" si="61">SUM(BY27:BY29)</f>
+        <f t="shared" ref="BY30" si="58">SUM(BY27:BY29)</f>
         <v>0</v>
       </c>
       <c r="BZ30" s="23">
-        <f t="shared" ref="BZ30" si="62">SUM(BZ27:BZ29)</f>
+        <f t="shared" ref="BZ30" si="59">SUM(BZ27:BZ29)</f>
         <v>0</v>
       </c>
       <c r="CA30" s="23">
-        <f t="shared" ref="CA30" si="63">SUM(CA27:CA29)</f>
+        <f t="shared" ref="CA30" si="60">SUM(CA27:CA29)</f>
         <v>0</v>
       </c>
       <c r="CB30" s="23">
-        <f t="shared" ref="CB30" si="64">SUM(CB27:CB29)</f>
+        <f t="shared" ref="CB30" si="61">SUM(CB27:CB29)</f>
         <v>3380</v>
       </c>
       <c r="CC30" s="23">
-        <f t="shared" ref="CC30" si="65">SUM(CC27:CC29)</f>
+        <f t="shared" ref="CC30" si="62">SUM(CC27:CC29)</f>
         <v>3607</v>
       </c>
       <c r="CD30" s="23">
-        <f t="shared" ref="CD30" si="66">SUM(CD27:CD29)</f>
+        <f t="shared" ref="CD30" si="63">SUM(CD27:CD29)</f>
         <v>0</v>
       </c>
       <c r="CE30" s="23">
-        <f t="shared" ref="CE30" si="67">SUM(CE27:CE29)</f>
+        <f t="shared" ref="CE30" si="64">SUM(CE27:CE29)</f>
         <v>0</v>
       </c>
       <c r="CF30" s="23">
-        <f t="shared" ref="CF30" si="68">SUM(CF27:CF29)</f>
+        <f t="shared" ref="CF30" si="65">SUM(CF27:CF29)</f>
         <v>0</v>
       </c>
       <c r="CG30" s="23">
-        <f t="shared" ref="CG30" si="69">SUM(CG27:CG29)</f>
+        <f t="shared" ref="CG30" si="66">SUM(CG27:CG29)</f>
         <v>0</v>
       </c>
       <c r="CH30" s="23">
-        <f t="shared" ref="CH30" si="70">SUM(CH27:CH29)</f>
+        <f t="shared" ref="CH30" si="67">SUM(CH27:CH29)</f>
         <v>0</v>
       </c>
       <c r="CI30" s="23">
-        <f t="shared" ref="CI30" si="71">SUM(CI27:CI29)</f>
+        <f t="shared" ref="CI30" si="68">SUM(CI27:CI29)</f>
         <v>0</v>
       </c>
       <c r="CJ30" s="23">
-        <f t="shared" ref="CJ30" si="72">SUM(CJ27:CJ29)</f>
+        <f t="shared" ref="CJ30" si="69">SUM(CJ27:CJ29)</f>
         <v>0</v>
       </c>
       <c r="CK30" s="23">
-        <f t="shared" ref="CK30" si="73">SUM(CK27:CK29)</f>
+        <f t="shared" ref="CK30" si="70">SUM(CK27:CK29)</f>
         <v>0</v>
       </c>
       <c r="CL30" s="23">
-        <f t="shared" ref="CL30" si="74">SUM(CL27:CL29)</f>
+        <f t="shared" ref="CL30" si="71">SUM(CL27:CL29)</f>
         <v>0</v>
       </c>
     </row>
@@ -5489,7 +5467,7 @@
       <c r="BP32" s="19"/>
       <c r="BQ32" s="19"/>
       <c r="BR32" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>76.099999999999994</v>
       </c>
       <c r="BS32" s="19">
@@ -5532,15 +5510,15 @@
         <v>2563.6999999999998</v>
       </c>
       <c r="L33" s="23">
-        <f t="shared" ref="L33:N33" si="75">SUM(L17:L32)</f>
+        <f t="shared" ref="L33:N33" si="72">SUM(L17:L32)</f>
         <v>2579.3849999999998</v>
       </c>
       <c r="M33" s="23">
-        <f t="shared" si="75"/>
+        <f t="shared" si="72"/>
         <v>2523.42</v>
       </c>
       <c r="N33" s="23">
-        <f t="shared" si="75"/>
+        <f t="shared" si="72"/>
         <v>2689.3100000000004</v>
       </c>
       <c r="O33" s="23"/>
@@ -5596,52 +5574,52 @@
         <v>4598.5</v>
       </c>
       <c r="AY33" s="23">
-        <f>AY30+AY25+AY17</f>
+        <f t="shared" ref="AY33:BD33" si="73">AY30+AY25+AY17</f>
         <v>4630</v>
       </c>
       <c r="AZ33" s="23">
-        <f>AZ30+AZ25+AZ17</f>
+        <f t="shared" si="73"/>
         <v>4871</v>
       </c>
       <c r="BA33" s="23">
-        <f>BA30+BA25+BA17</f>
+        <f t="shared" si="73"/>
         <v>4971</v>
       </c>
       <c r="BB33" s="23">
-        <f>BB30+BB25+BB17</f>
+        <f t="shared" si="73"/>
         <v>5214</v>
       </c>
       <c r="BC33" s="23">
-        <f>BC30+BC25+BC17</f>
+        <f t="shared" si="73"/>
         <v>5198.3</v>
       </c>
       <c r="BD33" s="23">
-        <f>BD30+BD25+BD17</f>
+        <f t="shared" si="73"/>
         <v>5569</v>
       </c>
       <c r="BE33" s="23">
-        <f t="shared" ref="AZ33:BJ33" si="76">BE30+BE25+BE17</f>
-        <v>5639.3</v>
+        <f t="shared" ref="BE33:BJ33" si="74">BE30+BE25+BE17</f>
+        <v>5805.6</v>
       </c>
       <c r="BF33" s="23">
-        <f t="shared" si="76"/>
-        <v>5831.4</v>
+        <f t="shared" si="74"/>
+        <v>5823.2000000000007</v>
       </c>
       <c r="BG33" s="23">
-        <f t="shared" si="76"/>
-        <v>5749.4650000000001</v>
+        <f t="shared" si="74"/>
+        <v>5741.2650000000003</v>
       </c>
       <c r="BH33" s="23">
-        <f t="shared" si="76"/>
-        <v>5831.7000000000007</v>
+        <f t="shared" si="74"/>
+        <v>5823.5</v>
       </c>
       <c r="BI33" s="23">
-        <f t="shared" si="76"/>
-        <v>5948.835</v>
+        <f t="shared" si="74"/>
+        <v>6087.18</v>
       </c>
       <c r="BJ33" s="23">
-        <f t="shared" si="76"/>
-        <v>6155.8300000000008</v>
+        <f t="shared" si="74"/>
+        <v>6147.630000000001</v>
       </c>
       <c r="BK33" s="23"/>
       <c r="BM33" s="23"/>
@@ -5692,11 +5670,11 @@
         <v>644.84625000000005</v>
       </c>
       <c r="M34" s="19">
-        <f t="shared" ref="M34:N34" si="77">+M33-M35</f>
+        <f t="shared" ref="M34:N34" si="75">+M33-M35</f>
         <v>630.85500000000002</v>
       </c>
       <c r="N34" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>672.3275000000001</v>
       </c>
       <c r="O34" s="19"/>
@@ -5783,28 +5761,27 @@
         <v>2055.4</v>
       </c>
       <c r="BE34" s="19">
-        <f>+BE33-BE35</f>
-        <v>2086.5410000000002</v>
+        <v>2147.5</v>
       </c>
       <c r="BF34" s="19">
-        <f t="shared" ref="BF34:BJ34" si="78">+BF33-BF35</f>
-        <v>2157.6179999999999</v>
+        <f t="shared" ref="BF34:BJ34" si="76">+BF33-BF35</f>
+        <v>2154.5840000000003</v>
       </c>
       <c r="BG34" s="19">
-        <f t="shared" si="78"/>
-        <v>2127.3020500000002</v>
+        <f t="shared" si="76"/>
+        <v>2124.2680500000001</v>
       </c>
       <c r="BH34" s="19">
-        <f t="shared" si="78"/>
-        <v>2157.7290000000003</v>
+        <f t="shared" si="76"/>
+        <v>2154.6950000000002</v>
       </c>
       <c r="BI34" s="19">
-        <f t="shared" si="78"/>
-        <v>2201.0689499999999</v>
+        <f t="shared" si="76"/>
+        <v>2252.2566000000002</v>
       </c>
       <c r="BJ34" s="19">
-        <f t="shared" si="78"/>
-        <v>2277.6571000000004</v>
+        <f t="shared" si="76"/>
+        <v>2274.6231000000002</v>
       </c>
       <c r="BK34" s="19"/>
       <c r="BM34" s="19"/>
@@ -5817,7 +5794,7 @@
         <v>2385.4</v>
       </c>
       <c r="BS34" s="19">
-        <f t="shared" ref="BS34:BS45" si="79">SUM(K34:N34)</f>
+        <f t="shared" ref="BS34:BS45" si="77">SUM(K34:N34)</f>
         <v>2587.6287499999999</v>
       </c>
       <c r="BT34" s="19"/>
@@ -5860,11 +5837,11 @@
         <v>1934.5387499999997</v>
       </c>
       <c r="M35" s="19">
-        <f t="shared" ref="M35:N35" si="80">+M33*M50</f>
+        <f t="shared" ref="M35:N35" si="78">+M33*M50</f>
         <v>1892.5650000000001</v>
       </c>
       <c r="N35" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>2016.9825000000003</v>
       </c>
       <c r="O35" s="19"/>
@@ -5896,35 +5873,35 @@
       <c r="AO35" s="19"/>
       <c r="AP35" s="19"/>
       <c r="AQ35" s="19">
-        <f t="shared" ref="AQ35:AX35" si="81">AQ33-AQ34</f>
+        <f t="shared" ref="AQ35:AX35" si="79">AQ33-AQ34</f>
         <v>2405.8000000000002</v>
       </c>
       <c r="AR35" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>2560.6999999999998</v>
       </c>
       <c r="AS35" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>2619.7999999999997</v>
       </c>
       <c r="AT35" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>2747.3</v>
       </c>
       <c r="AU35" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>2772.8999999999996</v>
       </c>
       <c r="AV35" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>2566.0000000000005</v>
       </c>
       <c r="AW35" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>2719.4000000000005</v>
       </c>
       <c r="AX35" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>2851</v>
       </c>
       <c r="AY35" s="19">
@@ -5952,28 +5929,28 @@
         <v>3513.6</v>
       </c>
       <c r="BE35" s="19">
-        <f>+BE33*0.63</f>
-        <v>3552.759</v>
+        <f>+BE33-BE34</f>
+        <v>3658.1000000000004</v>
       </c>
       <c r="BF35" s="19">
-        <f t="shared" ref="BF35:BJ35" si="82">+BF33*0.63</f>
-        <v>3673.7819999999997</v>
+        <f t="shared" ref="BF35:BJ35" si="80">+BF33*0.63</f>
+        <v>3668.6160000000004</v>
       </c>
       <c r="BG35" s="19">
-        <f t="shared" si="82"/>
-        <v>3622.1629499999999</v>
+        <f t="shared" si="80"/>
+        <v>3616.9969500000002</v>
       </c>
       <c r="BH35" s="19">
-        <f t="shared" si="82"/>
-        <v>3673.9710000000005</v>
+        <f t="shared" si="80"/>
+        <v>3668.8049999999998</v>
       </c>
       <c r="BI35" s="19">
-        <f t="shared" si="82"/>
-        <v>3747.7660500000002</v>
+        <f t="shared" si="80"/>
+        <v>3834.9234000000001</v>
       </c>
       <c r="BJ35" s="19">
-        <f t="shared" si="82"/>
-        <v>3878.1729000000005</v>
+        <f t="shared" si="80"/>
+        <v>3873.0069000000008</v>
       </c>
       <c r="BK35" s="19"/>
       <c r="BM35" s="19"/>
@@ -6116,27 +6093,27 @@
         <v>1039.8999999999999</v>
       </c>
       <c r="BE36" s="19">
-        <f>+BA36*1.05</f>
-        <v>967.68</v>
+        <f>1223.5-159.9</f>
+        <v>1063.5999999999999</v>
       </c>
       <c r="BF36" s="19">
-        <f t="shared" ref="BF36:BJ36" si="83">+BB36*1.05</f>
+        <f t="shared" ref="BF36:BJ36" si="81">+BB36*1.05</f>
         <v>1094.5200000000002</v>
       </c>
       <c r="BG36" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>989.5200000000001</v>
       </c>
       <c r="BH36" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>1091.895</v>
       </c>
       <c r="BI36" s="19">
-        <f t="shared" si="83"/>
-        <v>1016.064</v>
+        <f t="shared" si="81"/>
+        <v>1116.78</v>
       </c>
       <c r="BJ36" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>1149.2460000000003</v>
       </c>
       <c r="BK36" s="19"/>
@@ -6146,11 +6123,11 @@
       <c r="BP36" s="19"/>
       <c r="BQ36" s="19"/>
       <c r="BR36" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>2234.5</v>
       </c>
       <c r="BS36" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>2457.9</v>
       </c>
       <c r="BT36" s="19"/>
@@ -6188,11 +6165,11 @@
         <v>117.3</v>
       </c>
       <c r="M37" s="19">
-        <f t="shared" ref="M37:N37" si="84">+I37</f>
+        <f t="shared" ref="M37:N37" si="82">+I37</f>
         <v>115.8</v>
       </c>
       <c r="N37" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v>121.69999999999997</v>
       </c>
       <c r="O37" s="19"/>
@@ -6250,11 +6227,11 @@
       <c r="BP37" s="19"/>
       <c r="BQ37" s="19"/>
       <c r="BR37" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>477</v>
       </c>
       <c r="BS37" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>466.09999999999997</v>
       </c>
       <c r="BT37" s="19"/>
@@ -6367,27 +6344,26 @@
         <v>330.5</v>
       </c>
       <c r="BE38" s="19">
-        <f>+BA38*1.05</f>
-        <v>320.14499999999998</v>
+        <v>327.9</v>
       </c>
       <c r="BF38" s="19">
-        <f t="shared" ref="BF38" si="85">+BB38*1.05</f>
+        <f t="shared" ref="BF38" si="83">+BB38*1.05</f>
         <v>367.81500000000005</v>
       </c>
       <c r="BG38" s="19">
-        <f t="shared" ref="BG38" si="86">+BC38*1.05</f>
+        <f t="shared" ref="BG38" si="84">+BC38*1.05</f>
         <v>301.56</v>
       </c>
       <c r="BH38" s="19">
-        <f t="shared" ref="BH38" si="87">+BD38*1.05</f>
+        <f t="shared" ref="BH38" si="85">+BD38*1.05</f>
         <v>347.02500000000003</v>
       </c>
       <c r="BI38" s="19">
-        <f t="shared" ref="BI38" si="88">+BE38*1.05</f>
-        <v>336.15224999999998</v>
+        <f t="shared" ref="BI38" si="86">+BE38*1.05</f>
+        <v>344.29500000000002</v>
       </c>
       <c r="BJ38" s="19">
-        <f t="shared" ref="BJ38" si="89">+BF38*1.05</f>
+        <f t="shared" ref="BJ38" si="87">+BF38*1.05</f>
         <v>386.20575000000008</v>
       </c>
       <c r="BK38" s="19"/>
@@ -6397,11 +6373,11 @@
       <c r="BP38" s="19"/>
       <c r="BQ38" s="19"/>
       <c r="BR38" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>478.20000000000005</v>
       </c>
       <c r="BS38" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>514.9</v>
       </c>
       <c r="BT38" s="19"/>
@@ -6439,11 +6415,11 @@
         <v>109.4</v>
       </c>
       <c r="M39" s="19">
-        <f t="shared" ref="M39" si="90">+I39</f>
+        <f t="shared" ref="M39" si="88">+I39</f>
         <v>91</v>
       </c>
       <c r="N39" s="19">
-        <f t="shared" ref="N39" si="91">+J39</f>
+        <f t="shared" ref="N39" si="89">+J39</f>
         <v>55.099999999999966</v>
       </c>
       <c r="O39" s="19"/>
@@ -6501,11 +6477,11 @@
       <c r="BP39" s="19"/>
       <c r="BQ39" s="19"/>
       <c r="BR39" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>390.4</v>
       </c>
       <c r="BS39" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>352.59999999999997</v>
       </c>
       <c r="BT39" s="19"/>
@@ -6618,27 +6594,26 @@
         <v>599.6</v>
       </c>
       <c r="BE40" s="19">
-        <f>+BA40*1.05</f>
-        <v>699.82500000000005</v>
+        <v>641.70000000000005</v>
       </c>
       <c r="BF40" s="19">
-        <f t="shared" ref="BF40" si="92">+BB40*1.05</f>
+        <f t="shared" ref="BF40" si="90">+BB40*1.05</f>
         <v>621.495</v>
       </c>
       <c r="BG40" s="19">
-        <f t="shared" ref="BG40" si="93">+BC40*1.05</f>
+        <f t="shared" ref="BG40" si="91">+BC40*1.05</f>
         <v>614.77499999999998</v>
       </c>
       <c r="BH40" s="19">
-        <f t="shared" ref="BH40" si="94">+BD40*1.05</f>
+        <f t="shared" ref="BH40" si="92">+BD40*1.05</f>
         <v>629.58000000000004</v>
       </c>
       <c r="BI40" s="19">
-        <f t="shared" ref="BI40" si="95">+BE40*1.05</f>
-        <v>734.81625000000008</v>
+        <f t="shared" ref="BI40" si="93">+BE40*1.05</f>
+        <v>673.78500000000008</v>
       </c>
       <c r="BJ40" s="19">
-        <f t="shared" ref="BJ40" si="96">+BF40*1.05</f>
+        <f t="shared" ref="BJ40" si="94">+BF40*1.05</f>
         <v>652.56975</v>
       </c>
       <c r="BK40" s="19"/>
@@ -6648,11 +6623,11 @@
       <c r="BP40" s="19"/>
       <c r="BQ40" s="19"/>
       <c r="BR40" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>1397.1</v>
       </c>
       <c r="BS40" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>1519.5</v>
       </c>
       <c r="BT40" s="19"/>
@@ -6691,15 +6666,15 @@
         <v>1304.4000000000001</v>
       </c>
       <c r="L41" s="19">
-        <f t="shared" ref="L41:N41" si="97">SUM(L36:L40)</f>
+        <f t="shared" ref="L41:N41" si="95">SUM(L36:L40)</f>
         <v>1326.9</v>
       </c>
       <c r="M41" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>1315.1</v>
       </c>
       <c r="N41" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>1364.6</v>
       </c>
       <c r="O41" s="19"/>
@@ -6731,35 +6706,35 @@
       <c r="AO41" s="19"/>
       <c r="AP41" s="19"/>
       <c r="AQ41" s="19">
-        <f t="shared" ref="AQ41:AX41" si="98">SUM(AQ36:AQ40)</f>
+        <f t="shared" ref="AQ41:AX41" si="96">SUM(AQ36:AQ40)</f>
         <v>1677.7999999999997</v>
       </c>
       <c r="AR41" s="19">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>1754.2</v>
       </c>
       <c r="AS41" s="19">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>1708.6000000000001</v>
       </c>
       <c r="AT41" s="19">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>1935.4</v>
       </c>
       <c r="AU41" s="19">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>1767.6000000000001</v>
       </c>
       <c r="AV41" s="19">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>1688</v>
       </c>
       <c r="AW41" s="19">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>1644</v>
       </c>
       <c r="AX41" s="19">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>1948</v>
       </c>
       <c r="AY41" s="19">
@@ -6767,47 +6742,47 @@
         <v>1708.5</v>
       </c>
       <c r="AZ41" s="19">
-        <f t="shared" ref="AZ41:BD41" si="99">SUM(AZ36:AZ40)</f>
+        <f t="shared" ref="AZ41:BD41" si="97">SUM(AZ36:AZ40)</f>
         <v>1781.9</v>
       </c>
       <c r="BA41" s="19">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1893</v>
       </c>
       <c r="BB41" s="19">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1984.6</v>
       </c>
       <c r="BC41" s="19">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1815.1000000000001</v>
       </c>
       <c r="BD41" s="19">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>1970</v>
       </c>
       <c r="BE41" s="19">
-        <f t="shared" ref="BE41" si="100">SUM(BE36:BE40)</f>
-        <v>1987.6499999999999</v>
+        <f t="shared" ref="BE41" si="98">SUM(BE36:BE40)</f>
+        <v>2033.2</v>
       </c>
       <c r="BF41" s="19">
-        <f t="shared" ref="BF41" si="101">SUM(BF36:BF40)</f>
+        <f t="shared" ref="BF41" si="99">SUM(BF36:BF40)</f>
         <v>2083.8300000000004</v>
       </c>
       <c r="BG41" s="19">
-        <f t="shared" ref="BG41" si="102">SUM(BG36:BG40)</f>
+        <f t="shared" ref="BG41" si="100">SUM(BG36:BG40)</f>
         <v>1905.855</v>
       </c>
       <c r="BH41" s="19">
-        <f t="shared" ref="BH41" si="103">SUM(BH36:BH40)</f>
+        <f t="shared" ref="BH41" si="101">SUM(BH36:BH40)</f>
         <v>2068.5</v>
       </c>
       <c r="BI41" s="19">
-        <f t="shared" ref="BI41" si="104">SUM(BI36:BI40)</f>
-        <v>2087.0325000000003</v>
+        <f t="shared" ref="BI41" si="102">SUM(BI36:BI40)</f>
+        <v>2134.86</v>
       </c>
       <c r="BJ41" s="19">
-        <f t="shared" ref="BJ41" si="105">SUM(BJ36:BJ40)</f>
+        <f t="shared" ref="BJ41" si="103">SUM(BJ36:BJ40)</f>
         <v>2188.0215000000003</v>
       </c>
       <c r="BK41" s="19"/>
@@ -6840,35 +6815,35 @@
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19">
-        <f t="shared" ref="G42:N42" si="106">G35-G41</f>
+        <f t="shared" ref="G42:N42" si="104">G35-G41</f>
         <v>435.40000000000032</v>
       </c>
       <c r="H42" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="104"/>
         <v>469.89999999999986</v>
       </c>
       <c r="I42" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="104"/>
         <v>561.49999999999977</v>
       </c>
       <c r="J42" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="104"/>
         <v>461.20000000000073</v>
       </c>
       <c r="K42" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="104"/>
         <v>619.69999999999982</v>
       </c>
       <c r="L42" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="104"/>
         <v>607.63874999999962</v>
       </c>
       <c r="M42" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="104"/>
         <v>577.46500000000015</v>
       </c>
       <c r="N42" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="104"/>
         <v>652.38250000000039</v>
       </c>
       <c r="O42" s="19"/>
@@ -6900,35 +6875,35 @@
       <c r="AO42" s="19"/>
       <c r="AP42" s="19"/>
       <c r="AQ42" s="19">
-        <f t="shared" ref="AQ42:AX42" si="107">AQ35-AQ41</f>
+        <f t="shared" ref="AQ42:AX42" si="105">AQ35-AQ41</f>
         <v>728.00000000000045</v>
       </c>
       <c r="AR42" s="19">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>806.49999999999977</v>
       </c>
       <c r="AS42" s="19">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>911.19999999999959</v>
       </c>
       <c r="AT42" s="19">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>811.90000000000009</v>
       </c>
       <c r="AU42" s="19">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>1005.2999999999995</v>
       </c>
       <c r="AV42" s="19">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>878.00000000000045</v>
       </c>
       <c r="AW42" s="19">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>1075.4000000000005</v>
       </c>
       <c r="AX42" s="19">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>903</v>
       </c>
       <c r="AY42" s="19">
@@ -6936,48 +6911,48 @@
         <v>1254.8000000000002</v>
       </c>
       <c r="AZ42" s="19">
-        <f t="shared" ref="AZ42:BD42" si="108">AZ35-AZ41</f>
+        <f t="shared" ref="AZ42:BD42" si="106">AZ35-AZ41</f>
         <v>1325.1</v>
       </c>
       <c r="BA42" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>1270.1000000000004</v>
       </c>
       <c r="BB42" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>1270.5999999999999</v>
       </c>
       <c r="BC42" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>1446.5000000000002</v>
       </c>
       <c r="BD42" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>1543.6</v>
       </c>
       <c r="BE42" s="19">
-        <f t="shared" ref="BE42" si="109">BE35-BE41</f>
-        <v>1565.1090000000002</v>
+        <f t="shared" ref="BE42" si="107">BE35-BE41</f>
+        <v>1624.9000000000003</v>
       </c>
       <c r="BF42" s="19">
-        <f t="shared" ref="BF42" si="110">BF35-BF41</f>
-        <v>1589.9519999999993</v>
+        <f t="shared" ref="BF42" si="108">BF35-BF41</f>
+        <v>1584.7860000000001</v>
       </c>
       <c r="BG42" s="19">
-        <f t="shared" ref="BG42" si="111">BG35-BG41</f>
-        <v>1716.3079499999999</v>
+        <f t="shared" ref="BG42" si="109">BG35-BG41</f>
+        <v>1711.1419500000002</v>
       </c>
       <c r="BH42" s="19">
-        <f t="shared" ref="BH42" si="112">BH35-BH41</f>
-        <v>1605.4710000000005</v>
+        <f t="shared" ref="BH42" si="110">BH35-BH41</f>
+        <v>1600.3049999999998</v>
       </c>
       <c r="BI42" s="19">
-        <f t="shared" ref="BI42" si="113">BI35-BI41</f>
-        <v>1660.7335499999999</v>
+        <f t="shared" ref="BI42" si="111">BI35-BI41</f>
+        <v>1700.0634</v>
       </c>
       <c r="BJ42" s="19">
-        <f t="shared" ref="BJ42" si="114">BJ35-BJ41</f>
-        <v>1690.1514000000002</v>
+        <f t="shared" ref="BJ42" si="112">BJ35-BJ41</f>
+        <v>1684.9854000000005</v>
       </c>
       <c r="BK42" s="19"/>
       <c r="BM42" s="19"/>
@@ -7107,23 +7082,23 @@
         <v>-47.6</v>
       </c>
       <c r="BF43" s="19">
-        <f t="shared" ref="BF43:BJ43" si="115">AVERAGE(BB43:BE43)</f>
+        <f t="shared" ref="BF43:BJ43" si="113">AVERAGE(BB43:BE43)</f>
         <v>-45.949999999999996</v>
       </c>
       <c r="BG43" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="113"/>
         <v>-45.737499999999997</v>
       </c>
       <c r="BH43" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="113"/>
         <v>-48.596874999999997</v>
       </c>
       <c r="BI43" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="113"/>
         <v>-46.971093749999994</v>
       </c>
       <c r="BJ43" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="113"/>
         <v>-46.813867187500001</v>
       </c>
       <c r="BK43" s="19"/>
@@ -7133,11 +7108,11 @@
       <c r="BP43" s="19"/>
       <c r="BQ43" s="19"/>
       <c r="BR43" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>251.6</v>
       </c>
       <c r="BS43" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>271.3</v>
       </c>
       <c r="BT43" s="19"/>
@@ -7156,35 +7131,35 @@
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19">
-        <f t="shared" ref="G44:N44" si="116">+G42-G43</f>
+        <f t="shared" ref="G44:N44" si="114">+G42-G43</f>
         <v>396.8000000000003</v>
       </c>
       <c r="H44" s="19">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>391.59999999999985</v>
       </c>
       <c r="I44" s="19">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>487.29999999999978</v>
       </c>
       <c r="J44" s="19">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>400.70000000000073</v>
       </c>
       <c r="K44" s="19">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>551.39999999999986</v>
       </c>
       <c r="L44" s="19">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>539.63874999999962</v>
       </c>
       <c r="M44" s="19">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>509.46500000000015</v>
       </c>
       <c r="N44" s="19">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>585.38250000000039</v>
       </c>
       <c r="O44" s="19"/>
@@ -7216,35 +7191,35 @@
       <c r="AO44" s="19"/>
       <c r="AP44" s="19"/>
       <c r="AQ44" s="19">
-        <f t="shared" ref="AQ44:AX44" si="117">AQ42+AQ43</f>
+        <f t="shared" ref="AQ44:AX44" si="115">AQ42+AQ43</f>
         <v>615.40000000000043</v>
       </c>
       <c r="AR44" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="115"/>
         <v>745.39999999999975</v>
       </c>
       <c r="AS44" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="115"/>
         <v>776.29999999999961</v>
       </c>
       <c r="AT44" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="115"/>
         <v>735.80000000000007</v>
       </c>
       <c r="AU44" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="115"/>
         <v>906.7999999999995</v>
       </c>
       <c r="AV44" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="115"/>
         <v>775.7000000000005</v>
       </c>
       <c r="AW44" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="115"/>
         <v>973.80000000000052</v>
       </c>
       <c r="AX44" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="115"/>
         <v>851</v>
       </c>
       <c r="AY44" s="19">
@@ -7252,48 +7227,48 @@
         <v>1195.7000000000003</v>
       </c>
       <c r="AZ44" s="19">
-        <f t="shared" ref="AZ44:BD44" si="118">AZ42+AZ43</f>
+        <f t="shared" ref="AZ44:BD44" si="116">AZ42+AZ43</f>
         <v>1230.3</v>
       </c>
       <c r="BA44" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="116"/>
         <v>1215.9000000000003</v>
       </c>
       <c r="BB44" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="116"/>
         <v>1223.8</v>
       </c>
       <c r="BC44" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="116"/>
         <v>1412.2000000000003</v>
       </c>
       <c r="BD44" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="116"/>
         <v>1488.5</v>
       </c>
       <c r="BE44" s="19">
-        <f t="shared" ref="BE44" si="119">BE42+BE43</f>
-        <v>1517.5090000000002</v>
+        <f t="shared" ref="BE44" si="117">BE42+BE43</f>
+        <v>1577.3000000000004</v>
       </c>
       <c r="BF44" s="19">
-        <f t="shared" ref="BF44" si="120">BF42+BF43</f>
-        <v>1544.0019999999993</v>
+        <f t="shared" ref="BF44" si="118">BF42+BF43</f>
+        <v>1538.836</v>
       </c>
       <c r="BG44" s="19">
-        <f t="shared" ref="BG44" si="121">BG42+BG43</f>
-        <v>1670.5704499999999</v>
+        <f t="shared" ref="BG44" si="119">BG42+BG43</f>
+        <v>1665.4044500000002</v>
       </c>
       <c r="BH44" s="19">
-        <f t="shared" ref="BH44" si="122">BH42+BH43</f>
-        <v>1556.8741250000005</v>
+        <f t="shared" ref="BH44" si="120">BH42+BH43</f>
+        <v>1551.7081249999999</v>
       </c>
       <c r="BI44" s="19">
-        <f t="shared" ref="BI44" si="123">BI42+BI43</f>
-        <v>1613.76245625</v>
+        <f t="shared" ref="BI44" si="121">BI42+BI43</f>
+        <v>1653.0923062500001</v>
       </c>
       <c r="BJ44" s="19">
-        <f t="shared" ref="BJ44" si="124">BJ42+BJ43</f>
-        <v>1643.3375328125003</v>
+        <f t="shared" ref="BJ44" si="122">BJ42+BJ43</f>
+        <v>1638.1715328125006</v>
       </c>
       <c r="BK44" s="19"/>
       <c r="BM44" s="19"/>
@@ -7425,27 +7400,27 @@
       </c>
       <c r="BE45" s="19">
         <f>+BE44*0.15</f>
-        <v>227.62635000000003</v>
+        <v>236.59500000000006</v>
       </c>
       <c r="BF45" s="19">
-        <f t="shared" ref="BF45:BJ45" si="125">+BF44*0.15</f>
-        <v>231.60029999999989</v>
+        <f t="shared" ref="BF45:BJ45" si="123">+BF44*0.15</f>
+        <v>230.8254</v>
       </c>
       <c r="BG45" s="19">
-        <f t="shared" si="125"/>
-        <v>250.58556749999997</v>
+        <f t="shared" si="123"/>
+        <v>249.81066750000002</v>
       </c>
       <c r="BH45" s="19">
-        <f t="shared" si="125"/>
-        <v>233.53111875000008</v>
+        <f t="shared" si="123"/>
+        <v>232.75621874999996</v>
       </c>
       <c r="BI45" s="19">
-        <f t="shared" si="125"/>
-        <v>242.06436843749998</v>
+        <f t="shared" si="123"/>
+        <v>247.9638459375</v>
       </c>
       <c r="BJ45" s="19">
-        <f t="shared" si="125"/>
-        <v>246.50062992187503</v>
+        <f t="shared" si="123"/>
+        <v>245.72572992187509</v>
       </c>
       <c r="BK45" s="19"/>
       <c r="BM45" s="19"/>
@@ -7454,11 +7429,11 @@
       <c r="BP45" s="19"/>
       <c r="BQ45" s="19"/>
       <c r="BR45" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>219.60000000000002</v>
       </c>
       <c r="BS45" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>480.4</v>
       </c>
       <c r="BT45" s="19"/>
@@ -7477,35 +7452,35 @@
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19">
-        <f t="shared" ref="G46:N46" si="126">+G44-G45</f>
+        <f t="shared" ref="G46:N46" si="124">+G44-G45</f>
         <v>332.20000000000027</v>
       </c>
       <c r="H46" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>331.69999999999987</v>
       </c>
       <c r="I46" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>412.49999999999977</v>
       </c>
       <c r="J46" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>380.40000000000072</v>
       </c>
       <c r="K46" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>431.29999999999984</v>
       </c>
       <c r="L46" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>419.5387499999996</v>
       </c>
       <c r="M46" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>389.36500000000012</v>
       </c>
       <c r="N46" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>465.28250000000037</v>
       </c>
       <c r="O46" s="19"/>
@@ -7537,35 +7512,35 @@
       <c r="AO46" s="19"/>
       <c r="AP46" s="19"/>
       <c r="AQ46" s="19">
-        <f t="shared" ref="AQ46:AX46" si="127">AQ44-AQ45</f>
+        <f t="shared" ref="AQ46:AX46" si="125">AQ44-AQ45</f>
         <v>548.20000000000039</v>
       </c>
       <c r="AR46" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>609.19999999999982</v>
       </c>
       <c r="AS46" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>642.59999999999968</v>
       </c>
       <c r="AT46" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>633.20000000000005</v>
       </c>
       <c r="AU46" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>747.39999999999952</v>
       </c>
       <c r="AV46" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>675.80000000000052</v>
       </c>
       <c r="AW46" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>715.30000000000052</v>
       </c>
       <c r="AX46" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>732.2</v>
       </c>
       <c r="AY46" s="19">
@@ -7573,48 +7548,48 @@
         <v>959.50000000000023</v>
       </c>
       <c r="AZ46" s="19">
-        <f t="shared" ref="AZ46:BD46" si="128">AZ44-AZ45</f>
+        <f t="shared" ref="AZ46:BD46" si="126">AZ44-AZ45</f>
         <v>1022.5</v>
       </c>
       <c r="BA46" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>986.50000000000034</v>
       </c>
       <c r="BB46" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>1038.3999999999999</v>
       </c>
       <c r="BC46" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>1156.8000000000002</v>
       </c>
       <c r="BD46" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>1236.8</v>
       </c>
       <c r="BE46" s="19">
-        <f t="shared" ref="BE46" si="129">BE44-BE45</f>
-        <v>1289.8826500000002</v>
+        <f t="shared" ref="BE46" si="127">BE44-BE45</f>
+        <v>1340.7050000000004</v>
       </c>
       <c r="BF46" s="19">
-        <f t="shared" ref="BF46" si="130">BF44-BF45</f>
-        <v>1312.4016999999994</v>
+        <f t="shared" ref="BF46" si="128">BF44-BF45</f>
+        <v>1308.0106000000001</v>
       </c>
       <c r="BG46" s="19">
-        <f t="shared" ref="BG46" si="131">BG44-BG45</f>
-        <v>1419.9848824999999</v>
+        <f t="shared" ref="BG46" si="129">BG44-BG45</f>
+        <v>1415.5937825000001</v>
       </c>
       <c r="BH46" s="19">
-        <f t="shared" ref="BH46" si="132">BH44-BH45</f>
-        <v>1323.3430062500004</v>
+        <f t="shared" ref="BH46" si="130">BH44-BH45</f>
+        <v>1318.9519062499999</v>
       </c>
       <c r="BI46" s="19">
-        <f t="shared" ref="BI46" si="133">BI44-BI45</f>
-        <v>1371.6980878125</v>
+        <f t="shared" ref="BI46" si="131">BI44-BI45</f>
+        <v>1405.1284603125</v>
       </c>
       <c r="BJ46" s="19">
-        <f t="shared" ref="BJ46" si="134">BJ44-BJ45</f>
-        <v>1396.8369028906252</v>
+        <f t="shared" ref="BJ46" si="132">BJ44-BJ45</f>
+        <v>1392.4458028906256</v>
       </c>
       <c r="BK46" s="19"/>
       <c r="BM46" s="19"/>
@@ -7679,35 +7654,35 @@
       <c r="AO47" s="19"/>
       <c r="AP47" s="19"/>
       <c r="AQ47" s="32">
-        <f t="shared" ref="AQ47:AX47" si="135">+AQ46/AQ48</f>
+        <f t="shared" ref="AQ47:AX47" si="133">+AQ46/AQ48</f>
         <v>1.2608095676172961</v>
       </c>
       <c r="AR47" s="32">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>1.4011039558417659</v>
       </c>
       <c r="AS47" s="32">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>1.4779208831646726</v>
       </c>
       <c r="AT47" s="32">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>1.4563017479300828</v>
       </c>
       <c r="AU47" s="32">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>1.7189512419503208</v>
       </c>
       <c r="AV47" s="32">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>1.5542778288868457</v>
       </c>
       <c r="AW47" s="32">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>1.6451241950322</v>
       </c>
       <c r="AX47" s="32">
-        <f t="shared" si="135"/>
+        <f t="shared" si="133"/>
         <v>1.6839926402943883</v>
       </c>
       <c r="AY47" s="32">
@@ -7715,48 +7690,48 @@
         <v>2.2067617295308191</v>
       </c>
       <c r="AZ47" s="32">
-        <f t="shared" ref="AZ47:BJ47" si="136">+AZ46/AZ48</f>
+        <f t="shared" ref="AZ47:BJ47" si="134">+AZ46/AZ48</f>
         <v>2.3516559337626495</v>
       </c>
       <c r="BA47" s="32">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>2.2688592456301757</v>
       </c>
       <c r="BB47" s="32">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>2.3882244710211586</v>
       </c>
       <c r="BC47" s="32">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>2.660533578656854</v>
       </c>
       <c r="BD47" s="32">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>2.8445262189512417</v>
       </c>
       <c r="BE47" s="32">
-        <f t="shared" si="136"/>
-        <v>2.9666114305427786</v>
+        <f t="shared" si="134"/>
+        <v>3.083498160073598</v>
       </c>
       <c r="BF47" s="32">
-        <f t="shared" si="136"/>
-        <v>3.0184031738730437</v>
+        <f t="shared" si="134"/>
+        <v>3.0083040478380867</v>
       </c>
       <c r="BG47" s="32">
-        <f t="shared" si="136"/>
-        <v>3.2658345963661453</v>
+        <f t="shared" si="134"/>
+        <v>3.2557354703311869</v>
       </c>
       <c r="BH47" s="32">
-        <f t="shared" si="136"/>
-        <v>3.0435671716881334</v>
+        <f t="shared" si="134"/>
+        <v>3.0334680456531733</v>
       </c>
       <c r="BI47" s="32">
-        <f t="shared" si="136"/>
-        <v>3.1547794107923184</v>
+        <f t="shared" si="134"/>
+        <v>3.2316661920710672</v>
       </c>
       <c r="BJ47" s="32">
-        <f t="shared" si="136"/>
-        <v>3.2125963727935263</v>
+        <f t="shared" si="134"/>
+        <v>3.2024972467585684</v>
       </c>
       <c r="BK47" s="19"/>
       <c r="BM47" s="19"/>
@@ -7891,7 +7866,7 @@
         <v>82</v>
       </c>
       <c r="E50" s="25">
-        <f t="shared" ref="E50" si="137">E35/E33</f>
+        <f t="shared" ref="E50" si="135">E35/E33</f>
         <v>0.73235897435897435</v>
       </c>
       <c r="G50" s="25">
@@ -7899,11 +7874,11 @@
         <v>0.76816427652579933</v>
       </c>
       <c r="H50" s="25">
-        <f t="shared" ref="H50:K50" si="138">H35/H33</f>
+        <f t="shared" ref="H50:K50" si="136">H35/H33</f>
         <v>0.76576086956521738</v>
       </c>
       <c r="I50" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="136"/>
         <v>0.74580581648139788</v>
       </c>
       <c r="J50" s="25">
@@ -7911,7 +7886,7 @@
         <v>0.7007227590541284</v>
       </c>
       <c r="K50" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="136"/>
         <v>0.75051683114248935</v>
       </c>
       <c r="L50" s="25">
@@ -7952,35 +7927,35 @@
       <c r="AO50" s="25"/>
       <c r="AP50" s="25"/>
       <c r="AQ50" s="25">
-        <f t="shared" ref="AQ50:AY50" si="139">AQ35/AQ33</f>
+        <f t="shared" ref="AQ50:AX50" si="137">AQ35/AQ33</f>
         <v>0.64226600459180949</v>
       </c>
       <c r="AR50" s="25">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0.6447852142821171</v>
       </c>
       <c r="AS50" s="25">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0.64627377457631296</v>
       </c>
       <c r="AT50" s="25">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0.62712289992695402</v>
       </c>
       <c r="AU50" s="25">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0.6345744559123051</v>
       </c>
       <c r="AV50" s="25">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0.62295161564419421</v>
       </c>
       <c r="AW50" s="25">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0.61149962897168952</v>
       </c>
       <c r="AX50" s="25">
-        <f t="shared" si="139"/>
+        <f t="shared" si="137"/>
         <v>0.61998477764488424</v>
       </c>
       <c r="AY50" s="25">
@@ -7988,47 +7963,47 @@
         <v>0.64002159827213823</v>
       </c>
       <c r="AZ50" s="25">
-        <f t="shared" ref="AZ50:BD50" si="140">AZ35/AZ33</f>
+        <f t="shared" ref="AZ50:BD50" si="138">AZ35/AZ33</f>
         <v>0.63785670293574215</v>
       </c>
       <c r="BA50" s="25">
-        <f t="shared" si="140"/>
+        <f t="shared" si="138"/>
         <v>0.63631060148863416</v>
       </c>
       <c r="BB50" s="25">
-        <f t="shared" si="140"/>
+        <f t="shared" si="138"/>
         <v>0.62431914077483697</v>
       </c>
       <c r="BC50" s="25">
-        <f t="shared" si="140"/>
+        <f t="shared" si="138"/>
         <v>0.62743589250331844</v>
       </c>
       <c r="BD50" s="25">
-        <f t="shared" si="140"/>
+        <f t="shared" si="138"/>
         <v>0.63092117076674448</v>
       </c>
       <c r="BE50" s="25">
-        <f t="shared" ref="BE50:BJ50" si="141">BE35/BE33</f>
+        <f t="shared" ref="BE50:BJ50" si="139">BE35/BE33</f>
+        <v>0.63009852556152679</v>
+      </c>
+      <c r="BF50" s="25">
+        <f t="shared" si="139"/>
         <v>0.63</v>
       </c>
-      <c r="BF50" s="25">
-        <f t="shared" si="141"/>
+      <c r="BG50" s="25">
+        <f t="shared" si="139"/>
         <v>0.63</v>
       </c>
-      <c r="BG50" s="25">
-        <f t="shared" si="141"/>
+      <c r="BH50" s="25">
+        <f t="shared" si="139"/>
         <v>0.63</v>
       </c>
-      <c r="BH50" s="25">
-        <f t="shared" si="141"/>
+      <c r="BI50" s="25">
+        <f t="shared" si="139"/>
         <v>0.63</v>
       </c>
-      <c r="BI50" s="25">
-        <f t="shared" si="141"/>
-        <v>0.63</v>
-      </c>
       <c r="BJ50" s="25">
-        <f t="shared" si="141"/>
+        <f t="shared" si="139"/>
         <v>0.63</v>
       </c>
       <c r="BK50" s="25"/>
@@ -8058,15 +8033,15 @@
         <v>0.22144933060174354</v>
       </c>
       <c r="L51" s="34">
-        <f t="shared" ref="L51:N51" si="142">L33/H33-1</f>
+        <f t="shared" ref="L51:N51" si="140">L33/H33-1</f>
         <v>0.16819972826086937</v>
       </c>
       <c r="M51" s="34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="140"/>
         <v>3.5079371590303277E-2</v>
       </c>
       <c r="N51" s="34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="140"/>
         <v>5.6371278183674933E-2</v>
       </c>
       <c r="O51" s="34"/>
@@ -8106,31 +8081,31 @@
         <v>0.16655988039938063</v>
       </c>
       <c r="AV51" s="34">
-        <f t="shared" ref="AU51:BB51" si="143">AV33/AR33-1</f>
+        <f t="shared" ref="AV51:BB51" si="141">AV33/AR33-1</f>
         <v>3.7190915042554229E-2</v>
       </c>
       <c r="AW51" s="34">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>9.7047142117078433E-2</v>
       </c>
       <c r="AX51" s="34">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>4.9694119795471003E-2</v>
       </c>
       <c r="AY51" s="34">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>5.956930681740169E-2</v>
       </c>
       <c r="AZ51" s="34">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>0.18253987521545967</v>
       </c>
       <c r="BA51" s="34">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>0.11780711025162449</v>
       </c>
       <c r="BB51" s="34">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>0.13384799391105795</v>
       </c>
       <c r="BC51" s="34">
@@ -8142,28 +8117,28 @@
         <v>0.1432970642578526</v>
       </c>
       <c r="BE51" s="34">
-        <f t="shared" ref="BE51:BJ51" si="144">BE33/BA33-1</f>
-        <v>0.13443975055320867</v>
+        <f t="shared" ref="BE51:BJ51" si="142">BE33/BA33-1</f>
+        <v>0.16789378394689214</v>
       </c>
       <c r="BF51" s="34">
-        <f t="shared" si="144"/>
-        <v>0.11841196777905627</v>
+        <f t="shared" si="142"/>
+        <v>0.11683927886459555</v>
       </c>
       <c r="BG51" s="34">
-        <f t="shared" si="144"/>
-        <v>0.10602793220860662</v>
+        <f t="shared" si="142"/>
+        <v>0.10445049343054458</v>
       </c>
       <c r="BH51" s="34">
-        <f t="shared" si="144"/>
-        <v>4.7171844137188224E-2</v>
+        <f t="shared" si="142"/>
+        <v>4.5699407434009798E-2</v>
       </c>
       <c r="BI51" s="34">
-        <f t="shared" si="144"/>
-        <v>5.4888904651286374E-2</v>
+        <f t="shared" si="142"/>
+        <v>4.8501446878875587E-2</v>
       </c>
       <c r="BJ51" s="34">
-        <f t="shared" si="144"/>
-        <v>5.5635010460610035E-2</v>
+        <f t="shared" si="142"/>
+        <v>5.5713353482621297E-2</v>
       </c>
       <c r="BK51" s="34"/>
       <c r="BM51" s="33"/>
@@ -8199,32 +8174,32 @@
       <c r="BA52" s="25"/>
       <c r="BB52" s="25"/>
       <c r="BC52" s="25">
-        <f t="shared" ref="AX52:BI52" si="145">+BC17/AY17-1</f>
+        <f t="shared" ref="BC52:BI52" si="143">+BC17/AY17-1</f>
         <v>9.5179987797437526E-2</v>
       </c>
       <c r="BD52" s="25">
-        <f t="shared" si="145"/>
+        <f t="shared" si="143"/>
         <v>7.6062639821029121E-2</v>
       </c>
       <c r="BE52" s="25">
-        <f t="shared" si="145"/>
-        <v>-2.0257414661443818E-2</v>
+        <f t="shared" si="143"/>
+        <v>0.16899832120872982</v>
       </c>
       <c r="BF52" s="25">
-        <f t="shared" si="145"/>
+        <f t="shared" si="143"/>
         <v>-2.0069296375266554E-2</v>
       </c>
       <c r="BG52" s="25">
-        <f t="shared" si="145"/>
+        <f t="shared" si="143"/>
         <v>-1.5821727019498577E-2</v>
       </c>
       <c r="BH52" s="25">
-        <f t="shared" si="145"/>
+        <f t="shared" si="143"/>
         <v>-1.301975051975035E-2</v>
       </c>
       <c r="BI52" s="25">
-        <f t="shared" si="145"/>
-        <v>-9.2129312314369605E-3</v>
+        <f t="shared" si="143"/>
+        <v>-1.3068453805648694E-2</v>
       </c>
       <c r="BJ52" s="25">
         <f>+BJ17/BF17-1</f>
@@ -8273,32 +8248,32 @@
         <v>0.14748944157672472</v>
       </c>
       <c r="BD54" s="25">
-        <f t="shared" ref="BD54:BJ54" si="146">+BD25/AZ25-1</f>
+        <f t="shared" ref="BD54:BJ54" si="144">+BD25/AZ25-1</f>
         <v>0.18957771787960476</v>
       </c>
       <c r="BE54" s="25">
-        <f t="shared" si="146"/>
-        <v>0.22077402135231328</v>
+        <f t="shared" si="144"/>
+        <v>0.19252669039145909</v>
       </c>
       <c r="BF54" s="25">
-        <f t="shared" si="146"/>
-        <v>0.18317267393126579</v>
+        <f t="shared" si="144"/>
+        <v>0.17973595976529766</v>
       </c>
       <c r="BG54" s="25">
-        <f t="shared" si="146"/>
-        <v>0.15031488978857377</v>
+        <f t="shared" si="144"/>
+        <v>0.14696151801414947</v>
       </c>
       <c r="BH54" s="25">
-        <f t="shared" si="146"/>
-        <v>2.1695619335347471E-2</v>
+        <f t="shared" si="144"/>
+        <v>1.8598942598187396E-2</v>
       </c>
       <c r="BI54" s="25">
-        <f t="shared" si="146"/>
-        <v>2.2688845971650329E-2</v>
+        <f t="shared" si="144"/>
+        <v>2.219486720381969E-2</v>
       </c>
       <c r="BJ54" s="25">
-        <f t="shared" si="146"/>
-        <v>2.3450700483519604E-2</v>
+        <f t="shared" si="144"/>
+        <v>2.3519015222835948E-2</v>
       </c>
       <c r="BR54" s="25"/>
     </row>
@@ -8320,31 +8295,31 @@
         <v>0.11395348837209296</v>
       </c>
       <c r="BD55" s="25">
-        <f t="shared" ref="BD55:BJ55" si="147">+BD30/AZ30-1</f>
+        <f t="shared" ref="BD55:BJ55" si="145">+BD30/AZ30-1</f>
         <v>0.16336056009334898</v>
       </c>
       <c r="BE55" s="25">
-        <f t="shared" si="147"/>
-        <v>0.22243589743589753</v>
+        <f t="shared" si="145"/>
+        <v>0.10662393162393147</v>
       </c>
       <c r="BF55" s="25">
-        <f t="shared" si="147"/>
+        <f t="shared" si="145"/>
         <v>0.22899159663865554</v>
       </c>
       <c r="BG55" s="25">
-        <f t="shared" si="147"/>
+        <f t="shared" si="145"/>
         <v>0.22129436325678498</v>
       </c>
       <c r="BH55" s="25">
-        <f t="shared" si="147"/>
+        <f t="shared" si="145"/>
         <v>0.23099297893681037</v>
       </c>
       <c r="BI55" s="25">
-        <f t="shared" si="147"/>
-        <v>0.23020450970110118</v>
+        <f t="shared" si="145"/>
+        <v>0.24076076462637586</v>
       </c>
       <c r="BJ55" s="25">
-        <f t="shared" si="147"/>
+        <f t="shared" si="145"/>
         <v>0.23400000000000021</v>
       </c>
       <c r="BR55" s="25"/>
@@ -10631,9 +10606,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10751,19 +10729,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E302393A-19F6-42EF-83A3-1DE9A9F04922}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C70A9A-DFCB-424D-830E-AC04B5AD6D14}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10785,9 +10759,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C70A9A-DFCB-424D-830E-AC04B5AD6D14}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E302393A-19F6-42EF-83A3-1DE9A9F04922}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/MRK GR.xlsx
+++ b/MRK GR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A2F2F7-0152-4BCA-BF7A-08E91AF91B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1C78E-8DCC-4F7E-8902-BB6D6FFC9877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="4065" windowWidth="29475" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30465" yWindow="975" windowWidth="30015" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="168">
   <si>
     <t>Euthyrox</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>PD-1 mab</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -1088,9 +1091,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1128,9 +1131,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1163,26 +1166,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1215,26 +1201,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1425,7 +1394,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1467,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="J2" s="11">
-        <v>184</v>
+        <v>171.8</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -1492,7 +1461,7 @@
         <v>434.77787799999999</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -1513,7 +1482,7 @@
       </c>
       <c r="J4" s="12">
         <f>J3*J2</f>
-        <v>79999.129551999999</v>
+        <v>74694.839440399999</v>
       </c>
       <c r="K4" s="13"/>
     </row>
@@ -1534,10 +1503,10 @@
         <v>13</v>
       </c>
       <c r="J5" s="12">
-        <v>1951</v>
+        <v>0</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -1553,10 +1522,10 @@
         <v>12</v>
       </c>
       <c r="J6" s="12">
-        <v>11050</v>
+        <v>7950</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -1575,7 +1544,7 @@
       </c>
       <c r="J7" s="12">
         <f>J4-J5+J6</f>
-        <v>89098.129551999999</v>
+        <v>82644.839440399999</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -10773,12 +10742,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10896,15 +10862,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C70A9A-DFCB-424D-830E-AC04B5AD6D14}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E302393A-19F6-42EF-83A3-1DE9A9F04922}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10926,10 +10896,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E302393A-19F6-42EF-83A3-1DE9A9F04922}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C70A9A-DFCB-424D-830E-AC04B5AD6D14}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/MRK GR.xlsx
+++ b/MRK GR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1C78E-8DCC-4F7E-8902-BB6D6FFC9877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882A44A9-5631-44EE-AEBA-A4A34518648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30465" yWindow="975" windowWidth="30015" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20210" yWindow="1180" windowWidth="16190" windowHeight="18170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="7" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="175">
   <si>
     <t>Euthyrox</t>
   </si>
@@ -573,6 +573,27 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -983,14 +1004,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>37590</xdr:colOff>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>51198</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>37590</xdr:colOff>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>51198</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>89297</xdr:rowOff>
     </xdr:to>
@@ -1007,8 +1028,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34007822" y="0"/>
-          <a:ext cx="0" cy="17397583"/>
+          <a:off x="40945198" y="0"/>
+          <a:ext cx="0" cy="16944011"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1033,13 +1054,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>81</xdr:col>
+      <xdr:col>90</xdr:col>
       <xdr:colOff>32658</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>81</xdr:col>
+      <xdr:col>90</xdr:col>
       <xdr:colOff>42183</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1393,24 +1414,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="3.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="12.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="2"/>
+    <col min="8" max="8" width="3.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="8" style="2" customWidth="1"/>
     <col min="11" max="11" width="7" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
@@ -1461,7 +1482,7 @@
         <v>434.77787799999999</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -1506,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -1522,10 +1543,10 @@
         <v>12</v>
       </c>
       <c r="J6" s="12">
-        <v>7950</v>
+        <v>7121.1</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -1544,10 +1565,10 @@
       </c>
       <c r="J7" s="12">
         <f>J4-J5+J6</f>
-        <v>82644.839440399999</v>
+        <v>81815.939440400005</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" ht="13">
       <c r="B8" s="38" t="s">
         <v>22</v>
       </c>
@@ -1649,32 +1670,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CL86"/>
+  <dimension ref="A1:CU86"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BJ14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="BP45" sqref="BP45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="42" width="9.140625" style="15"/>
-    <col min="43" max="48" width="7.7109375" style="15" customWidth="1"/>
-    <col min="49" max="62" width="7.85546875" style="15" customWidth="1"/>
-    <col min="63" max="63" width="9.140625" style="15"/>
-    <col min="65" max="74" width="9.140625" style="15"/>
+    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="42" width="9.1796875" style="15"/>
+    <col min="43" max="48" width="7.7265625" style="15" customWidth="1"/>
+    <col min="49" max="71" width="7.81640625" style="15" customWidth="1"/>
+    <col min="72" max="72" width="9.1796875" style="15"/>
+    <col min="74" max="83" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90">
+    <row r="1" spans="1:99">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:90">
+    <row r="2" spans="1:99">
       <c r="C2" s="15" t="s">
         <v>28</v>
       </c>
@@ -1855,111 +1876,136 @@
       <c r="BJ2" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="BM2" s="15">
+      <c r="BK2" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL2" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM2" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="BN2" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="BO2" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="BP2" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="BQ2" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR2" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="BS2" s="30"/>
+      <c r="BV2" s="15">
         <v>2005</v>
       </c>
-      <c r="BN2" s="15">
-        <f>+BM2+1</f>
+      <c r="BW2" s="15">
+        <f>+BV2+1</f>
         <v>2006</v>
       </c>
-      <c r="BO2" s="15">
-        <f t="shared" ref="BO2:BU2" si="0">+BN2+1</f>
+      <c r="BX2" s="15">
+        <f t="shared" ref="BX2:CD2" si="0">+BW2+1</f>
         <v>2007</v>
       </c>
-      <c r="BP2" s="15">
+      <c r="BY2" s="15">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="BQ2" s="15">
+      <c r="BZ2" s="15">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="BR2" s="15">
+      <c r="CA2" s="15">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="BS2" s="15">
+      <c r="CB2" s="15">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="BT2" s="15">
+      <c r="CC2" s="15">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="BU2" s="15">
+      <c r="CD2" s="15">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="BV2" s="15">
-        <f>+BU2+1</f>
+      <c r="CE2" s="15">
+        <f>+CD2+1</f>
         <v>2014</v>
       </c>
-      <c r="BW2" s="15">
-        <f t="shared" ref="BW2:CG2" si="1">+BV2+1</f>
+      <c r="CF2" s="15">
+        <f t="shared" ref="CF2:CP2" si="1">+CE2+1</f>
         <v>2015</v>
       </c>
-      <c r="BX2" s="15">
+      <c r="CG2" s="15">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
-      <c r="BY2" s="15">
+      <c r="CH2" s="15">
         <f t="shared" si="1"/>
         <v>2017</v>
       </c>
-      <c r="BZ2" s="15">
+      <c r="CI2" s="15">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="CA2" s="15">
+      <c r="CJ2" s="15">
         <f t="shared" si="1"/>
         <v>2019</v>
       </c>
-      <c r="CB2" s="15">
+      <c r="CK2" s="15">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-      <c r="CC2" s="15">
+      <c r="CL2" s="15">
         <f t="shared" si="1"/>
         <v>2021</v>
       </c>
-      <c r="CD2" s="15">
+      <c r="CM2" s="15">
         <f t="shared" si="1"/>
         <v>2022</v>
       </c>
-      <c r="CE2" s="15">
+      <c r="CN2" s="15">
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
-      <c r="CF2" s="15">
+      <c r="CO2" s="15">
         <f t="shared" si="1"/>
         <v>2024</v>
       </c>
-      <c r="CG2" s="15">
+      <c r="CP2" s="15">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="CH2" s="15">
-        <f t="shared" ref="CH2:CL2" si="2">+CG2+1</f>
+      <c r="CQ2" s="15">
+        <f t="shared" ref="CQ2:CU2" si="2">+CP2+1</f>
         <v>2026</v>
       </c>
-      <c r="CI2" s="15">
+      <c r="CR2" s="15">
         <f t="shared" si="2"/>
         <v>2027</v>
       </c>
-      <c r="CJ2" s="15">
+      <c r="CS2" s="15">
         <f t="shared" si="2"/>
         <v>2028</v>
       </c>
-      <c r="CK2" s="15">
+      <c r="CT2" s="15">
         <f t="shared" si="2"/>
         <v>2029</v>
       </c>
-      <c r="CL2" s="15">
+      <c r="CU2" s="15">
         <f t="shared" si="2"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:90" s="17" customFormat="1">
+    <row r="3" spans="1:99" s="17" customFormat="1">
       <c r="B3" s="20" t="s">
         <v>144</v>
       </c>
@@ -2027,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="BB3" s="35">
-        <f t="shared" ref="BB3:BB15" si="3">CC3-SUM(AY3:BA3)</f>
+        <f t="shared" ref="BB3:BB15" si="3">CL3-SUM(AY3:BA3)</f>
         <v>-1</v>
       </c>
       <c r="BC3" s="35">
@@ -2062,27 +2108,36 @@
         <f t="shared" ref="BJ3:BJ7" si="8">+BF3*0.95</f>
         <v>-0.90249999999999997</v>
       </c>
-      <c r="BK3" s="18"/>
-      <c r="BM3" s="18"/>
-      <c r="BN3" s="18"/>
-      <c r="BO3" s="18"/>
-      <c r="BP3" s="18"/>
-      <c r="BQ3" s="18"/>
-      <c r="BR3" s="18"/>
-      <c r="BS3" s="18"/>
+      <c r="BK3" s="35"/>
+      <c r="BL3" s="35"/>
+      <c r="BM3" s="35"/>
+      <c r="BN3" s="35"/>
+      <c r="BO3" s="35"/>
+      <c r="BP3" s="35"/>
+      <c r="BQ3" s="35"/>
+      <c r="BR3" s="35"/>
+      <c r="BS3" s="35"/>
       <c r="BT3" s="18"/>
-      <c r="BU3" s="18"/>
       <c r="BV3" s="18"/>
-      <c r="CB3" s="17">
+      <c r="BW3" s="18"/>
+      <c r="BX3" s="18"/>
+      <c r="BY3" s="18"/>
+      <c r="BZ3" s="18"/>
+      <c r="CA3" s="18"/>
+      <c r="CB3" s="18"/>
+      <c r="CC3" s="18"/>
+      <c r="CD3" s="18"/>
+      <c r="CE3" s="18"/>
+      <c r="CK3" s="17">
         <f>1662-1131-531</f>
         <v>0</v>
       </c>
-      <c r="CC3" s="17">
+      <c r="CL3" s="17">
         <f>1645-952-693</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:90" s="17" customFormat="1">
+    <row r="4" spans="1:99" s="17" customFormat="1">
       <c r="B4" s="20" t="s">
         <v>142</v>
       </c>
@@ -2185,27 +2240,36 @@
         <f t="shared" si="8"/>
         <v>13.5375</v>
       </c>
-      <c r="BK4" s="18"/>
-      <c r="BM4" s="18"/>
-      <c r="BN4" s="18"/>
-      <c r="BO4" s="18"/>
-      <c r="BP4" s="18"/>
-      <c r="BQ4" s="18"/>
-      <c r="BR4" s="18"/>
-      <c r="BS4" s="18"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
       <c r="BT4" s="18"/>
-      <c r="BU4" s="18"/>
       <c r="BV4" s="18"/>
-      <c r="CB4" s="17">
+      <c r="BW4" s="18"/>
+      <c r="BX4" s="18"/>
+      <c r="BY4" s="18"/>
+      <c r="BZ4" s="18"/>
+      <c r="CA4" s="18"/>
+      <c r="CB4" s="18"/>
+      <c r="CC4" s="18"/>
+      <c r="CD4" s="18"/>
+      <c r="CE4" s="18"/>
+      <c r="CK4" s="17">
         <f>1116-891-156</f>
         <v>69</v>
       </c>
-      <c r="CC4" s="17">
+      <c r="CL4" s="17">
         <f>1411-987-373</f>
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:90" s="17" customFormat="1">
+    <row r="5" spans="1:99" s="17" customFormat="1">
       <c r="B5" s="20" t="s">
         <v>42</v>
       </c>
@@ -2301,25 +2365,34 @@
         <f t="shared" si="8"/>
         <v>42.417499999999997</v>
       </c>
-      <c r="BK5" s="18"/>
-      <c r="BM5" s="18"/>
-      <c r="BN5" s="18"/>
-      <c r="BO5" s="18"/>
-      <c r="BP5" s="18"/>
-      <c r="BQ5" s="18"/>
-      <c r="BR5" s="18"/>
-      <c r="BS5" s="18"/>
+      <c r="BK5" s="35"/>
+      <c r="BL5" s="35"/>
+      <c r="BM5" s="35"/>
+      <c r="BN5" s="35"/>
+      <c r="BO5" s="35"/>
+      <c r="BP5" s="35"/>
+      <c r="BQ5" s="35"/>
+      <c r="BR5" s="35"/>
+      <c r="BS5" s="35"/>
       <c r="BT5" s="18"/>
-      <c r="BU5" s="18"/>
       <c r="BV5" s="18"/>
-      <c r="CB5" s="17">
+      <c r="BW5" s="18"/>
+      <c r="BX5" s="18"/>
+      <c r="BY5" s="18"/>
+      <c r="BZ5" s="18"/>
+      <c r="CA5" s="18"/>
+      <c r="CB5" s="18"/>
+      <c r="CC5" s="18"/>
+      <c r="CD5" s="18"/>
+      <c r="CE5" s="18"/>
+      <c r="CK5" s="17">
         <v>197</v>
       </c>
-      <c r="CC5" s="17">
+      <c r="CL5" s="17">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:90" s="17" customFormat="1">
+    <row r="6" spans="1:99" s="17" customFormat="1">
       <c r="B6" s="20" t="s">
         <v>146</v>
       </c>
@@ -2415,25 +2488,34 @@
         <f t="shared" si="8"/>
         <v>57.76</v>
       </c>
-      <c r="BK6" s="18"/>
-      <c r="BM6" s="18"/>
-      <c r="BN6" s="18"/>
-      <c r="BO6" s="18"/>
-      <c r="BP6" s="18"/>
-      <c r="BQ6" s="18"/>
-      <c r="BR6" s="18"/>
-      <c r="BS6" s="18"/>
+      <c r="BK6" s="35"/>
+      <c r="BL6" s="35"/>
+      <c r="BM6" s="35"/>
+      <c r="BN6" s="35"/>
+      <c r="BO6" s="35"/>
+      <c r="BP6" s="35"/>
+      <c r="BQ6" s="35"/>
+      <c r="BR6" s="35"/>
+      <c r="BS6" s="35"/>
       <c r="BT6" s="18"/>
-      <c r="BU6" s="18"/>
       <c r="BV6" s="18"/>
-      <c r="CB6" s="17">
+      <c r="BW6" s="18"/>
+      <c r="BX6" s="18"/>
+      <c r="BY6" s="18"/>
+      <c r="BZ6" s="18"/>
+      <c r="CA6" s="18"/>
+      <c r="CB6" s="18"/>
+      <c r="CC6" s="18"/>
+      <c r="CD6" s="18"/>
+      <c r="CE6" s="18"/>
+      <c r="CK6" s="17">
         <v>234</v>
       </c>
-      <c r="CC6" s="17">
+      <c r="CL6" s="17">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:90" s="17" customFormat="1">
+    <row r="7" spans="1:99" s="17" customFormat="1">
       <c r="B7" s="20" t="s">
         <v>147</v>
       </c>
@@ -2536,27 +2618,36 @@
         <f t="shared" si="8"/>
         <v>97.469999999999985</v>
       </c>
-      <c r="BK7" s="18"/>
-      <c r="BM7" s="18"/>
-      <c r="BN7" s="18"/>
-      <c r="BO7" s="18"/>
-      <c r="BP7" s="18"/>
-      <c r="BQ7" s="18"/>
-      <c r="BR7" s="18"/>
-      <c r="BS7" s="18"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
+      <c r="BM7" s="35"/>
+      <c r="BN7" s="35"/>
+      <c r="BO7" s="35"/>
+      <c r="BP7" s="35"/>
+      <c r="BQ7" s="35"/>
+      <c r="BR7" s="35"/>
+      <c r="BS7" s="35"/>
       <c r="BT7" s="18"/>
-      <c r="BU7" s="18"/>
       <c r="BV7" s="18"/>
-      <c r="CB7" s="17">
+      <c r="BW7" s="18"/>
+      <c r="BX7" s="18"/>
+      <c r="BY7" s="18"/>
+      <c r="BZ7" s="18"/>
+      <c r="CA7" s="18"/>
+      <c r="CB7" s="18"/>
+      <c r="CC7" s="18"/>
+      <c r="CD7" s="18"/>
+      <c r="CE7" s="18"/>
+      <c r="CK7" s="17">
         <f>2585-903-529-455-234</f>
         <v>464</v>
       </c>
-      <c r="CC7" s="17">
+      <c r="CL7" s="17">
         <f>2540-864-523-470-248</f>
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:90" s="17" customFormat="1">
+    <row r="8" spans="1:99" s="17" customFormat="1">
       <c r="B8" s="20" t="s">
         <v>0</v>
       </c>
@@ -2652,25 +2743,34 @@
         <f t="shared" ref="BJ8:BJ9" si="13">+BF8*1.05</f>
         <v>141.12</v>
       </c>
-      <c r="BK8" s="18"/>
-      <c r="BM8" s="18"/>
-      <c r="BN8" s="18"/>
-      <c r="BO8" s="18"/>
-      <c r="BP8" s="18"/>
-      <c r="BQ8" s="18"/>
-      <c r="BR8" s="18"/>
-      <c r="BS8" s="18"/>
+      <c r="BK8" s="35"/>
+      <c r="BL8" s="35"/>
+      <c r="BM8" s="35"/>
+      <c r="BN8" s="35"/>
+      <c r="BO8" s="35"/>
+      <c r="BP8" s="35"/>
+      <c r="BQ8" s="35"/>
+      <c r="BR8" s="35"/>
+      <c r="BS8" s="35"/>
       <c r="BT8" s="18"/>
-      <c r="BU8" s="18"/>
       <c r="BV8" s="18"/>
-      <c r="CB8" s="17">
+      <c r="BW8" s="18"/>
+      <c r="BX8" s="18"/>
+      <c r="BY8" s="18"/>
+      <c r="BZ8" s="18"/>
+      <c r="CA8" s="18"/>
+      <c r="CB8" s="18"/>
+      <c r="CC8" s="18"/>
+      <c r="CD8" s="18"/>
+      <c r="CE8" s="18"/>
+      <c r="CK8" s="17">
         <v>455</v>
       </c>
-      <c r="CC8" s="17">
+      <c r="CL8" s="17">
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:90" s="17" customFormat="1">
+    <row r="9" spans="1:99" s="17" customFormat="1">
       <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
@@ -2766,25 +2866,34 @@
         <f t="shared" si="13"/>
         <v>151.04249999999999</v>
       </c>
-      <c r="BK9" s="18"/>
-      <c r="BM9" s="18"/>
-      <c r="BN9" s="18"/>
-      <c r="BO9" s="18"/>
-      <c r="BP9" s="18"/>
-      <c r="BQ9" s="18"/>
-      <c r="BR9" s="18"/>
-      <c r="BS9" s="18"/>
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35"/>
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="35"/>
+      <c r="BS9" s="35"/>
       <c r="BT9" s="18"/>
-      <c r="BU9" s="18"/>
       <c r="BV9" s="18"/>
-      <c r="CB9" s="17">
+      <c r="BW9" s="18"/>
+      <c r="BX9" s="18"/>
+      <c r="BY9" s="18"/>
+      <c r="BZ9" s="18"/>
+      <c r="CA9" s="18"/>
+      <c r="CB9" s="18"/>
+      <c r="CC9" s="18"/>
+      <c r="CD9" s="18"/>
+      <c r="CE9" s="18"/>
+      <c r="CK9" s="17">
         <v>529</v>
       </c>
-      <c r="CC9" s="17">
+      <c r="CL9" s="17">
         <v>523</v>
       </c>
     </row>
-    <row r="10" spans="1:90" s="17" customFormat="1">
+    <row r="10" spans="1:99" s="17" customFormat="1">
       <c r="B10" s="20" t="s">
         <v>145</v>
       </c>
@@ -2887,27 +2996,36 @@
         <f t="shared" ref="BJ10:BJ12" si="18">+BF10*1.05</f>
         <v>159.86250000000001</v>
       </c>
-      <c r="BK10" s="18"/>
-      <c r="BM10" s="18"/>
-      <c r="BN10" s="18"/>
-      <c r="BO10" s="18"/>
-      <c r="BP10" s="18"/>
-      <c r="BQ10" s="18"/>
-      <c r="BR10" s="18"/>
-      <c r="BS10" s="18"/>
+      <c r="BK10" s="35"/>
+      <c r="BL10" s="35"/>
+      <c r="BM10" s="35"/>
+      <c r="BN10" s="35"/>
+      <c r="BO10" s="35"/>
+      <c r="BP10" s="35"/>
+      <c r="BQ10" s="35"/>
+      <c r="BR10" s="35"/>
+      <c r="BS10" s="35"/>
       <c r="BT10" s="18"/>
-      <c r="BU10" s="18"/>
       <c r="BV10" s="18"/>
-      <c r="CB10" s="17">
+      <c r="BW10" s="18"/>
+      <c r="BX10" s="18"/>
+      <c r="BY10" s="18"/>
+      <c r="BZ10" s="18"/>
+      <c r="CA10" s="18"/>
+      <c r="CB10" s="18"/>
+      <c r="CC10" s="18"/>
+      <c r="CD10" s="18"/>
+      <c r="CE10" s="18"/>
+      <c r="CK10" s="17">
         <f>1079-630</f>
         <v>449</v>
       </c>
-      <c r="CC10" s="17">
+      <c r="CL10" s="17">
         <f>1337-767</f>
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:90" s="17" customFormat="1">
+    <row r="11" spans="1:99" s="17" customFormat="1">
       <c r="B11" s="20" t="s">
         <v>141</v>
       </c>
@@ -2971,7 +3089,7 @@
         <v>104</v>
       </c>
       <c r="BB11" s="35">
-        <f>CC11-SUM(AY11:BA11)</f>
+        <f>CL11-SUM(AY11:BA11)</f>
         <v>120</v>
       </c>
       <c r="BC11" s="35">
@@ -3003,25 +3121,34 @@
         <f t="shared" si="19"/>
         <v>202.8</v>
       </c>
-      <c r="BK11" s="18"/>
-      <c r="BM11" s="18"/>
-      <c r="BN11" s="18"/>
-      <c r="BO11" s="18"/>
-      <c r="BP11" s="18"/>
-      <c r="BQ11" s="18"/>
-      <c r="BR11" s="18"/>
-      <c r="BS11" s="18"/>
+      <c r="BK11" s="35"/>
+      <c r="BL11" s="35"/>
+      <c r="BM11" s="35"/>
+      <c r="BN11" s="35"/>
+      <c r="BO11" s="35"/>
+      <c r="BP11" s="35"/>
+      <c r="BQ11" s="35"/>
+      <c r="BR11" s="35"/>
+      <c r="BS11" s="35"/>
       <c r="BT11" s="18"/>
-      <c r="BU11" s="18"/>
       <c r="BV11" s="18"/>
-      <c r="CB11" s="17">
+      <c r="BW11" s="18"/>
+      <c r="BX11" s="18"/>
+      <c r="BY11" s="18"/>
+      <c r="BZ11" s="18"/>
+      <c r="CA11" s="18"/>
+      <c r="CB11" s="18"/>
+      <c r="CC11" s="18"/>
+      <c r="CD11" s="18"/>
+      <c r="CE11" s="18"/>
+      <c r="CK11" s="17">
         <v>156</v>
       </c>
-      <c r="CC11" s="17">
+      <c r="CL11" s="17">
         <v>373</v>
       </c>
     </row>
-    <row r="12" spans="1:90" s="17" customFormat="1">
+    <row r="12" spans="1:99" s="17" customFormat="1">
       <c r="B12" s="20" t="s">
         <v>143</v>
       </c>
@@ -3117,25 +3244,34 @@
         <f t="shared" si="18"/>
         <v>211.68000000000004</v>
       </c>
-      <c r="BK12" s="18"/>
-      <c r="BM12" s="18"/>
-      <c r="BN12" s="18"/>
-      <c r="BO12" s="18"/>
-      <c r="BP12" s="18"/>
-      <c r="BQ12" s="18"/>
-      <c r="BR12" s="18"/>
-      <c r="BS12" s="18"/>
+      <c r="BK12" s="35"/>
+      <c r="BL12" s="35"/>
+      <c r="BM12" s="35"/>
+      <c r="BN12" s="35"/>
+      <c r="BO12" s="35"/>
+      <c r="BP12" s="35"/>
+      <c r="BQ12" s="35"/>
+      <c r="BR12" s="35"/>
+      <c r="BS12" s="35"/>
       <c r="BT12" s="18"/>
-      <c r="BU12" s="18"/>
       <c r="BV12" s="18"/>
-      <c r="CB12" s="17">
+      <c r="BW12" s="18"/>
+      <c r="BX12" s="18"/>
+      <c r="BY12" s="18"/>
+      <c r="BZ12" s="18"/>
+      <c r="CA12" s="18"/>
+      <c r="CB12" s="18"/>
+      <c r="CC12" s="18"/>
+      <c r="CD12" s="18"/>
+      <c r="CE12" s="18"/>
+      <c r="CK12" s="17">
         <v>531</v>
       </c>
-      <c r="CC12" s="17">
+      <c r="CL12" s="17">
         <v>693</v>
       </c>
     </row>
-    <row r="13" spans="1:90" s="17" customFormat="1">
+    <row r="13" spans="1:99" s="17" customFormat="1">
       <c r="B13" s="20" t="s">
         <v>18</v>
       </c>
@@ -3231,25 +3367,34 @@
         <f t="shared" ref="BJ13:BJ16" si="24">+BF13*0.9</f>
         <v>153.9</v>
       </c>
-      <c r="BK13" s="18"/>
-      <c r="BM13" s="18"/>
-      <c r="BN13" s="18"/>
-      <c r="BO13" s="18"/>
-      <c r="BP13" s="18"/>
-      <c r="BQ13" s="18"/>
-      <c r="BR13" s="18"/>
-      <c r="BS13" s="18"/>
+      <c r="BK13" s="35"/>
+      <c r="BL13" s="35"/>
+      <c r="BM13" s="35"/>
+      <c r="BN13" s="35"/>
+      <c r="BO13" s="35"/>
+      <c r="BP13" s="35"/>
+      <c r="BQ13" s="35"/>
+      <c r="BR13" s="35"/>
+      <c r="BS13" s="35"/>
       <c r="BT13" s="18"/>
-      <c r="BU13" s="18"/>
       <c r="BV13" s="18"/>
-      <c r="CB13" s="17">
+      <c r="BW13" s="18"/>
+      <c r="BX13" s="18"/>
+      <c r="BY13" s="18"/>
+      <c r="BZ13" s="18"/>
+      <c r="CA13" s="18"/>
+      <c r="CB13" s="18"/>
+      <c r="CC13" s="18"/>
+      <c r="CD13" s="18"/>
+      <c r="CE13" s="18"/>
+      <c r="CK13" s="17">
         <v>630</v>
       </c>
-      <c r="CC13" s="17">
+      <c r="CL13" s="17">
         <v>767</v>
       </c>
     </row>
-    <row r="14" spans="1:90" s="17" customFormat="1">
+    <row r="14" spans="1:99" s="17" customFormat="1">
       <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
@@ -3345,25 +3490,34 @@
         <f t="shared" si="24"/>
         <v>197.64</v>
       </c>
-      <c r="BK14" s="18"/>
-      <c r="BM14" s="18"/>
-      <c r="BN14" s="18"/>
-      <c r="BO14" s="18"/>
-      <c r="BP14" s="18"/>
-      <c r="BQ14" s="18"/>
-      <c r="BR14" s="18"/>
-      <c r="BS14" s="18"/>
+      <c r="BK14" s="35"/>
+      <c r="BL14" s="35"/>
+      <c r="BM14" s="35"/>
+      <c r="BN14" s="35"/>
+      <c r="BO14" s="35"/>
+      <c r="BP14" s="35"/>
+      <c r="BQ14" s="35"/>
+      <c r="BR14" s="35"/>
+      <c r="BS14" s="35"/>
       <c r="BT14" s="18"/>
-      <c r="BU14" s="18"/>
       <c r="BV14" s="18"/>
-      <c r="CB14" s="17">
+      <c r="BW14" s="18"/>
+      <c r="BX14" s="18"/>
+      <c r="BY14" s="18"/>
+      <c r="BZ14" s="18"/>
+      <c r="CA14" s="18"/>
+      <c r="CB14" s="18"/>
+      <c r="CC14" s="18"/>
+      <c r="CD14" s="18"/>
+      <c r="CE14" s="18"/>
+      <c r="CK14" s="17">
         <v>1131</v>
       </c>
-      <c r="CC14" s="17">
+      <c r="CL14" s="17">
         <v>952</v>
       </c>
     </row>
-    <row r="15" spans="1:90" s="17" customFormat="1">
+    <row r="15" spans="1:99" s="17" customFormat="1">
       <c r="B15" s="20" t="s">
         <v>21</v>
       </c>
@@ -3459,25 +3613,34 @@
         <f t="shared" si="24"/>
         <v>182.25</v>
       </c>
-      <c r="BK15" s="18"/>
-      <c r="BM15" s="18"/>
-      <c r="BN15" s="18"/>
-      <c r="BO15" s="18"/>
-      <c r="BP15" s="18"/>
-      <c r="BQ15" s="18"/>
-      <c r="BR15" s="18"/>
-      <c r="BS15" s="18"/>
+      <c r="BK15" s="35"/>
+      <c r="BL15" s="35"/>
+      <c r="BM15" s="35"/>
+      <c r="BN15" s="35"/>
+      <c r="BO15" s="35"/>
+      <c r="BP15" s="35"/>
+      <c r="BQ15" s="35"/>
+      <c r="BR15" s="35"/>
+      <c r="BS15" s="35"/>
       <c r="BT15" s="18"/>
-      <c r="BU15" s="18"/>
       <c r="BV15" s="18"/>
-      <c r="CB15" s="17">
+      <c r="BW15" s="18"/>
+      <c r="BX15" s="18"/>
+      <c r="BY15" s="18"/>
+      <c r="BZ15" s="18"/>
+      <c r="CA15" s="18"/>
+      <c r="CB15" s="18"/>
+      <c r="CC15" s="18"/>
+      <c r="CD15" s="18"/>
+      <c r="CE15" s="18"/>
+      <c r="CK15" s="17">
         <v>903</v>
       </c>
-      <c r="CC15" s="17">
+      <c r="CL15" s="17">
         <v>864</v>
       </c>
     </row>
-    <row r="16" spans="1:90" s="17" customFormat="1">
+    <row r="16" spans="1:99" s="17" customFormat="1">
       <c r="B16" s="20" t="s">
         <v>1</v>
       </c>
@@ -3541,7 +3704,7 @@
         <v>233</v>
       </c>
       <c r="BB16" s="35">
-        <f>CC16-SUM(AY16:BA16)</f>
+        <f>CL16-SUM(AY16:BA16)</f>
         <v>262</v>
       </c>
       <c r="BC16" s="35">
@@ -3573,25 +3736,34 @@
         <f t="shared" si="24"/>
         <v>212.22000000000003</v>
       </c>
-      <c r="BK16" s="18"/>
-      <c r="BM16" s="18"/>
-      <c r="BN16" s="18"/>
-      <c r="BO16" s="18"/>
-      <c r="BP16" s="18"/>
-      <c r="BQ16" s="18"/>
-      <c r="BR16" s="18"/>
-      <c r="BS16" s="18"/>
+      <c r="BK16" s="35"/>
+      <c r="BL16" s="35"/>
+      <c r="BM16" s="35"/>
+      <c r="BN16" s="35"/>
+      <c r="BO16" s="35"/>
+      <c r="BP16" s="35"/>
+      <c r="BQ16" s="35"/>
+      <c r="BR16" s="35"/>
+      <c r="BS16" s="35"/>
       <c r="BT16" s="18"/>
-      <c r="BU16" s="18"/>
       <c r="BV16" s="18"/>
-      <c r="CB16" s="17">
+      <c r="BW16" s="18"/>
+      <c r="BX16" s="18"/>
+      <c r="BY16" s="18"/>
+      <c r="BZ16" s="18"/>
+      <c r="CA16" s="18"/>
+      <c r="CB16" s="18"/>
+      <c r="CC16" s="18"/>
+      <c r="CD16" s="18"/>
+      <c r="CE16" s="18"/>
+      <c r="CK16" s="17">
         <v>891</v>
       </c>
-      <c r="CC16" s="17">
+      <c r="CL16" s="17">
         <v>987</v>
       </c>
     </row>
-    <row r="17" spans="2:90" s="21" customFormat="1">
+    <row r="17" spans="2:99" s="21" customFormat="1" ht="13">
       <c r="B17" s="21" t="s">
         <v>75</v>
       </c>
@@ -3737,98 +3909,117 @@
         <f t="shared" si="26"/>
         <v>1822.7974999999999</v>
       </c>
-      <c r="BK17" s="22"/>
-      <c r="BM17" s="22"/>
-      <c r="BN17" s="22"/>
-      <c r="BO17" s="22"/>
+      <c r="BK17" s="22">
+        <v>2047.7</v>
+      </c>
+      <c r="BL17" s="22">
+        <v>2136.6999999999998</v>
+      </c>
+      <c r="BM17" s="22">
+        <v>2133.4</v>
+      </c>
+      <c r="BN17" s="22">
+        <v>2136.6999999999998</v>
+      </c>
+      <c r="BO17" s="22">
+        <v>2114.1</v>
+      </c>
       <c r="BP17" s="22"/>
       <c r="BQ17" s="22"/>
-      <c r="BR17" s="22">
+      <c r="BR17" s="22"/>
+      <c r="BS17" s="22"/>
+      <c r="BT17" s="22"/>
+      <c r="BV17" s="22"/>
+      <c r="BW17" s="22"/>
+      <c r="BX17" s="22"/>
+      <c r="BY17" s="22"/>
+      <c r="BZ17" s="22"/>
+      <c r="CA17" s="22">
         <f>SUM(G17:J17)</f>
         <v>5754</v>
       </c>
-      <c r="BS17" s="22">
+      <c r="CB17" s="22">
         <f>SUM(K17:N17)</f>
         <v>5762.5999999999995</v>
       </c>
-      <c r="BT17" s="22">
-        <f t="shared" ref="BT17:CG17" si="27">SUM(L17:O17)</f>
+      <c r="CC17" s="22">
+        <f>SUM(L17:O17)</f>
         <v>4417.7</v>
       </c>
-      <c r="BU17" s="22">
-        <f t="shared" si="27"/>
+      <c r="CD17" s="22">
+        <f>SUM(M17:P17)</f>
         <v>2967.2</v>
       </c>
-      <c r="BV17" s="22">
-        <f t="shared" si="27"/>
+      <c r="CE17" s="22">
+        <f>SUM(N17:Q17)</f>
         <v>1573.7</v>
       </c>
-      <c r="BW17" s="22">
-        <f t="shared" si="27"/>
+      <c r="CF17" s="22">
+        <f>SUM(O17:R17)</f>
         <v>0</v>
       </c>
-      <c r="BX17" s="22">
-        <f t="shared" si="27"/>
+      <c r="CG17" s="22">
+        <f>SUM(P17:S17)</f>
         <v>0</v>
       </c>
-      <c r="BY17" s="22">
-        <f t="shared" si="27"/>
+      <c r="CH17" s="22">
+        <f>SUM(Q17:T17)</f>
         <v>0</v>
       </c>
-      <c r="BZ17" s="22">
-        <f t="shared" si="27"/>
+      <c r="CI17" s="22">
+        <f>SUM(R17:U17)</f>
         <v>0</v>
       </c>
-      <c r="CA17" s="22">
-        <f t="shared" si="27"/>
+      <c r="CJ17" s="22">
+        <f>SUM(S17:V17)</f>
         <v>0</v>
       </c>
-      <c r="CB17" s="22">
-        <f>SUM(CB3:CB16)</f>
+      <c r="CK17" s="22">
+        <f>SUM(CK3:CK16)</f>
         <v>6639</v>
       </c>
-      <c r="CC17" s="22">
-        <f>SUM(CC3:CC16)</f>
+      <c r="CL17" s="22">
+        <f>SUM(CL3:CL16)</f>
         <v>7090</v>
       </c>
-      <c r="CD17" s="22">
-        <f t="shared" si="27"/>
+      <c r="CM17" s="22">
+        <f>SUM(V17:Y17)</f>
         <v>0</v>
       </c>
-      <c r="CE17" s="22">
-        <f t="shared" si="27"/>
+      <c r="CN17" s="22">
+        <f>SUM(W17:Z17)</f>
         <v>0</v>
       </c>
-      <c r="CF17" s="22">
-        <f t="shared" si="27"/>
+      <c r="CO17" s="22">
+        <f>SUM(X17:AA17)</f>
         <v>0</v>
       </c>
-      <c r="CG17" s="22">
-        <f t="shared" si="27"/>
+      <c r="CP17" s="22">
+        <f>SUM(Y17:AB17)</f>
         <v>0</v>
       </c>
-      <c r="CH17" s="22">
-        <f t="shared" ref="CH17" si="28">SUM(Z17:AC17)</f>
+      <c r="CQ17" s="22">
+        <f t="shared" ref="CQ17" si="27">SUM(Z17:AC17)</f>
         <v>0</v>
       </c>
-      <c r="CI17" s="22">
-        <f t="shared" ref="CI17" si="29">SUM(AA17:AD17)</f>
+      <c r="CR17" s="22">
+        <f t="shared" ref="CR17" si="28">SUM(AA17:AD17)</f>
         <v>0</v>
       </c>
-      <c r="CJ17" s="22">
-        <f t="shared" ref="CJ17" si="30">SUM(AB17:AE17)</f>
+      <c r="CS17" s="22">
+        <f t="shared" ref="CS17" si="29">SUM(AB17:AE17)</f>
         <v>0</v>
       </c>
-      <c r="CK17" s="22">
-        <f t="shared" ref="CK17" si="31">SUM(AC17:AF17)</f>
+      <c r="CT17" s="22">
+        <f t="shared" ref="CT17" si="30">SUM(AC17:AF17)</f>
         <v>0</v>
       </c>
-      <c r="CL17" s="22">
-        <f t="shared" ref="CL17" si="32">SUM(AD17:AG17)</f>
+      <c r="CU17" s="22">
+        <f t="shared" ref="CU17" si="31">SUM(AD17:AG17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:90" s="17" customFormat="1">
+    <row r="18" spans="2:99" s="17" customFormat="1">
       <c r="B18" s="20" t="s">
         <v>76</v>
       </c>
@@ -3859,11 +4050,11 @@
         <v>119.59500000000001</v>
       </c>
       <c r="M18" s="18">
-        <f t="shared" ref="M18:N18" si="33">+I18*1.05</f>
+        <f t="shared" ref="M18:N18" si="32">+I18*1.05</f>
         <v>131.25</v>
       </c>
       <c r="N18" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>132.51</v>
       </c>
       <c r="O18" s="18"/>
@@ -3915,24 +4106,33 @@
       <c r="BI18" s="18"/>
       <c r="BJ18" s="18"/>
       <c r="BK18" s="18"/>
+      <c r="BL18" s="18"/>
       <c r="BM18" s="18"/>
       <c r="BN18" s="18"/>
       <c r="BO18" s="18"/>
       <c r="BP18" s="18"/>
       <c r="BQ18" s="18"/>
-      <c r="BR18" s="18">
-        <f t="shared" ref="BR18:BR45" si="34">SUM(G18:J18)</f>
+      <c r="BR18" s="18"/>
+      <c r="BS18" s="18"/>
+      <c r="BT18" s="18"/>
+      <c r="BV18" s="18"/>
+      <c r="BW18" s="18"/>
+      <c r="BX18" s="18"/>
+      <c r="BY18" s="18"/>
+      <c r="BZ18" s="18"/>
+      <c r="CA18" s="18">
+        <f t="shared" ref="CA18:CA45" si="33">SUM(G18:J18)</f>
         <v>472</v>
       </c>
-      <c r="BS18" s="18">
-        <f t="shared" ref="BS18:BS30" si="35">SUM(K18:N18)</f>
+      <c r="CB18" s="18">
+        <f t="shared" ref="CB18:CB30" si="34">SUM(K18:N18)</f>
         <v>499.55500000000001</v>
       </c>
-      <c r="BT18" s="18"/>
-      <c r="BU18" s="18"/>
-      <c r="BV18" s="18"/>
+      <c r="CC18" s="18"/>
+      <c r="CD18" s="18"/>
+      <c r="CE18" s="18"/>
     </row>
-    <row r="19" spans="2:90" s="17" customFormat="1">
+    <row r="19" spans="2:99" s="17" customFormat="1">
       <c r="B19" s="20"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -3995,6 +4195,7 @@
       <c r="BI19" s="18"/>
       <c r="BJ19" s="18"/>
       <c r="BK19" s="18"/>
+      <c r="BL19" s="18"/>
       <c r="BM19" s="18"/>
       <c r="BN19" s="18"/>
       <c r="BO19" s="18"/>
@@ -4003,10 +4204,18 @@
       <c r="BR19" s="18"/>
       <c r="BS19" s="18"/>
       <c r="BT19" s="18"/>
-      <c r="BU19" s="18"/>
       <c r="BV19" s="18"/>
+      <c r="BW19" s="18"/>
+      <c r="BX19" s="18"/>
+      <c r="BY19" s="18"/>
+      <c r="BZ19" s="18"/>
+      <c r="CA19" s="18"/>
+      <c r="CB19" s="18"/>
+      <c r="CC19" s="18"/>
+      <c r="CD19" s="18"/>
+      <c r="CE19" s="18"/>
     </row>
-    <row r="20" spans="2:90" s="17" customFormat="1">
+    <row r="20" spans="2:99" s="17" customFormat="1">
       <c r="B20" s="20" t="s">
         <v>140</v>
       </c>
@@ -4072,7 +4281,7 @@
         <v>454</v>
       </c>
       <c r="BB20" s="35">
-        <f>CC20-SUM(AY20:BA20)</f>
+        <f>CL20-SUM(AY20:BA20)</f>
         <v>498</v>
       </c>
       <c r="BC20" s="18">
@@ -4086,6 +4295,7 @@
       <c r="BI20" s="18"/>
       <c r="BJ20" s="18"/>
       <c r="BK20" s="18"/>
+      <c r="BL20" s="18"/>
       <c r="BM20" s="18"/>
       <c r="BN20" s="18"/>
       <c r="BO20" s="18"/>
@@ -4094,16 +4304,24 @@
       <c r="BR20" s="18"/>
       <c r="BS20" s="18"/>
       <c r="BT20" s="18"/>
-      <c r="BU20" s="18"/>
       <c r="BV20" s="18"/>
-      <c r="CB20" s="17">
+      <c r="BW20" s="18"/>
+      <c r="BX20" s="18"/>
+      <c r="BY20" s="18"/>
+      <c r="BZ20" s="18"/>
+      <c r="CA20" s="18"/>
+      <c r="CB20" s="18"/>
+      <c r="CC20" s="18"/>
+      <c r="CD20" s="18"/>
+      <c r="CE20" s="18"/>
+      <c r="CK20" s="17">
         <v>1705</v>
       </c>
-      <c r="CC20" s="17">
+      <c r="CL20" s="17">
         <v>1833</v>
       </c>
     </row>
-    <row r="21" spans="2:90" s="17" customFormat="1">
+    <row r="21" spans="2:99" s="17" customFormat="1">
       <c r="B21" s="20" t="s">
         <v>139</v>
       </c>
@@ -4169,7 +4387,7 @@
         <v>608</v>
       </c>
       <c r="BB21" s="35">
-        <f>CC21-SUM(AY21:BA21)</f>
+        <f>CL21-SUM(AY21:BA21)</f>
         <v>627</v>
       </c>
       <c r="BC21" s="18">
@@ -4183,6 +4401,7 @@
       <c r="BI21" s="18"/>
       <c r="BJ21" s="18"/>
       <c r="BK21" s="18"/>
+      <c r="BL21" s="18"/>
       <c r="BM21" s="18"/>
       <c r="BN21" s="18"/>
       <c r="BO21" s="18"/>
@@ -4191,16 +4410,24 @@
       <c r="BR21" s="18"/>
       <c r="BS21" s="18"/>
       <c r="BT21" s="18"/>
-      <c r="BU21" s="18"/>
       <c r="BV21" s="18"/>
-      <c r="CB21" s="17">
+      <c r="BW21" s="18"/>
+      <c r="BX21" s="18"/>
+      <c r="BY21" s="18"/>
+      <c r="BZ21" s="18"/>
+      <c r="CA21" s="18"/>
+      <c r="CB21" s="18"/>
+      <c r="CC21" s="18"/>
+      <c r="CD21" s="18"/>
+      <c r="CE21" s="18"/>
+      <c r="CK21" s="17">
         <v>2215</v>
       </c>
-      <c r="CC21" s="17">
+      <c r="CL21" s="17">
         <v>2512</v>
       </c>
     </row>
-    <row r="22" spans="2:90" s="17" customFormat="1">
+    <row r="22" spans="2:99" s="17" customFormat="1">
       <c r="B22" s="20" t="s">
         <v>153</v>
       </c>
@@ -4266,26 +4493,27 @@
         <v>244.4</v>
       </c>
       <c r="BF22" s="18">
-        <f t="shared" ref="BF22:BJ22" si="36">+BE22</f>
+        <f t="shared" ref="BF22:BJ22" si="35">+BE22</f>
         <v>244.4</v>
       </c>
       <c r="BG22" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>244.4</v>
       </c>
       <c r="BH22" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>244.4</v>
       </c>
       <c r="BI22" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>244.4</v>
       </c>
       <c r="BJ22" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>244.4</v>
       </c>
       <c r="BK22" s="18"/>
+      <c r="BL22" s="18"/>
       <c r="BM22" s="18"/>
       <c r="BN22" s="18"/>
       <c r="BO22" s="18"/>
@@ -4294,10 +4522,18 @@
       <c r="BR22" s="18"/>
       <c r="BS22" s="18"/>
       <c r="BT22" s="18"/>
-      <c r="BU22" s="18"/>
       <c r="BV22" s="18"/>
+      <c r="BW22" s="18"/>
+      <c r="BX22" s="18"/>
+      <c r="BY22" s="18"/>
+      <c r="BZ22" s="18"/>
+      <c r="CA22" s="18"/>
+      <c r="CB22" s="18"/>
+      <c r="CC22" s="18"/>
+      <c r="CD22" s="18"/>
+      <c r="CE22" s="18"/>
     </row>
-    <row r="23" spans="2:90" s="17" customFormat="1">
+    <row r="23" spans="2:99" s="17" customFormat="1">
       <c r="B23" s="20" t="s">
         <v>152</v>
       </c>
@@ -4363,26 +4599,27 @@
         <v>1246.4000000000001</v>
       </c>
       <c r="BF23" s="18">
-        <f t="shared" ref="BF23:BJ23" si="37">+BE23</f>
+        <f t="shared" ref="BF23:BJ23" si="36">+BE23</f>
         <v>1246.4000000000001</v>
       </c>
       <c r="BG23" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1246.4000000000001</v>
       </c>
       <c r="BH23" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1246.4000000000001</v>
       </c>
       <c r="BI23" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1246.4000000000001</v>
       </c>
       <c r="BJ23" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>1246.4000000000001</v>
       </c>
       <c r="BK23" s="18"/>
+      <c r="BL23" s="18"/>
       <c r="BM23" s="18"/>
       <c r="BN23" s="18"/>
       <c r="BO23" s="18"/>
@@ -4391,10 +4628,18 @@
       <c r="BR23" s="18"/>
       <c r="BS23" s="18"/>
       <c r="BT23" s="18"/>
-      <c r="BU23" s="18"/>
       <c r="BV23" s="18"/>
+      <c r="BW23" s="18"/>
+      <c r="BX23" s="18"/>
+      <c r="BY23" s="18"/>
+      <c r="BZ23" s="18"/>
+      <c r="CA23" s="18"/>
+      <c r="CB23" s="18"/>
+      <c r="CC23" s="18"/>
+      <c r="CD23" s="18"/>
+      <c r="CE23" s="18"/>
     </row>
-    <row r="24" spans="2:90" s="17" customFormat="1">
+    <row r="24" spans="2:99" s="17" customFormat="1">
       <c r="B24" s="20" t="s">
         <v>138</v>
       </c>
@@ -4460,7 +4705,7 @@
         <v>1186</v>
       </c>
       <c r="BB24" s="35">
-        <f>CC24-SUM(AY24:BA24)+962-1145</f>
+        <f>CL24-SUM(AY24:BA24)+962-1145</f>
         <v>1261</v>
       </c>
       <c r="BC24" s="18">
@@ -4473,26 +4718,27 @@
         <v>1190</v>
       </c>
       <c r="BF24" s="18">
-        <f t="shared" ref="BF24:BJ24" si="38">+BB24*1.05</f>
+        <f t="shared" ref="BF24:BJ24" si="37">+BB24*1.05</f>
         <v>1324.05</v>
       </c>
       <c r="BG24" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1313.865</v>
       </c>
       <c r="BH24" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1206.45</v>
       </c>
       <c r="BI24" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1249.5</v>
       </c>
       <c r="BJ24" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1390.2525000000001</v>
       </c>
       <c r="BK24" s="18"/>
+      <c r="BL24" s="18"/>
       <c r="BM24" s="18"/>
       <c r="BN24" s="18"/>
       <c r="BO24" s="18"/>
@@ -4501,16 +4747,24 @@
       <c r="BR24" s="18"/>
       <c r="BS24" s="18"/>
       <c r="BT24" s="18"/>
-      <c r="BU24" s="18"/>
       <c r="BV24" s="18"/>
-      <c r="CB24" s="17">
+      <c r="BW24" s="18"/>
+      <c r="BX24" s="18"/>
+      <c r="BY24" s="18"/>
+      <c r="BZ24" s="18"/>
+      <c r="CA24" s="18"/>
+      <c r="CB24" s="18"/>
+      <c r="CC24" s="18"/>
+      <c r="CD24" s="18"/>
+      <c r="CE24" s="18"/>
+      <c r="CK24" s="17">
         <v>3595</v>
       </c>
-      <c r="CC24" s="17">
+      <c r="CL24" s="17">
         <v>4645</v>
       </c>
     </row>
-    <row r="25" spans="2:90" s="21" customFormat="1">
+    <row r="25" spans="2:99" s="21" customFormat="1" ht="13">
       <c r="B25" s="21" t="s">
         <v>132</v>
       </c>
@@ -4541,11 +4795,11 @@
         <v>613.4</v>
       </c>
       <c r="M25" s="22">
-        <f t="shared" ref="M25:N25" si="39">+L25+5</f>
+        <f t="shared" ref="M25:N25" si="38">+L25+5</f>
         <v>618.4</v>
       </c>
       <c r="N25" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>623.4</v>
       </c>
       <c r="O25" s="22"/>
@@ -4577,35 +4831,35 @@
       <c r="AO25" s="22"/>
       <c r="AP25" s="22"/>
       <c r="AQ25" s="22">
-        <f t="shared" ref="AQ25:AX25" si="40">SUM(AQ20:AQ24)</f>
+        <f t="shared" ref="AQ25:AX25" si="39">SUM(AQ20:AQ24)</f>
         <v>0</v>
       </c>
       <c r="AR25" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AS25" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AT25" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AU25" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AV25" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1806</v>
       </c>
       <c r="AW25" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1910</v>
       </c>
       <c r="AX25" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AY25" s="22">
@@ -4629,125 +4883,144 @@
         <v>2445.3000000000002</v>
       </c>
       <c r="BD25" s="22">
-        <f t="shared" ref="BD25:BJ25" si="41">SUM(BD20:BD24)</f>
+        <f t="shared" ref="BD25:BJ25" si="40">SUM(BD20:BD24)</f>
         <v>2648</v>
       </c>
       <c r="BE25" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2680.8</v>
       </c>
       <c r="BF25" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2814.8500000000004</v>
       </c>
       <c r="BG25" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2804.665</v>
       </c>
       <c r="BH25" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2697.25</v>
       </c>
       <c r="BI25" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2740.3</v>
       </c>
       <c r="BJ25" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2881.0525000000002</v>
       </c>
-      <c r="BK25" s="22"/>
-      <c r="BM25" s="22"/>
-      <c r="BN25" s="22"/>
-      <c r="BO25" s="22"/>
+      <c r="BK25" s="22">
+        <v>2143.6999999999998</v>
+      </c>
+      <c r="BL25" s="22">
+        <v>2258.1</v>
+      </c>
+      <c r="BM25" s="22">
+        <v>2209.6999999999998</v>
+      </c>
+      <c r="BN25" s="22">
+        <v>2304.5</v>
+      </c>
+      <c r="BO25" s="22">
+        <v>2217.8000000000002</v>
+      </c>
       <c r="BP25" s="22"/>
       <c r="BQ25" s="22"/>
-      <c r="BR25" s="22">
+      <c r="BR25" s="22"/>
+      <c r="BS25" s="22"/>
+      <c r="BT25" s="22"/>
+      <c r="BV25" s="22"/>
+      <c r="BW25" s="22"/>
+      <c r="BX25" s="22"/>
+      <c r="BY25" s="22"/>
+      <c r="BZ25" s="22"/>
+      <c r="CA25" s="22">
+        <f t="shared" si="33"/>
+        <v>1680.9999999999998</v>
+      </c>
+      <c r="CB25" s="22">
         <f t="shared" si="34"/>
-        <v>1680.9999999999998</v>
-      </c>
-      <c r="BS25" s="22">
-        <f t="shared" si="35"/>
         <v>2463.6</v>
       </c>
-      <c r="BT25" s="22">
-        <f t="shared" ref="BT25:CL25" si="42">SUM(BT20:BT24)</f>
+      <c r="CC25" s="22">
+        <f t="shared" ref="CC25:CU25" si="41">SUM(CC20:CC24)</f>
         <v>0</v>
       </c>
-      <c r="BU25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CD25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="BV25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CE25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="BW25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CF25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="BX25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CG25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="BY25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CH25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="BZ25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CI25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="CA25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CJ25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="CB25" s="22">
-        <f>SUM(CB20:CB24)</f>
+      <c r="CK25" s="22">
+        <f>SUM(CK20:CK24)</f>
         <v>7515</v>
       </c>
-      <c r="CC25" s="22">
-        <f>SUM(CC20:CC24)</f>
+      <c r="CL25" s="22">
+        <f>SUM(CL20:CL24)</f>
         <v>8990</v>
       </c>
-      <c r="CD25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CM25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="CE25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CN25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="CF25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CO25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="CG25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CP25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="CH25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CQ25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="CI25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CR25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="CJ25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CS25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="CK25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CT25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="CL25" s="22">
-        <f t="shared" si="42"/>
+      <c r="CU25" s="22">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:90" s="17" customFormat="1">
+    <row r="26" spans="2:99" s="17" customFormat="1">
       <c r="B26" s="20"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -4810,6 +5083,7 @@
       <c r="BI26" s="18"/>
       <c r="BJ26" s="18"/>
       <c r="BK26" s="18"/>
+      <c r="BL26" s="18"/>
       <c r="BM26" s="18"/>
       <c r="BN26" s="18"/>
       <c r="BO26" s="18"/>
@@ -4818,10 +5092,18 @@
       <c r="BR26" s="18"/>
       <c r="BS26" s="18"/>
       <c r="BT26" s="18"/>
-      <c r="BU26" s="18"/>
       <c r="BV26" s="18"/>
+      <c r="BW26" s="18"/>
+      <c r="BX26" s="18"/>
+      <c r="BY26" s="18"/>
+      <c r="BZ26" s="18"/>
+      <c r="CA26" s="18"/>
+      <c r="CB26" s="18"/>
+      <c r="CC26" s="18"/>
+      <c r="CD26" s="18"/>
+      <c r="CE26" s="18"/>
     </row>
-    <row r="27" spans="2:90" s="17" customFormat="1">
+    <row r="27" spans="2:99" s="17" customFormat="1">
       <c r="B27" s="20" t="s">
         <v>150</v>
       </c>
@@ -4885,7 +5167,7 @@
         <v>96</v>
       </c>
       <c r="BB27" s="18">
-        <f>+CC27-BA27-AZ27-AY27</f>
+        <f>+CL27-BA27-AZ27-AY27</f>
         <v>99</v>
       </c>
       <c r="BC27" s="18">
@@ -4898,26 +5180,27 @@
         <v>106.4</v>
       </c>
       <c r="BF27" s="18">
-        <f t="shared" ref="BF27:BF28" si="43">+BB27*1.1</f>
+        <f t="shared" ref="BF27:BF28" si="42">+BB27*1.1</f>
         <v>108.9</v>
       </c>
       <c r="BG27" s="18">
-        <f t="shared" ref="BG27:BG28" si="44">+BC27*1.1</f>
+        <f t="shared" ref="BG27:BG28" si="43">+BC27*1.1</f>
         <v>126.50000000000001</v>
       </c>
       <c r="BH27" s="18">
-        <f t="shared" ref="BH27:BH28" si="45">+BD27*1.1</f>
+        <f t="shared" ref="BH27:BH28" si="44">+BD27*1.1</f>
         <v>122.10000000000001</v>
       </c>
       <c r="BI27" s="18">
-        <f t="shared" ref="BI27:BI28" si="46">+BE27*1.1</f>
+        <f t="shared" ref="BI27:BI28" si="45">+BE27*1.1</f>
         <v>117.04000000000002</v>
       </c>
       <c r="BJ27" s="18">
-        <f t="shared" ref="BJ27:BJ28" si="47">+BF27*1.1</f>
+        <f t="shared" ref="BJ27:BJ28" si="46">+BF27*1.1</f>
         <v>119.79000000000002</v>
       </c>
       <c r="BK27" s="18"/>
+      <c r="BL27" s="18"/>
       <c r="BM27" s="18"/>
       <c r="BN27" s="18"/>
       <c r="BO27" s="18"/>
@@ -4926,16 +5209,24 @@
       <c r="BR27" s="18"/>
       <c r="BS27" s="18"/>
       <c r="BT27" s="18"/>
-      <c r="BU27" s="18"/>
       <c r="BV27" s="18"/>
-      <c r="CB27" s="17">
+      <c r="BW27" s="18"/>
+      <c r="BX27" s="18"/>
+      <c r="BY27" s="18"/>
+      <c r="BZ27" s="18"/>
+      <c r="CA27" s="18"/>
+      <c r="CB27" s="18"/>
+      <c r="CC27" s="18"/>
+      <c r="CD27" s="18"/>
+      <c r="CE27" s="18"/>
+      <c r="CK27" s="17">
         <v>371</v>
       </c>
-      <c r="CC27" s="17">
+      <c r="CL27" s="17">
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="2:90" s="17" customFormat="1">
+    <row r="28" spans="2:99" s="17" customFormat="1">
       <c r="B28" s="20" t="s">
         <v>149</v>
       </c>
@@ -4999,7 +5290,7 @@
         <v>267</v>
       </c>
       <c r="BB28" s="18">
-        <f>+CC28-BA28-AZ28-AY28</f>
+        <f>+CL28-BA28-AZ28-AY28</f>
         <v>252</v>
       </c>
       <c r="BC28" s="18">
@@ -5012,26 +5303,27 @@
         <v>200.4</v>
       </c>
       <c r="BF28" s="18">
+        <f t="shared" si="42"/>
+        <v>277.20000000000005</v>
+      </c>
+      <c r="BG28" s="18">
         <f t="shared" si="43"/>
-        <v>277.20000000000005</v>
-      </c>
-      <c r="BG28" s="18">
+        <v>288.20000000000005</v>
+      </c>
+      <c r="BH28" s="18">
         <f t="shared" si="44"/>
-        <v>288.20000000000005</v>
-      </c>
-      <c r="BH28" s="18">
+        <v>256.3</v>
+      </c>
+      <c r="BI28" s="18">
         <f t="shared" si="45"/>
-        <v>256.3</v>
-      </c>
-      <c r="BI28" s="18">
+        <v>220.44000000000003</v>
+      </c>
+      <c r="BJ28" s="18">
         <f t="shared" si="46"/>
-        <v>220.44000000000003</v>
-      </c>
-      <c r="BJ28" s="18">
-        <f t="shared" si="47"/>
         <v>304.92000000000007</v>
       </c>
       <c r="BK28" s="18"/>
+      <c r="BL28" s="18"/>
       <c r="BM28" s="18"/>
       <c r="BN28" s="18"/>
       <c r="BO28" s="18"/>
@@ -5040,16 +5332,24 @@
       <c r="BR28" s="18"/>
       <c r="BS28" s="18"/>
       <c r="BT28" s="18"/>
-      <c r="BU28" s="18"/>
       <c r="BV28" s="18"/>
-      <c r="CB28" s="17">
+      <c r="BW28" s="18"/>
+      <c r="BX28" s="18"/>
+      <c r="BY28" s="18"/>
+      <c r="BZ28" s="18"/>
+      <c r="CA28" s="18"/>
+      <c r="CB28" s="18"/>
+      <c r="CC28" s="18"/>
+      <c r="CD28" s="18"/>
+      <c r="CE28" s="18"/>
+      <c r="CK28" s="17">
         <v>1115</v>
       </c>
-      <c r="CC28" s="17">
+      <c r="CL28" s="17">
         <v>1046</v>
       </c>
     </row>
-    <row r="29" spans="2:90" s="17" customFormat="1">
+    <row r="29" spans="2:99" s="17" customFormat="1">
       <c r="B29" s="20" t="s">
         <v>148</v>
       </c>
@@ -5113,7 +5413,7 @@
         <v>573</v>
       </c>
       <c r="BB29" s="18">
-        <f>+CC29-BA29-AZ29-AY29</f>
+        <f>+CL29-BA29-AZ29-AY29</f>
         <v>603</v>
       </c>
       <c r="BC29" s="18">
@@ -5126,26 +5426,27 @@
         <v>729</v>
       </c>
       <c r="BF29" s="18">
-        <f t="shared" ref="BF29:BJ29" si="48">+BB29*1.3</f>
+        <f t="shared" ref="BF29:BJ29" si="47">+BB29*1.3</f>
         <v>783.9</v>
       </c>
       <c r="BG29" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>755.30000000000007</v>
       </c>
       <c r="BH29" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>848.9</v>
       </c>
       <c r="BI29" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>947.7</v>
       </c>
       <c r="BJ29" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1019.07</v>
       </c>
       <c r="BK29" s="18"/>
+      <c r="BL29" s="18"/>
       <c r="BM29" s="18"/>
       <c r="BN29" s="18"/>
       <c r="BO29" s="18"/>
@@ -5154,16 +5455,24 @@
       <c r="BR29" s="18"/>
       <c r="BS29" s="18"/>
       <c r="BT29" s="18"/>
-      <c r="BU29" s="18"/>
       <c r="BV29" s="18"/>
-      <c r="CB29" s="17">
+      <c r="BW29" s="18"/>
+      <c r="BX29" s="18"/>
+      <c r="BY29" s="18"/>
+      <c r="BZ29" s="18"/>
+      <c r="CA29" s="18"/>
+      <c r="CB29" s="18"/>
+      <c r="CC29" s="18"/>
+      <c r="CD29" s="18"/>
+      <c r="CE29" s="18"/>
+      <c r="CK29" s="17">
         <v>1894</v>
       </c>
-      <c r="CC29" s="17">
+      <c r="CL29" s="17">
         <v>2151</v>
       </c>
     </row>
-    <row r="30" spans="2:90" s="21" customFormat="1">
+    <row r="30" spans="2:99" s="21" customFormat="1" ht="13">
       <c r="B30" s="21" t="s">
         <v>133</v>
       </c>
@@ -5194,11 +5503,11 @@
         <v>395.89</v>
       </c>
       <c r="M30" s="22">
-        <f t="shared" ref="M30:N30" si="49">+I30*1.1</f>
+        <f t="shared" ref="M30:N30" si="48">+I30*1.1</f>
         <v>380.27000000000004</v>
       </c>
       <c r="N30" s="22">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>359.70000000000005</v>
       </c>
       <c r="O30" s="22"/>
@@ -5230,35 +5539,35 @@
       <c r="AO30" s="22"/>
       <c r="AP30" s="22"/>
       <c r="AQ30" s="22">
-        <f t="shared" ref="AQ30:AX30" si="50">SUM(AQ27:AQ29)</f>
+        <f t="shared" ref="AQ30:AX30" si="49">SUM(AQ27:AQ29)</f>
         <v>0</v>
       </c>
       <c r="AR30" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AS30" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AT30" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AU30" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AV30" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AW30" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>835</v>
       </c>
       <c r="AX30" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AY30" s="22">
@@ -5285,121 +5594,140 @@
         <v>997</v>
       </c>
       <c r="BE30" s="22">
-        <f t="shared" ref="BE30:BJ30" si="51">SUM(BE27:BE29)</f>
+        <f t="shared" ref="BE30:BJ30" si="50">SUM(BE27:BE29)</f>
         <v>1035.8</v>
       </c>
       <c r="BF30" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1170</v>
       </c>
       <c r="BG30" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1170</v>
       </c>
       <c r="BH30" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1227.3</v>
       </c>
       <c r="BI30" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1285.18</v>
       </c>
       <c r="BJ30" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1443.7800000000002</v>
       </c>
-      <c r="BK30" s="22"/>
-      <c r="BM30" s="22"/>
-      <c r="BN30" s="22"/>
-      <c r="BO30" s="22"/>
+      <c r="BK30" s="22">
+        <v>928.4</v>
+      </c>
+      <c r="BL30" s="22">
+        <v>957.4</v>
+      </c>
+      <c r="BM30" s="22">
+        <v>923</v>
+      </c>
+      <c r="BN30" s="22">
+        <v>976.5</v>
+      </c>
+      <c r="BO30" s="22">
+        <v>948.2</v>
+      </c>
       <c r="BP30" s="22"/>
       <c r="BQ30" s="22"/>
-      <c r="BR30" s="22">
+      <c r="BR30" s="22"/>
+      <c r="BS30" s="22"/>
+      <c r="BT30" s="22"/>
+      <c r="BV30" s="22"/>
+      <c r="BW30" s="22"/>
+      <c r="BX30" s="22"/>
+      <c r="BY30" s="22"/>
+      <c r="BZ30" s="22"/>
+      <c r="CA30" s="22">
+        <f t="shared" si="33"/>
+        <v>1384</v>
+      </c>
+      <c r="CB30" s="22">
         <f t="shared" si="34"/>
-        <v>1384</v>
-      </c>
-      <c r="BS30" s="22">
-        <f t="shared" si="35"/>
         <v>1543.8600000000001</v>
       </c>
-      <c r="BT30" s="22">
-        <f t="shared" ref="BT30" si="52">SUM(BT27:BT29)</f>
+      <c r="CC30" s="22">
+        <f t="shared" ref="CC30" si="51">SUM(CC27:CC29)</f>
         <v>0</v>
       </c>
-      <c r="BU30" s="22">
-        <f t="shared" ref="BU30" si="53">SUM(BU27:BU29)</f>
+      <c r="CD30" s="22">
+        <f t="shared" ref="CD30" si="52">SUM(CD27:CD29)</f>
         <v>0</v>
       </c>
-      <c r="BV30" s="22">
-        <f t="shared" ref="BV30" si="54">SUM(BV27:BV29)</f>
+      <c r="CE30" s="22">
+        <f t="shared" ref="CE30" si="53">SUM(CE27:CE29)</f>
         <v>0</v>
       </c>
-      <c r="BW30" s="22">
-        <f t="shared" ref="BW30" si="55">SUM(BW27:BW29)</f>
+      <c r="CF30" s="22">
+        <f t="shared" ref="CF30" si="54">SUM(CF27:CF29)</f>
         <v>0</v>
       </c>
-      <c r="BX30" s="22">
-        <f t="shared" ref="BX30" si="56">SUM(BX27:BX29)</f>
+      <c r="CG30" s="22">
+        <f t="shared" ref="CG30" si="55">SUM(CG27:CG29)</f>
         <v>0</v>
       </c>
-      <c r="BY30" s="22">
-        <f t="shared" ref="BY30" si="57">SUM(BY27:BY29)</f>
+      <c r="CH30" s="22">
+        <f t="shared" ref="CH30" si="56">SUM(CH27:CH29)</f>
         <v>0</v>
       </c>
-      <c r="BZ30" s="22">
-        <f t="shared" ref="BZ30" si="58">SUM(BZ27:BZ29)</f>
+      <c r="CI30" s="22">
+        <f t="shared" ref="CI30" si="57">SUM(CI27:CI29)</f>
         <v>0</v>
       </c>
-      <c r="CA30" s="22">
-        <f t="shared" ref="CA30" si="59">SUM(CA27:CA29)</f>
+      <c r="CJ30" s="22">
+        <f t="shared" ref="CJ30" si="58">SUM(CJ27:CJ29)</f>
         <v>0</v>
       </c>
-      <c r="CB30" s="22">
-        <f t="shared" ref="CB30" si="60">SUM(CB27:CB29)</f>
+      <c r="CK30" s="22">
+        <f t="shared" ref="CK30" si="59">SUM(CK27:CK29)</f>
         <v>3380</v>
       </c>
-      <c r="CC30" s="22">
-        <f t="shared" ref="CC30" si="61">SUM(CC27:CC29)</f>
+      <c r="CL30" s="22">
+        <f t="shared" ref="CL30" si="60">SUM(CL27:CL29)</f>
         <v>3607</v>
       </c>
-      <c r="CD30" s="22">
-        <f t="shared" ref="CD30" si="62">SUM(CD27:CD29)</f>
+      <c r="CM30" s="22">
+        <f t="shared" ref="CM30" si="61">SUM(CM27:CM29)</f>
         <v>0</v>
       </c>
-      <c r="CE30" s="22">
-        <f t="shared" ref="CE30" si="63">SUM(CE27:CE29)</f>
+      <c r="CN30" s="22">
+        <f t="shared" ref="CN30" si="62">SUM(CN27:CN29)</f>
         <v>0</v>
       </c>
-      <c r="CF30" s="22">
-        <f t="shared" ref="CF30" si="64">SUM(CF27:CF29)</f>
+      <c r="CO30" s="22">
+        <f t="shared" ref="CO30" si="63">SUM(CO27:CO29)</f>
         <v>0</v>
       </c>
-      <c r="CG30" s="22">
-        <f t="shared" ref="CG30" si="65">SUM(CG27:CG29)</f>
+      <c r="CP30" s="22">
+        <f t="shared" ref="CP30" si="64">SUM(CP27:CP29)</f>
         <v>0</v>
       </c>
-      <c r="CH30" s="22">
-        <f t="shared" ref="CH30" si="66">SUM(CH27:CH29)</f>
+      <c r="CQ30" s="22">
+        <f t="shared" ref="CQ30" si="65">SUM(CQ27:CQ29)</f>
         <v>0</v>
       </c>
-      <c r="CI30" s="22">
-        <f t="shared" ref="CI30" si="67">SUM(CI27:CI29)</f>
+      <c r="CR30" s="22">
+        <f t="shared" ref="CR30" si="66">SUM(CR27:CR29)</f>
         <v>0</v>
       </c>
-      <c r="CJ30" s="22">
-        <f t="shared" ref="CJ30" si="68">SUM(CJ27:CJ29)</f>
+      <c r="CS30" s="22">
+        <f t="shared" ref="CS30" si="67">SUM(CS27:CS29)</f>
         <v>0</v>
       </c>
-      <c r="CK30" s="22">
-        <f t="shared" ref="CK30" si="69">SUM(CK27:CK29)</f>
+      <c r="CT30" s="22">
+        <f t="shared" ref="CT30" si="68">SUM(CT27:CT29)</f>
         <v>0</v>
       </c>
-      <c r="CL30" s="22">
-        <f t="shared" ref="CL30" si="70">SUM(CL27:CL29)</f>
+      <c r="CU30" s="22">
+        <f t="shared" ref="CU30" si="69">SUM(CU27:CU29)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:90" s="21" customFormat="1">
+    <row r="31" spans="2:99" s="21" customFormat="1" ht="13">
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -5461,6 +5789,7 @@
       <c r="BI31" s="22"/>
       <c r="BJ31" s="22"/>
       <c r="BK31" s="22"/>
+      <c r="BL31" s="22"/>
       <c r="BM31" s="22"/>
       <c r="BN31" s="22"/>
       <c r="BO31" s="22"/>
@@ -5469,10 +5798,18 @@
       <c r="BR31" s="22"/>
       <c r="BS31" s="22"/>
       <c r="BT31" s="22"/>
-      <c r="BU31" s="22"/>
       <c r="BV31" s="22"/>
+      <c r="BW31" s="22"/>
+      <c r="BX31" s="22"/>
+      <c r="BY31" s="22"/>
+      <c r="BZ31" s="22"/>
+      <c r="CA31" s="22"/>
+      <c r="CB31" s="22"/>
+      <c r="CC31" s="22"/>
+      <c r="CD31" s="22"/>
+      <c r="CE31" s="22"/>
     </row>
-    <row r="32" spans="2:90" s="17" customFormat="1">
+    <row r="32" spans="2:99" s="17" customFormat="1">
       <c r="B32" s="20" t="s">
         <v>44</v>
       </c>
@@ -5541,24 +5878,33 @@
       <c r="BI32" s="18"/>
       <c r="BJ32" s="18"/>
       <c r="BK32" s="18"/>
+      <c r="BL32" s="18"/>
       <c r="BM32" s="18"/>
       <c r="BN32" s="18"/>
       <c r="BO32" s="18"/>
       <c r="BP32" s="18"/>
       <c r="BQ32" s="18"/>
-      <c r="BR32" s="18">
-        <f t="shared" si="34"/>
+      <c r="BR32" s="18"/>
+      <c r="BS32" s="18"/>
+      <c r="BT32" s="18"/>
+      <c r="BV32" s="18"/>
+      <c r="BW32" s="18"/>
+      <c r="BX32" s="18"/>
+      <c r="BY32" s="18"/>
+      <c r="BZ32" s="18"/>
+      <c r="CA32" s="18">
+        <f t="shared" si="33"/>
         <v>76.099999999999994</v>
       </c>
-      <c r="BS32" s="18">
+      <c r="CB32" s="18">
         <f>SUM(K32:N32)</f>
         <v>86.2</v>
       </c>
-      <c r="BT32" s="18"/>
-      <c r="BU32" s="18"/>
-      <c r="BV32" s="18"/>
+      <c r="CC32" s="18"/>
+      <c r="CD32" s="18"/>
+      <c r="CE32" s="18"/>
     </row>
-    <row r="33" spans="2:74" s="21" customFormat="1">
+    <row r="33" spans="2:83" s="21" customFormat="1" ht="13">
       <c r="B33" s="21" t="s">
         <v>27</v>
       </c>
@@ -5590,15 +5936,15 @@
         <v>2563.6999999999998</v>
       </c>
       <c r="L33" s="22">
-        <f t="shared" ref="L33:N33" si="71">SUM(L17:L32)</f>
+        <f t="shared" ref="L33:N33" si="70">SUM(L17:L32)</f>
         <v>2579.3849999999998</v>
       </c>
       <c r="M33" s="22">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>2523.42</v>
       </c>
       <c r="N33" s="22">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>2689.3100000000004</v>
       </c>
       <c r="O33" s="22"/>
@@ -5654,72 +6000,105 @@
         <v>4598.5</v>
       </c>
       <c r="AY33" s="22">
-        <f t="shared" ref="AY33:BD33" si="72">AY30+AY25+AY17</f>
+        <f t="shared" ref="AY33:BD33" si="71">AY30+AY25+AY17</f>
         <v>4630</v>
       </c>
       <c r="AZ33" s="22">
+        <f t="shared" si="71"/>
+        <v>4871</v>
+      </c>
+      <c r="BA33" s="22">
+        <f t="shared" si="71"/>
+        <v>4971</v>
+      </c>
+      <c r="BB33" s="22">
+        <f t="shared" si="71"/>
+        <v>5214</v>
+      </c>
+      <c r="BC33" s="22">
+        <f t="shared" si="71"/>
+        <v>5198.3</v>
+      </c>
+      <c r="BD33" s="22">
+        <f t="shared" si="71"/>
+        <v>5569</v>
+      </c>
+      <c r="BE33" s="22">
+        <f t="shared" ref="BE33:BR33" si="72">BE30+BE25+BE17</f>
+        <v>5805.6</v>
+      </c>
+      <c r="BF33" s="22">
         <f t="shared" si="72"/>
-        <v>4871</v>
-      </c>
-      <c r="BA33" s="22">
+        <v>5823.2000000000007</v>
+      </c>
+      <c r="BG33" s="22">
         <f t="shared" si="72"/>
-        <v>4971</v>
-      </c>
-      <c r="BB33" s="22">
+        <v>5741.2649999999994</v>
+      </c>
+      <c r="BH33" s="22">
         <f t="shared" si="72"/>
-        <v>5214</v>
-      </c>
-      <c r="BC33" s="22">
+        <v>5823.5</v>
+      </c>
+      <c r="BI33" s="22">
         <f t="shared" si="72"/>
-        <v>5198.3</v>
-      </c>
-      <c r="BD33" s="22">
+        <v>6087.18</v>
+      </c>
+      <c r="BJ33" s="22">
         <f t="shared" si="72"/>
-        <v>5569</v>
-      </c>
-      <c r="BE33" s="22">
-        <f t="shared" ref="BE33:BJ33" si="73">BE30+BE25+BE17</f>
-        <v>5805.6</v>
-      </c>
-      <c r="BF33" s="22">
-        <f t="shared" si="73"/>
-        <v>5823.2000000000007</v>
-      </c>
-      <c r="BG33" s="22">
-        <f t="shared" si="73"/>
-        <v>5741.2649999999994</v>
-      </c>
-      <c r="BH33" s="22">
-        <f t="shared" si="73"/>
-        <v>5823.5</v>
-      </c>
-      <c r="BI33" s="22">
-        <f t="shared" si="73"/>
-        <v>6087.18</v>
-      </c>
-      <c r="BJ33" s="22">
-        <f t="shared" si="73"/>
         <v>6147.63</v>
       </c>
-      <c r="BK33" s="22"/>
-      <c r="BM33" s="22"/>
-      <c r="BN33" s="22"/>
-      <c r="BO33" s="22"/>
-      <c r="BP33" s="22"/>
-      <c r="BQ33" s="22"/>
-      <c r="BR33" s="21">
-        <f>SUM(BR17:BR30)</f>
+      <c r="BK33" s="22">
+        <f t="shared" si="72"/>
+        <v>5119.8</v>
+      </c>
+      <c r="BL33" s="22">
+        <f t="shared" si="72"/>
+        <v>5352.2</v>
+      </c>
+      <c r="BM33" s="22">
+        <f t="shared" si="72"/>
+        <v>5266.1</v>
+      </c>
+      <c r="BN33" s="22">
+        <f t="shared" si="72"/>
+        <v>5417.7</v>
+      </c>
+      <c r="BO33" s="22">
+        <f t="shared" si="72"/>
+        <v>5280.1</v>
+      </c>
+      <c r="BP33" s="22">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="22">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BR33" s="22">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BS33" s="22"/>
+      <c r="BT33" s="22"/>
+      <c r="BV33" s="22"/>
+      <c r="BW33" s="22"/>
+      <c r="BX33" s="22"/>
+      <c r="BY33" s="22"/>
+      <c r="BZ33" s="22"/>
+      <c r="CA33" s="21">
+        <f>SUM(CA17:CA30)</f>
         <v>9291</v>
       </c>
-      <c r="BS33" s="21">
-        <f>SUM(BS17:BS32)</f>
+      <c r="CB33" s="21">
+        <f>SUM(CB17:CB32)</f>
         <v>10355.815000000001</v>
       </c>
-      <c r="BT33" s="22"/>
-      <c r="BU33" s="22"/>
-      <c r="BV33" s="22"/>
+      <c r="CC33" s="22"/>
+      <c r="CD33" s="22"/>
+      <c r="CE33" s="22"/>
     </row>
-    <row r="34" spans="2:74" s="17" customFormat="1">
+    <row r="34" spans="2:83" s="17" customFormat="1">
       <c r="B34" s="17" t="s">
         <v>47</v>
       </c>
@@ -5750,11 +6129,11 @@
         <v>644.84625000000005</v>
       </c>
       <c r="M34" s="18">
-        <f t="shared" ref="M34:N34" si="74">+M33-M35</f>
+        <f t="shared" ref="M34:N34" si="73">+M33-M35</f>
         <v>630.85500000000002</v>
       </c>
       <c r="N34" s="18">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>672.3275000000001</v>
       </c>
       <c r="O34" s="18"/>
@@ -5844,44 +6223,63 @@
         <v>2141</v>
       </c>
       <c r="BF34" s="18">
-        <f t="shared" ref="BF34:BJ34" si="75">+BF33-BF35</f>
+        <f t="shared" ref="BF34:BJ34" si="74">+BF33-BF35</f>
         <v>2154.5840000000003</v>
       </c>
       <c r="BG34" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>2124.2680499999997</v>
       </c>
       <c r="BH34" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>2154.6950000000002</v>
       </c>
       <c r="BI34" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>2252.2566000000002</v>
       </c>
       <c r="BJ34" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>2274.6230999999998</v>
       </c>
-      <c r="BK34" s="18"/>
-      <c r="BM34" s="18"/>
-      <c r="BN34" s="18"/>
-      <c r="BO34" s="18"/>
+      <c r="BK34" s="18">
+        <v>2110.6</v>
+      </c>
+      <c r="BL34" s="18">
+        <v>2119.1999999999998</v>
+      </c>
+      <c r="BM34" s="18">
+        <v>2122</v>
+      </c>
+      <c r="BN34" s="18">
+        <v>2319.3000000000002</v>
+      </c>
+      <c r="BO34" s="18">
+        <v>2135.5</v>
+      </c>
       <c r="BP34" s="18"/>
       <c r="BQ34" s="18"/>
-      <c r="BR34" s="18">
+      <c r="BR34" s="18"/>
+      <c r="BS34" s="18"/>
+      <c r="BT34" s="18"/>
+      <c r="BV34" s="18"/>
+      <c r="BW34" s="18"/>
+      <c r="BX34" s="18"/>
+      <c r="BY34" s="18"/>
+      <c r="BZ34" s="18"/>
+      <c r="CA34" s="18">
         <f>SUM(G34:J34)</f>
         <v>2385.4</v>
       </c>
-      <c r="BS34" s="18">
-        <f t="shared" ref="BS34:BS45" si="76">SUM(K34:N34)</f>
+      <c r="CB34" s="18">
+        <f t="shared" ref="CB34:CB45" si="75">SUM(K34:N34)</f>
         <v>2587.6287499999999</v>
       </c>
-      <c r="BT34" s="18"/>
-      <c r="BU34" s="18"/>
-      <c r="BV34" s="18"/>
+      <c r="CC34" s="18"/>
+      <c r="CD34" s="18"/>
+      <c r="CE34" s="18"/>
     </row>
-    <row r="35" spans="2:74" s="17" customFormat="1">
+    <row r="35" spans="2:83" s="17" customFormat="1">
       <c r="B35" s="17" t="s">
         <v>46</v>
       </c>
@@ -5917,11 +6315,11 @@
         <v>1934.5387499999997</v>
       </c>
       <c r="M35" s="18">
-        <f t="shared" ref="M35:N35" si="77">+M33*M50</f>
+        <f t="shared" ref="M35:N35" si="76">+M33*M50</f>
         <v>1892.5650000000001</v>
       </c>
       <c r="N35" s="18">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>2016.9825000000003</v>
       </c>
       <c r="O35" s="18"/>
@@ -5953,35 +6351,35 @@
       <c r="AO35" s="18"/>
       <c r="AP35" s="18"/>
       <c r="AQ35" s="18">
-        <f t="shared" ref="AQ35:AX35" si="78">AQ33-AQ34</f>
+        <f t="shared" ref="AQ35:AX35" si="77">AQ33-AQ34</f>
         <v>2405.8000000000002</v>
       </c>
       <c r="AR35" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>2560.6999999999998</v>
       </c>
       <c r="AS35" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>2619.7999999999997</v>
       </c>
       <c r="AT35" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>2747.3</v>
       </c>
       <c r="AU35" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>2772.8999999999996</v>
       </c>
       <c r="AV35" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>2566.0000000000005</v>
       </c>
       <c r="AW35" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>2719.4000000000005</v>
       </c>
       <c r="AX35" s="18">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>2851</v>
       </c>
       <c r="AY35" s="18">
@@ -6013,44 +6411,68 @@
         <v>3664.6000000000004</v>
       </c>
       <c r="BF35" s="18">
-        <f t="shared" ref="BF35:BJ35" si="79">+BF33*0.63</f>
+        <f t="shared" ref="BF35:BJ35" si="78">+BF33*0.63</f>
         <v>3668.6160000000004</v>
       </c>
       <c r="BG35" s="18">
+        <f t="shared" si="78"/>
+        <v>3616.9969499999997</v>
+      </c>
+      <c r="BH35" s="18">
+        <f t="shared" si="78"/>
+        <v>3668.8049999999998</v>
+      </c>
+      <c r="BI35" s="18">
+        <f t="shared" si="78"/>
+        <v>3834.9234000000001</v>
+      </c>
+      <c r="BJ35" s="18">
+        <f t="shared" si="78"/>
+        <v>3873.0069000000003</v>
+      </c>
+      <c r="BK35" s="18">
+        <f>+BK33-BK34</f>
+        <v>3009.2000000000003</v>
+      </c>
+      <c r="BL35" s="18">
+        <f t="shared" ref="BL35:BO35" si="79">+BL33-BL34</f>
+        <v>3233</v>
+      </c>
+      <c r="BM35" s="18">
         <f t="shared" si="79"/>
-        <v>3616.9969499999997</v>
-      </c>
-      <c r="BH35" s="18">
+        <v>3144.1000000000004</v>
+      </c>
+      <c r="BN35" s="18">
         <f t="shared" si="79"/>
-        <v>3668.8049999999998</v>
-      </c>
-      <c r="BI35" s="18">
+        <v>3098.3999999999996</v>
+      </c>
+      <c r="BO35" s="18">
         <f t="shared" si="79"/>
-        <v>3834.9234000000001</v>
-      </c>
-      <c r="BJ35" s="18">
-        <f t="shared" si="79"/>
-        <v>3873.0069000000003</v>
-      </c>
-      <c r="BK35" s="18"/>
-      <c r="BM35" s="18"/>
-      <c r="BN35" s="18"/>
-      <c r="BO35" s="18"/>
+        <v>3144.6000000000004</v>
+      </c>
       <c r="BP35" s="18"/>
       <c r="BQ35" s="18"/>
-      <c r="BR35" s="18">
-        <f>+BR33-BR34</f>
+      <c r="BR35" s="18"/>
+      <c r="BS35" s="18"/>
+      <c r="BT35" s="18"/>
+      <c r="BV35" s="18"/>
+      <c r="BW35" s="18"/>
+      <c r="BX35" s="18"/>
+      <c r="BY35" s="18"/>
+      <c r="BZ35" s="18"/>
+      <c r="CA35" s="18">
+        <f>+CA33-CA34</f>
         <v>6905.6</v>
       </c>
-      <c r="BS35" s="18">
-        <f>+BS33-BS34</f>
+      <c r="CB35" s="18">
+        <f>+CB33-CB34</f>
         <v>7768.1862500000007</v>
       </c>
-      <c r="BT35" s="18"/>
-      <c r="BU35" s="18"/>
-      <c r="BV35" s="18"/>
+      <c r="CC35" s="18"/>
+      <c r="CD35" s="18"/>
+      <c r="CE35" s="18"/>
     </row>
-    <row r="36" spans="2:74" s="17" customFormat="1">
+    <row r="36" spans="2:83" s="17" customFormat="1">
       <c r="B36" s="17" t="s">
         <v>45</v>
       </c>
@@ -6196,25 +6618,44 @@
         <f t="shared" si="80"/>
         <v>1149.2460000000003</v>
       </c>
-      <c r="BK36" s="18"/>
-      <c r="BM36" s="18"/>
-      <c r="BN36" s="18"/>
-      <c r="BO36" s="18"/>
+      <c r="BK36" s="18">
+        <v>1087.0999999999999</v>
+      </c>
+      <c r="BL36" s="18">
+        <v>1145.9000000000001</v>
+      </c>
+      <c r="BM36" s="18">
+        <v>1100.8</v>
+      </c>
+      <c r="BN36" s="18">
+        <v>1202.5999999999999</v>
+      </c>
+      <c r="BO36" s="18">
+        <v>1112.2</v>
+      </c>
       <c r="BP36" s="18"/>
       <c r="BQ36" s="18"/>
-      <c r="BR36" s="18">
-        <f t="shared" si="34"/>
+      <c r="BR36" s="18"/>
+      <c r="BS36" s="18"/>
+      <c r="BT36" s="18"/>
+      <c r="BV36" s="18"/>
+      <c r="BW36" s="18"/>
+      <c r="BX36" s="18"/>
+      <c r="BY36" s="18"/>
+      <c r="BZ36" s="18"/>
+      <c r="CA36" s="18">
+        <f t="shared" si="33"/>
         <v>2234.5</v>
       </c>
-      <c r="BS36" s="18">
-        <f t="shared" si="76"/>
+      <c r="CB36" s="18">
+        <f t="shared" si="75"/>
         <v>2457.9</v>
       </c>
-      <c r="BT36" s="18"/>
-      <c r="BU36" s="18"/>
-      <c r="BV36" s="18"/>
+      <c r="CC36" s="18"/>
+      <c r="CD36" s="18"/>
+      <c r="CE36" s="18"/>
     </row>
-    <row r="37" spans="2:74" s="17" customFormat="1">
+    <row r="37" spans="2:83" s="17" customFormat="1">
       <c r="B37" s="17" t="s">
         <v>44</v>
       </c>
@@ -6301,24 +6742,33 @@
       <c r="BI37" s="18"/>
       <c r="BJ37" s="18"/>
       <c r="BK37" s="18"/>
+      <c r="BL37" s="18"/>
       <c r="BM37" s="18"/>
       <c r="BN37" s="18"/>
       <c r="BO37" s="18"/>
       <c r="BP37" s="18"/>
       <c r="BQ37" s="18"/>
-      <c r="BR37" s="18">
-        <f t="shared" si="34"/>
+      <c r="BR37" s="18"/>
+      <c r="BS37" s="18"/>
+      <c r="BT37" s="18"/>
+      <c r="BV37" s="18"/>
+      <c r="BW37" s="18"/>
+      <c r="BX37" s="18"/>
+      <c r="BY37" s="18"/>
+      <c r="BZ37" s="18"/>
+      <c r="CA37" s="18">
+        <f t="shared" si="33"/>
         <v>477</v>
       </c>
-      <c r="BS37" s="18">
-        <f t="shared" si="76"/>
+      <c r="CB37" s="18">
+        <f t="shared" si="75"/>
         <v>466.09999999999997</v>
       </c>
-      <c r="BT37" s="18"/>
-      <c r="BU37" s="18"/>
-      <c r="BV37" s="18"/>
+      <c r="CC37" s="18"/>
+      <c r="CD37" s="18"/>
+      <c r="CE37" s="18"/>
     </row>
-    <row r="38" spans="2:74" s="17" customFormat="1">
+    <row r="38" spans="2:83" s="17" customFormat="1">
       <c r="B38" s="17" t="s">
         <v>43</v>
       </c>
@@ -6446,25 +6896,44 @@
         <f t="shared" ref="BJ38" si="86">+BF38*1.05</f>
         <v>386.20575000000008</v>
       </c>
-      <c r="BK38" s="18"/>
-      <c r="BM38" s="18"/>
-      <c r="BN38" s="18"/>
-      <c r="BO38" s="18"/>
+      <c r="BK38" s="18">
+        <v>331.7</v>
+      </c>
+      <c r="BL38" s="18">
+        <v>336.1</v>
+      </c>
+      <c r="BM38" s="18">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="BN38" s="18">
+        <v>392.6</v>
+      </c>
+      <c r="BO38" s="18">
+        <v>355</v>
+      </c>
       <c r="BP38" s="18"/>
       <c r="BQ38" s="18"/>
-      <c r="BR38" s="18">
-        <f t="shared" si="34"/>
+      <c r="BR38" s="18"/>
+      <c r="BS38" s="18"/>
+      <c r="BT38" s="18"/>
+      <c r="BV38" s="18"/>
+      <c r="BW38" s="18"/>
+      <c r="BX38" s="18"/>
+      <c r="BY38" s="18"/>
+      <c r="BZ38" s="18"/>
+      <c r="CA38" s="18">
+        <f t="shared" si="33"/>
         <v>478.20000000000005</v>
       </c>
-      <c r="BS38" s="18">
-        <f t="shared" si="76"/>
+      <c r="CB38" s="18">
+        <f t="shared" si="75"/>
         <v>514.9</v>
       </c>
-      <c r="BT38" s="18"/>
-      <c r="BU38" s="18"/>
-      <c r="BV38" s="18"/>
+      <c r="CC38" s="18"/>
+      <c r="CD38" s="18"/>
+      <c r="CE38" s="18"/>
     </row>
-    <row r="39" spans="2:74" s="17" customFormat="1">
+    <row r="39" spans="2:83" s="17" customFormat="1">
       <c r="B39" s="17" t="s">
         <v>42</v>
       </c>
@@ -6551,24 +7020,33 @@
       <c r="BI39" s="18"/>
       <c r="BJ39" s="18"/>
       <c r="BK39" s="18"/>
+      <c r="BL39" s="18"/>
       <c r="BM39" s="18"/>
       <c r="BN39" s="18"/>
       <c r="BO39" s="18"/>
       <c r="BP39" s="18"/>
       <c r="BQ39" s="18"/>
-      <c r="BR39" s="18">
-        <f t="shared" si="34"/>
+      <c r="BR39" s="18"/>
+      <c r="BS39" s="18"/>
+      <c r="BT39" s="18"/>
+      <c r="BV39" s="18"/>
+      <c r="BW39" s="18"/>
+      <c r="BX39" s="18"/>
+      <c r="BY39" s="18"/>
+      <c r="BZ39" s="18"/>
+      <c r="CA39" s="18">
+        <f t="shared" si="33"/>
         <v>390.4</v>
       </c>
-      <c r="BS39" s="18">
-        <f t="shared" si="76"/>
+      <c r="CB39" s="18">
+        <f t="shared" si="75"/>
         <v>352.59999999999997</v>
       </c>
-      <c r="BT39" s="18"/>
-      <c r="BU39" s="18"/>
-      <c r="BV39" s="18"/>
+      <c r="CC39" s="18"/>
+      <c r="CD39" s="18"/>
+      <c r="CE39" s="18"/>
     </row>
-    <row r="40" spans="2:74" s="17" customFormat="1">
+    <row r="40" spans="2:83" s="17" customFormat="1">
       <c r="B40" s="17" t="s">
         <v>41</v>
       </c>
@@ -6696,25 +7174,44 @@
         <f t="shared" ref="BJ40" si="93">+BF40*1.05</f>
         <v>652.56975</v>
       </c>
-      <c r="BK40" s="18"/>
-      <c r="BM40" s="18"/>
-      <c r="BN40" s="18"/>
-      <c r="BO40" s="18"/>
+      <c r="BK40" s="18">
+        <v>580.6</v>
+      </c>
+      <c r="BL40" s="18">
+        <v>647.4</v>
+      </c>
+      <c r="BM40" s="18">
+        <v>523.70000000000005</v>
+      </c>
+      <c r="BN40" s="18">
+        <v>527.5</v>
+      </c>
+      <c r="BO40" s="18">
+        <v>551.4</v>
+      </c>
       <c r="BP40" s="18"/>
       <c r="BQ40" s="18"/>
-      <c r="BR40" s="18">
-        <f t="shared" si="34"/>
+      <c r="BR40" s="18"/>
+      <c r="BS40" s="18"/>
+      <c r="BT40" s="18"/>
+      <c r="BV40" s="18"/>
+      <c r="BW40" s="18"/>
+      <c r="BX40" s="18"/>
+      <c r="BY40" s="18"/>
+      <c r="BZ40" s="18"/>
+      <c r="CA40" s="18">
+        <f t="shared" si="33"/>
         <v>1397.1</v>
       </c>
-      <c r="BS40" s="18">
-        <f t="shared" si="76"/>
+      <c r="CB40" s="18">
+        <f t="shared" si="75"/>
         <v>1519.5</v>
       </c>
-      <c r="BT40" s="18"/>
-      <c r="BU40" s="18"/>
-      <c r="BV40" s="18"/>
+      <c r="CC40" s="18"/>
+      <c r="CD40" s="18"/>
+      <c r="CE40" s="18"/>
     </row>
-    <row r="41" spans="2:74" s="17" customFormat="1">
+    <row r="41" spans="2:83" s="17" customFormat="1">
       <c r="B41" s="17" t="s">
         <v>40</v>
       </c>
@@ -6862,28 +7359,52 @@
         <v>2079.63</v>
       </c>
       <c r="BJ41" s="18">
-        <f t="shared" ref="BJ41" si="102">SUM(BJ36:BJ40)</f>
+        <f t="shared" ref="BJ41:BO41" si="102">SUM(BJ36:BJ40)</f>
         <v>2188.0215000000003</v>
       </c>
-      <c r="BK41" s="18"/>
-      <c r="BM41" s="18"/>
-      <c r="BN41" s="18"/>
-      <c r="BO41" s="18"/>
+      <c r="BK41" s="18">
+        <f t="shared" si="102"/>
+        <v>1999.4</v>
+      </c>
+      <c r="BL41" s="18">
+        <f t="shared" si="102"/>
+        <v>2129.4</v>
+      </c>
+      <c r="BM41" s="18">
+        <f t="shared" si="102"/>
+        <v>1933.6000000000001</v>
+      </c>
+      <c r="BN41" s="18">
+        <f t="shared" si="102"/>
+        <v>2122.6999999999998</v>
+      </c>
+      <c r="BO41" s="18">
+        <f t="shared" si="102"/>
+        <v>2018.6</v>
+      </c>
       <c r="BP41" s="18"/>
       <c r="BQ41" s="18"/>
-      <c r="BR41" s="18">
-        <f>SUM(BR36:BR40)</f>
+      <c r="BR41" s="18"/>
+      <c r="BS41" s="18"/>
+      <c r="BT41" s="18"/>
+      <c r="BV41" s="18"/>
+      <c r="BW41" s="18"/>
+      <c r="BX41" s="18"/>
+      <c r="BY41" s="18"/>
+      <c r="BZ41" s="18"/>
+      <c r="CA41" s="18">
+        <f>SUM(CA36:CA40)</f>
         <v>4977.2</v>
       </c>
-      <c r="BS41" s="18">
-        <f>SUM(BS36:BS40)</f>
+      <c r="CB41" s="18">
+        <f>SUM(CB36:CB40)</f>
         <v>5311</v>
       </c>
-      <c r="BT41" s="18"/>
-      <c r="BU41" s="18"/>
-      <c r="BV41" s="18"/>
+      <c r="CC41" s="18"/>
+      <c r="CD41" s="18"/>
+      <c r="CE41" s="18"/>
     </row>
-    <row r="42" spans="2:74" s="17" customFormat="1">
+    <row r="42" spans="2:83" s="17" customFormat="1">
       <c r="B42" s="17" t="s">
         <v>39</v>
       </c>
@@ -7031,28 +7552,52 @@
         <v>1755.2934</v>
       </c>
       <c r="BJ42" s="18">
-        <f t="shared" ref="BJ42" si="111">BJ35-BJ41</f>
+        <f t="shared" ref="BJ42:BO42" si="111">BJ35-BJ41</f>
         <v>1684.9854</v>
       </c>
-      <c r="BK42" s="18"/>
-      <c r="BM42" s="18"/>
-      <c r="BN42" s="18"/>
-      <c r="BO42" s="18"/>
+      <c r="BK42" s="18">
+        <f t="shared" si="111"/>
+        <v>1009.8000000000002</v>
+      </c>
+      <c r="BL42" s="18">
+        <f t="shared" si="111"/>
+        <v>1103.5999999999999</v>
+      </c>
+      <c r="BM42" s="18">
+        <f t="shared" si="111"/>
+        <v>1210.5000000000002</v>
+      </c>
+      <c r="BN42" s="18">
+        <f t="shared" si="111"/>
+        <v>975.69999999999982</v>
+      </c>
+      <c r="BO42" s="18">
+        <f t="shared" si="111"/>
+        <v>1126.0000000000005</v>
+      </c>
       <c r="BP42" s="18"/>
       <c r="BQ42" s="18"/>
-      <c r="BR42" s="18">
-        <f>BR35-BR41</f>
+      <c r="BR42" s="18"/>
+      <c r="BS42" s="18"/>
+      <c r="BT42" s="18"/>
+      <c r="BV42" s="18"/>
+      <c r="BW42" s="18"/>
+      <c r="BX42" s="18"/>
+      <c r="BY42" s="18"/>
+      <c r="BZ42" s="18"/>
+      <c r="CA42" s="18">
+        <f>CA35-CA41</f>
         <v>1928.4000000000005</v>
       </c>
-      <c r="BS42" s="18">
-        <f>BS35-BS41</f>
+      <c r="CB42" s="18">
+        <f>CB35-CB41</f>
         <v>2457.1862500000007</v>
       </c>
-      <c r="BT42" s="18"/>
-      <c r="BU42" s="18"/>
-      <c r="BV42" s="18"/>
+      <c r="CC42" s="18"/>
+      <c r="CD42" s="18"/>
+      <c r="CE42" s="18"/>
     </row>
-    <row r="43" spans="2:74" s="17" customFormat="1">
+    <row r="43" spans="2:83" s="17" customFormat="1">
       <c r="B43" s="17" t="s">
         <v>48</v>
       </c>
@@ -7180,25 +7725,44 @@
         <f t="shared" si="112"/>
         <v>-46.597656249999993</v>
       </c>
-      <c r="BK43" s="18"/>
-      <c r="BM43" s="18"/>
-      <c r="BN43" s="18"/>
-      <c r="BO43" s="18"/>
+      <c r="BK43" s="18">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="BL43" s="18">
+        <v>-7.2</v>
+      </c>
+      <c r="BM43" s="18">
+        <v>-54.1</v>
+      </c>
+      <c r="BN43" s="18">
+        <v>-15</v>
+      </c>
+      <c r="BO43" s="18">
+        <v>-49.8</v>
+      </c>
       <c r="BP43" s="18"/>
       <c r="BQ43" s="18"/>
-      <c r="BR43" s="18">
-        <f t="shared" si="34"/>
+      <c r="BR43" s="18"/>
+      <c r="BS43" s="18"/>
+      <c r="BT43" s="18"/>
+      <c r="BV43" s="18"/>
+      <c r="BW43" s="18"/>
+      <c r="BX43" s="18"/>
+      <c r="BY43" s="18"/>
+      <c r="BZ43" s="18"/>
+      <c r="CA43" s="18">
+        <f t="shared" si="33"/>
         <v>251.6</v>
       </c>
-      <c r="BS43" s="18">
-        <f t="shared" si="76"/>
+      <c r="CB43" s="18">
+        <f t="shared" si="75"/>
         <v>271.3</v>
       </c>
-      <c r="BT43" s="18"/>
-      <c r="BU43" s="18"/>
-      <c r="BV43" s="18"/>
+      <c r="CC43" s="18"/>
+      <c r="CD43" s="18"/>
+      <c r="CE43" s="18"/>
     </row>
-    <row r="44" spans="2:74" s="17" customFormat="1">
+    <row r="44" spans="2:83" s="17" customFormat="1">
       <c r="B44" s="17" t="s">
         <v>49</v>
       </c>
@@ -7346,28 +7910,52 @@
         <v>1708.6152750000001</v>
       </c>
       <c r="BJ44" s="18">
-        <f t="shared" ref="BJ44" si="121">BJ42+BJ43</f>
+        <f t="shared" ref="BJ44:BO44" si="121">BJ42+BJ43</f>
         <v>1638.38774375</v>
       </c>
-      <c r="BK44" s="18"/>
-      <c r="BM44" s="18"/>
-      <c r="BN44" s="18"/>
-      <c r="BO44" s="18"/>
+      <c r="BK44" s="18">
+        <f t="shared" si="121"/>
+        <v>977.60000000000014</v>
+      </c>
+      <c r="BL44" s="18">
+        <f t="shared" si="121"/>
+        <v>1096.3999999999999</v>
+      </c>
+      <c r="BM44" s="18">
+        <f t="shared" si="121"/>
+        <v>1156.4000000000003</v>
+      </c>
+      <c r="BN44" s="18">
+        <f t="shared" si="121"/>
+        <v>960.69999999999982</v>
+      </c>
+      <c r="BO44" s="18">
+        <f t="shared" si="121"/>
+        <v>1076.2000000000005</v>
+      </c>
       <c r="BP44" s="18"/>
       <c r="BQ44" s="18"/>
-      <c r="BR44" s="18">
-        <f>+BR42-BR43</f>
+      <c r="BR44" s="18"/>
+      <c r="BS44" s="18"/>
+      <c r="BT44" s="18"/>
+      <c r="BV44" s="18"/>
+      <c r="BW44" s="18"/>
+      <c r="BX44" s="18"/>
+      <c r="BY44" s="18"/>
+      <c r="BZ44" s="18"/>
+      <c r="CA44" s="18">
+        <f>+CA42-CA43</f>
         <v>1676.8000000000006</v>
       </c>
-      <c r="BS44" s="18">
-        <f>+BS42-BS43</f>
+      <c r="CB44" s="18">
+        <f>+CB42-CB43</f>
         <v>2185.8862500000005</v>
       </c>
-      <c r="BT44" s="18"/>
-      <c r="BU44" s="18"/>
-      <c r="BV44" s="18"/>
+      <c r="CC44" s="18"/>
+      <c r="CD44" s="18"/>
+      <c r="CE44" s="18"/>
     </row>
-    <row r="45" spans="2:74" s="17" customFormat="1">
+    <row r="45" spans="2:83" s="17" customFormat="1">
       <c r="B45" s="17" t="s">
         <v>50</v>
       </c>
@@ -7501,25 +8089,44 @@
         <f t="shared" si="122"/>
         <v>245.75816156249999</v>
       </c>
-      <c r="BK45" s="18"/>
-      <c r="BM45" s="18"/>
-      <c r="BN45" s="18"/>
-      <c r="BO45" s="18"/>
+      <c r="BK45" s="18">
+        <v>199.6</v>
+      </c>
+      <c r="BL45" s="18">
+        <v>179.8</v>
+      </c>
+      <c r="BM45" s="18">
+        <v>231.3</v>
+      </c>
+      <c r="BN45" s="18">
+        <v>139.9</v>
+      </c>
+      <c r="BO45" s="18">
+        <v>217.9</v>
+      </c>
       <c r="BP45" s="18"/>
       <c r="BQ45" s="18"/>
-      <c r="BR45" s="18">
-        <f t="shared" si="34"/>
+      <c r="BR45" s="18"/>
+      <c r="BS45" s="18"/>
+      <c r="BT45" s="18"/>
+      <c r="BV45" s="18"/>
+      <c r="BW45" s="18"/>
+      <c r="BX45" s="18"/>
+      <c r="BY45" s="18"/>
+      <c r="BZ45" s="18"/>
+      <c r="CA45" s="18">
+        <f t="shared" si="33"/>
         <v>219.60000000000002</v>
       </c>
-      <c r="BS45" s="18">
-        <f t="shared" si="76"/>
+      <c r="CB45" s="18">
+        <f t="shared" si="75"/>
         <v>480.4</v>
       </c>
-      <c r="BT45" s="18"/>
-      <c r="BU45" s="18"/>
-      <c r="BV45" s="18"/>
+      <c r="CC45" s="18"/>
+      <c r="CD45" s="18"/>
+      <c r="CE45" s="18"/>
     </row>
-    <row r="46" spans="2:74" s="17" customFormat="1">
+    <row r="46" spans="2:83" s="17" customFormat="1">
       <c r="B46" s="17" t="s">
         <v>51</v>
       </c>
@@ -7667,28 +8274,52 @@
         <v>1452.32298375</v>
       </c>
       <c r="BJ46" s="18">
-        <f t="shared" ref="BJ46" si="131">BJ44-BJ45</f>
+        <f t="shared" ref="BJ46:BO46" si="131">BJ44-BJ45</f>
         <v>1392.6295821875001</v>
       </c>
-      <c r="BK46" s="18"/>
-      <c r="BM46" s="18"/>
-      <c r="BN46" s="18"/>
-      <c r="BO46" s="18"/>
+      <c r="BK46" s="18">
+        <f t="shared" si="131"/>
+        <v>778.00000000000011</v>
+      </c>
+      <c r="BL46" s="18">
+        <f t="shared" si="131"/>
+        <v>916.59999999999991</v>
+      </c>
+      <c r="BM46" s="18">
+        <f t="shared" si="131"/>
+        <v>925.10000000000036</v>
+      </c>
+      <c r="BN46" s="18">
+        <f t="shared" si="131"/>
+        <v>820.79999999999984</v>
+      </c>
+      <c r="BO46" s="18">
+        <f t="shared" si="131"/>
+        <v>858.30000000000052</v>
+      </c>
       <c r="BP46" s="18"/>
       <c r="BQ46" s="18"/>
-      <c r="BR46" s="18">
-        <f>+BR44-BR45</f>
+      <c r="BR46" s="18"/>
+      <c r="BS46" s="18"/>
+      <c r="BT46" s="18"/>
+      <c r="BV46" s="18"/>
+      <c r="BW46" s="18"/>
+      <c r="BX46" s="18"/>
+      <c r="BY46" s="18"/>
+      <c r="BZ46" s="18"/>
+      <c r="CA46" s="18">
+        <f>+CA44-CA45</f>
         <v>1457.2000000000007</v>
       </c>
-      <c r="BS46" s="18">
-        <f>+BS44-BS45</f>
+      <c r="CB46" s="18">
+        <f>+CB44-CB45</f>
         <v>1705.4862500000004</v>
       </c>
-      <c r="BT46" s="18"/>
-      <c r="BU46" s="18"/>
-      <c r="BV46" s="18"/>
+      <c r="CC46" s="18"/>
+      <c r="CD46" s="18"/>
+      <c r="CE46" s="18"/>
     </row>
-    <row r="47" spans="2:74" s="17" customFormat="1">
+    <row r="47" spans="2:83" s="17" customFormat="1">
       <c r="B47" s="17" t="s">
         <v>151</v>
       </c>
@@ -7769,7 +8400,7 @@
         <v>2.2067617295308191</v>
       </c>
       <c r="AZ47" s="31">
-        <f t="shared" ref="AZ47:BJ47" si="133">+AZ46/AZ48</f>
+        <f t="shared" ref="AZ47:BO47" si="133">+AZ46/AZ48</f>
         <v>2.3516559337626495</v>
       </c>
       <c r="BA47" s="31">
@@ -7812,19 +8443,43 @@
         <f t="shared" si="133"/>
         <v>3.2029199222343609</v>
       </c>
-      <c r="BK47" s="18"/>
-      <c r="BM47" s="18"/>
-      <c r="BN47" s="18"/>
-      <c r="BO47" s="18"/>
-      <c r="BP47" s="18"/>
-      <c r="BQ47" s="18"/>
-      <c r="BR47" s="18"/>
-      <c r="BS47" s="18"/>
+      <c r="BK47" s="31">
+        <f t="shared" si="133"/>
+        <v>1.7893284268629257</v>
+      </c>
+      <c r="BL47" s="31">
+        <f t="shared" si="133"/>
+        <v>2.1080956761729528</v>
+      </c>
+      <c r="BM47" s="31">
+        <f t="shared" si="133"/>
+        <v>2.1276448942042325</v>
+      </c>
+      <c r="BN47" s="31">
+        <f t="shared" si="133"/>
+        <v>1.8877644894204229</v>
+      </c>
+      <c r="BO47" s="31">
+        <f t="shared" si="133"/>
+        <v>1.9740110395584187</v>
+      </c>
+      <c r="BP47" s="31"/>
+      <c r="BQ47" s="31"/>
+      <c r="BR47" s="31"/>
+      <c r="BS47" s="31"/>
       <c r="BT47" s="18"/>
-      <c r="BU47" s="18"/>
       <c r="BV47" s="18"/>
+      <c r="BW47" s="18"/>
+      <c r="BX47" s="18"/>
+      <c r="BY47" s="18"/>
+      <c r="BZ47" s="18"/>
+      <c r="CA47" s="18"/>
+      <c r="CB47" s="18"/>
+      <c r="CC47" s="18"/>
+      <c r="CD47" s="18"/>
+      <c r="CE47" s="18"/>
     </row>
-    <row r="48" spans="2:74" s="17" customFormat="1">
+    <row r="48" spans="2:83" s="17" customFormat="1">
       <c r="B48" s="17" t="s">
         <v>7</v>
       </c>
@@ -7928,19 +8583,38 @@
       <c r="BJ48" s="18">
         <v>434.8</v>
       </c>
-      <c r="BK48" s="18"/>
-      <c r="BM48" s="18"/>
-      <c r="BN48" s="18"/>
-      <c r="BO48" s="18"/>
+      <c r="BK48" s="18">
+        <v>434.8</v>
+      </c>
+      <c r="BL48" s="18">
+        <v>434.8</v>
+      </c>
+      <c r="BM48" s="18">
+        <v>434.8</v>
+      </c>
+      <c r="BN48" s="18">
+        <v>434.8</v>
+      </c>
+      <c r="BO48" s="18">
+        <v>434.8</v>
+      </c>
       <c r="BP48" s="18"/>
       <c r="BQ48" s="18"/>
       <c r="BR48" s="18"/>
       <c r="BS48" s="18"/>
       <c r="BT48" s="18"/>
-      <c r="BU48" s="18"/>
       <c r="BV48" s="18"/>
+      <c r="BW48" s="18"/>
+      <c r="BX48" s="18"/>
+      <c r="BY48" s="18"/>
+      <c r="BZ48" s="18"/>
+      <c r="CA48" s="18"/>
+      <c r="CB48" s="18"/>
+      <c r="CC48" s="18"/>
+      <c r="CD48" s="18"/>
+      <c r="CE48" s="18"/>
     </row>
-    <row r="50" spans="2:74">
+    <row r="50" spans="2:83">
       <c r="B50" s="17" t="s">
         <v>81</v>
       </c>
@@ -8086,16 +8760,25 @@
         <v>0.63</v>
       </c>
       <c r="BK50" s="24"/>
-      <c r="BR50" s="24">
-        <f>BR35/BR33</f>
+      <c r="BL50" s="24"/>
+      <c r="BM50" s="24"/>
+      <c r="BN50" s="24"/>
+      <c r="BO50" s="24"/>
+      <c r="BP50" s="24"/>
+      <c r="BQ50" s="24"/>
+      <c r="BR50" s="24"/>
+      <c r="BS50" s="24"/>
+      <c r="BT50" s="24"/>
+      <c r="CA50" s="24">
+        <f>CA35/CA33</f>
         <v>0.74325691529437099</v>
       </c>
-      <c r="BS50" s="24">
-        <f>BS35/BS33</f>
+      <c r="CB50" s="24">
+        <f>CB35/CB33</f>
         <v>0.75012794743822675</v>
       </c>
     </row>
-    <row r="51" spans="2:74" s="34" customFormat="1">
+    <row r="51" spans="2:83" s="34" customFormat="1" ht="13">
       <c r="B51" s="21" t="s">
         <v>86</v>
       </c>
@@ -8220,21 +8903,30 @@
         <v>5.5713353482621075E-2</v>
       </c>
       <c r="BK51" s="33"/>
-      <c r="BM51" s="32"/>
-      <c r="BN51" s="32"/>
-      <c r="BO51" s="32"/>
-      <c r="BP51" s="32"/>
-      <c r="BQ51" s="32"/>
+      <c r="BL51" s="33"/>
+      <c r="BM51" s="33"/>
+      <c r="BN51" s="33"/>
+      <c r="BO51" s="33"/>
+      <c r="BP51" s="33"/>
+      <c r="BQ51" s="33"/>
       <c r="BR51" s="33"/>
-      <c r="BS51" s="33">
-        <f>BS33/BR33-1</f>
+      <c r="BS51" s="33"/>
+      <c r="BT51" s="33"/>
+      <c r="BV51" s="32"/>
+      <c r="BW51" s="32"/>
+      <c r="BX51" s="32"/>
+      <c r="BY51" s="32"/>
+      <c r="BZ51" s="32"/>
+      <c r="CA51" s="33"/>
+      <c r="CB51" s="33">
+        <f>CB33/CA33-1</f>
         <v>0.11460714670110872</v>
       </c>
-      <c r="BT51" s="32"/>
-      <c r="BU51" s="32"/>
-      <c r="BV51" s="32"/>
+      <c r="CC51" s="32"/>
+      <c r="CD51" s="32"/>
+      <c r="CE51" s="32"/>
     </row>
-    <row r="52" spans="2:74">
+    <row r="52" spans="2:83">
       <c r="B52" s="20" t="s">
         <v>82</v>
       </c>
@@ -8284,9 +8976,18 @@
         <f>+BJ17/BF17-1</f>
         <v>-8.4600320939973717E-3</v>
       </c>
+      <c r="BK52" s="24"/>
+      <c r="BL52" s="24"/>
+      <c r="BM52" s="24"/>
+      <c r="BN52" s="24"/>
+      <c r="BO52" s="24"/>
+      <c r="BP52" s="24"/>
+      <c r="BQ52" s="24"/>
       <c r="BR52" s="24"/>
+      <c r="BS52" s="24"/>
+      <c r="CA52" s="24"/>
     </row>
-    <row r="53" spans="2:74">
+    <row r="53" spans="2:83">
       <c r="B53" s="20" t="s">
         <v>83</v>
       </c>
@@ -8307,9 +9008,18 @@
       <c r="BH53" s="24"/>
       <c r="BI53" s="24"/>
       <c r="BJ53" s="24"/>
+      <c r="BK53" s="24"/>
+      <c r="BL53" s="24"/>
+      <c r="BM53" s="24"/>
+      <c r="BN53" s="24"/>
+      <c r="BO53" s="24"/>
+      <c r="BP53" s="24"/>
+      <c r="BQ53" s="24"/>
       <c r="BR53" s="24"/>
+      <c r="BS53" s="24"/>
+      <c r="CA53" s="24"/>
     </row>
-    <row r="54" spans="2:74">
+    <row r="54" spans="2:83">
       <c r="B54" s="20" t="s">
         <v>84</v>
       </c>
@@ -8354,9 +9064,18 @@
         <f t="shared" si="143"/>
         <v>2.3519015222835948E-2</v>
       </c>
+      <c r="BK54" s="24"/>
+      <c r="BL54" s="24"/>
+      <c r="BM54" s="24"/>
+      <c r="BN54" s="24"/>
+      <c r="BO54" s="24"/>
+      <c r="BP54" s="24"/>
+      <c r="BQ54" s="24"/>
       <c r="BR54" s="24"/>
+      <c r="BS54" s="24"/>
+      <c r="CA54" s="24"/>
     </row>
-    <row r="55" spans="2:74">
+    <row r="55" spans="2:83">
       <c r="B55" s="20" t="s">
         <v>85</v>
       </c>
@@ -8401,9 +9120,18 @@
         <f t="shared" si="144"/>
         <v>0.23400000000000021</v>
       </c>
+      <c r="BK55" s="24"/>
+      <c r="BL55" s="24"/>
+      <c r="BM55" s="24"/>
+      <c r="BN55" s="24"/>
+      <c r="BO55" s="24"/>
+      <c r="BP55" s="24"/>
+      <c r="BQ55" s="24"/>
       <c r="BR55" s="24"/>
+      <c r="BS55" s="24"/>
+      <c r="CA55" s="24"/>
     </row>
-    <row r="57" spans="2:74" s="17" customFormat="1">
+    <row r="57" spans="2:83" s="17" customFormat="1">
       <c r="B57" s="17" t="s">
         <v>52</v>
       </c>
@@ -8474,18 +9202,30 @@
       <c r="BI57" s="18"/>
       <c r="BJ57" s="18"/>
       <c r="BK57" s="18"/>
+      <c r="BL57" s="18"/>
       <c r="BM57" s="18"/>
       <c r="BN57" s="18"/>
-      <c r="BO57" s="18"/>
+      <c r="BO57" s="18">
+        <f>1004.7+615+1044.8</f>
+        <v>2664.5</v>
+      </c>
       <c r="BP57" s="18"/>
       <c r="BQ57" s="18"/>
       <c r="BR57" s="18"/>
       <c r="BS57" s="18"/>
       <c r="BT57" s="18"/>
-      <c r="BU57" s="18"/>
       <c r="BV57" s="18"/>
+      <c r="BW57" s="18"/>
+      <c r="BX57" s="18"/>
+      <c r="BY57" s="18"/>
+      <c r="BZ57" s="18"/>
+      <c r="CA57" s="18"/>
+      <c r="CB57" s="18"/>
+      <c r="CC57" s="18"/>
+      <c r="CD57" s="18"/>
+      <c r="CE57" s="18"/>
     </row>
-    <row r="58" spans="2:74" s="17" customFormat="1">
+    <row r="58" spans="2:83" s="17" customFormat="1">
       <c r="B58" s="17" t="s">
         <v>53</v>
       </c>
@@ -8554,18 +9294,29 @@
       <c r="BI58" s="18"/>
       <c r="BJ58" s="18"/>
       <c r="BK58" s="18"/>
+      <c r="BL58" s="18"/>
       <c r="BM58" s="18"/>
       <c r="BN58" s="18"/>
-      <c r="BO58" s="18"/>
+      <c r="BO58" s="18">
+        <v>4339</v>
+      </c>
       <c r="BP58" s="18"/>
       <c r="BQ58" s="18"/>
       <c r="BR58" s="18"/>
       <c r="BS58" s="18"/>
       <c r="BT58" s="18"/>
-      <c r="BU58" s="18"/>
       <c r="BV58" s="18"/>
+      <c r="BW58" s="18"/>
+      <c r="BX58" s="18"/>
+      <c r="BY58" s="18"/>
+      <c r="BZ58" s="18"/>
+      <c r="CA58" s="18"/>
+      <c r="CB58" s="18"/>
+      <c r="CC58" s="18"/>
+      <c r="CD58" s="18"/>
+      <c r="CE58" s="18"/>
     </row>
-    <row r="59" spans="2:74" s="17" customFormat="1">
+    <row r="59" spans="2:83" s="17" customFormat="1">
       <c r="B59" s="17" t="s">
         <v>54</v>
       </c>
@@ -8634,18 +9385,29 @@
       <c r="BI59" s="18"/>
       <c r="BJ59" s="18"/>
       <c r="BK59" s="18"/>
+      <c r="BL59" s="18"/>
       <c r="BM59" s="18"/>
       <c r="BN59" s="18"/>
-      <c r="BO59" s="18"/>
+      <c r="BO59" s="18">
+        <v>4513.2</v>
+      </c>
       <c r="BP59" s="18"/>
       <c r="BQ59" s="18"/>
       <c r="BR59" s="18"/>
       <c r="BS59" s="18"/>
       <c r="BT59" s="18"/>
-      <c r="BU59" s="18"/>
       <c r="BV59" s="18"/>
+      <c r="BW59" s="18"/>
+      <c r="BX59" s="18"/>
+      <c r="BY59" s="18"/>
+      <c r="BZ59" s="18"/>
+      <c r="CA59" s="18"/>
+      <c r="CB59" s="18"/>
+      <c r="CC59" s="18"/>
+      <c r="CD59" s="18"/>
+      <c r="CE59" s="18"/>
     </row>
-    <row r="60" spans="2:74" s="17" customFormat="1">
+    <row r="60" spans="2:83" s="17" customFormat="1">
       <c r="B60" s="17" t="s">
         <v>55</v>
       </c>
@@ -8714,18 +9476,30 @@
       <c r="BI60" s="18"/>
       <c r="BJ60" s="18"/>
       <c r="BK60" s="18"/>
+      <c r="BL60" s="18"/>
       <c r="BM60" s="18"/>
       <c r="BN60" s="18"/>
-      <c r="BO60" s="18"/>
+      <c r="BO60" s="18">
+        <f>599.3+701.7+133.2</f>
+        <v>1434.2</v>
+      </c>
       <c r="BP60" s="18"/>
       <c r="BQ60" s="18"/>
       <c r="BR60" s="18"/>
       <c r="BS60" s="18"/>
       <c r="BT60" s="18"/>
-      <c r="BU60" s="18"/>
       <c r="BV60" s="18"/>
+      <c r="BW60" s="18"/>
+      <c r="BX60" s="18"/>
+      <c r="BY60" s="18"/>
+      <c r="BZ60" s="18"/>
+      <c r="CA60" s="18"/>
+      <c r="CB60" s="18"/>
+      <c r="CC60" s="18"/>
+      <c r="CD60" s="18"/>
+      <c r="CE60" s="18"/>
     </row>
-    <row r="61" spans="2:74" s="17" customFormat="1">
+    <row r="61" spans="2:83" s="17" customFormat="1">
       <c r="B61" s="17" t="s">
         <v>56</v>
       </c>
@@ -8794,18 +9568,30 @@
       <c r="BI61" s="18"/>
       <c r="BJ61" s="18"/>
       <c r="BK61" s="18"/>
+      <c r="BL61" s="18"/>
       <c r="BM61" s="18"/>
       <c r="BN61" s="18"/>
-      <c r="BO61" s="18"/>
+      <c r="BO61" s="18">
+        <f>505.9+8.3</f>
+        <v>514.19999999999993</v>
+      </c>
       <c r="BP61" s="18"/>
       <c r="BQ61" s="18"/>
       <c r="BR61" s="18"/>
       <c r="BS61" s="18"/>
       <c r="BT61" s="18"/>
-      <c r="BU61" s="18"/>
       <c r="BV61" s="18"/>
+      <c r="BW61" s="18"/>
+      <c r="BX61" s="18"/>
+      <c r="BY61" s="18"/>
+      <c r="BZ61" s="18"/>
+      <c r="CA61" s="18"/>
+      <c r="CB61" s="18"/>
+      <c r="CC61" s="18"/>
+      <c r="CD61" s="18"/>
+      <c r="CE61" s="18"/>
     </row>
-    <row r="62" spans="2:74" s="17" customFormat="1">
+    <row r="62" spans="2:83" s="17" customFormat="1">
       <c r="B62" s="17" t="s">
         <v>57</v>
       </c>
@@ -8875,18 +9661,30 @@
       <c r="BI62" s="18"/>
       <c r="BJ62" s="18"/>
       <c r="BK62" s="18"/>
+      <c r="BL62" s="18"/>
       <c r="BM62" s="18"/>
       <c r="BN62" s="18"/>
-      <c r="BO62" s="18"/>
+      <c r="BO62" s="18">
+        <f>18574.6+5981.4</f>
+        <v>24556</v>
+      </c>
       <c r="BP62" s="18"/>
       <c r="BQ62" s="18"/>
       <c r="BR62" s="18"/>
       <c r="BS62" s="18"/>
       <c r="BT62" s="18"/>
-      <c r="BU62" s="18"/>
       <c r="BV62" s="18"/>
+      <c r="BW62" s="18"/>
+      <c r="BX62" s="18"/>
+      <c r="BY62" s="18"/>
+      <c r="BZ62" s="18"/>
+      <c r="CA62" s="18"/>
+      <c r="CB62" s="18"/>
+      <c r="CC62" s="18"/>
+      <c r="CD62" s="18"/>
+      <c r="CE62" s="18"/>
     </row>
-    <row r="63" spans="2:74" s="17" customFormat="1">
+    <row r="63" spans="2:83" s="17" customFormat="1">
       <c r="B63" s="17" t="s">
         <v>58</v>
       </c>
@@ -8955,18 +9753,29 @@
       <c r="BI63" s="18"/>
       <c r="BJ63" s="18"/>
       <c r="BK63" s="18"/>
+      <c r="BL63" s="18"/>
       <c r="BM63" s="18"/>
       <c r="BN63" s="18"/>
-      <c r="BO63" s="18"/>
+      <c r="BO63" s="18">
+        <v>9854</v>
+      </c>
       <c r="BP63" s="18"/>
       <c r="BQ63" s="18"/>
       <c r="BR63" s="18"/>
       <c r="BS63" s="18"/>
       <c r="BT63" s="18"/>
-      <c r="BU63" s="18"/>
       <c r="BV63" s="18"/>
+      <c r="BW63" s="18"/>
+      <c r="BX63" s="18"/>
+      <c r="BY63" s="18"/>
+      <c r="BZ63" s="18"/>
+      <c r="CA63" s="18"/>
+      <c r="CB63" s="18"/>
+      <c r="CC63" s="18"/>
+      <c r="CD63" s="18"/>
+      <c r="CE63" s="18"/>
     </row>
-    <row r="64" spans="2:74" s="17" customFormat="1">
+    <row r="64" spans="2:83" s="17" customFormat="1">
       <c r="B64" s="17" t="s">
         <v>59</v>
       </c>
@@ -9035,6 +9844,7 @@
       <c r="BI64" s="18"/>
       <c r="BJ64" s="18"/>
       <c r="BK64" s="18"/>
+      <c r="BL64" s="18"/>
       <c r="BM64" s="18"/>
       <c r="BN64" s="18"/>
       <c r="BO64" s="18"/>
@@ -9043,10 +9853,18 @@
       <c r="BR64" s="18"/>
       <c r="BS64" s="18"/>
       <c r="BT64" s="18"/>
-      <c r="BU64" s="18"/>
       <c r="BV64" s="18"/>
+      <c r="BW64" s="18"/>
+      <c r="BX64" s="18"/>
+      <c r="BY64" s="18"/>
+      <c r="BZ64" s="18"/>
+      <c r="CA64" s="18"/>
+      <c r="CB64" s="18"/>
+      <c r="CC64" s="18"/>
+      <c r="CD64" s="18"/>
+      <c r="CE64" s="18"/>
     </row>
-    <row r="65" spans="2:74" s="17" customFormat="1">
+    <row r="65" spans="2:83" s="17" customFormat="1">
       <c r="B65" s="19" t="s">
         <v>60</v>
       </c>
@@ -9115,18 +9933,29 @@
       <c r="BI65" s="18"/>
       <c r="BJ65" s="18"/>
       <c r="BK65" s="18"/>
+      <c r="BL65" s="18"/>
       <c r="BM65" s="18"/>
       <c r="BN65" s="18"/>
-      <c r="BO65" s="18"/>
+      <c r="BO65" s="18">
+        <v>106.9</v>
+      </c>
       <c r="BP65" s="18"/>
       <c r="BQ65" s="18"/>
       <c r="BR65" s="18"/>
       <c r="BS65" s="18"/>
       <c r="BT65" s="18"/>
-      <c r="BU65" s="18"/>
       <c r="BV65" s="18"/>
+      <c r="BW65" s="18"/>
+      <c r="BX65" s="18"/>
+      <c r="BY65" s="18"/>
+      <c r="BZ65" s="18"/>
+      <c r="CA65" s="18"/>
+      <c r="CB65" s="18"/>
+      <c r="CC65" s="18"/>
+      <c r="CD65" s="18"/>
+      <c r="CE65" s="18"/>
     </row>
-    <row r="66" spans="2:74" s="17" customFormat="1">
+    <row r="66" spans="2:83" s="17" customFormat="1">
       <c r="B66" s="19" t="s">
         <v>61</v>
       </c>
@@ -9195,6 +10024,7 @@
       <c r="BI66" s="18"/>
       <c r="BJ66" s="18"/>
       <c r="BK66" s="18"/>
+      <c r="BL66" s="18"/>
       <c r="BM66" s="18"/>
       <c r="BN66" s="18"/>
       <c r="BO66" s="18"/>
@@ -9203,10 +10033,18 @@
       <c r="BR66" s="18"/>
       <c r="BS66" s="18"/>
       <c r="BT66" s="18"/>
-      <c r="BU66" s="18"/>
       <c r="BV66" s="18"/>
+      <c r="BW66" s="18"/>
+      <c r="BX66" s="18"/>
+      <c r="BY66" s="18"/>
+      <c r="BZ66" s="18"/>
+      <c r="CA66" s="18"/>
+      <c r="CB66" s="18"/>
+      <c r="CC66" s="18"/>
+      <c r="CD66" s="18"/>
+      <c r="CE66" s="18"/>
     </row>
-    <row r="67" spans="2:74" s="17" customFormat="1">
+    <row r="67" spans="2:83" s="17" customFormat="1">
       <c r="B67" s="19" t="s">
         <v>62</v>
       </c>
@@ -9275,18 +10113,30 @@
       <c r="BI67" s="18"/>
       <c r="BJ67" s="18"/>
       <c r="BK67" s="18"/>
+      <c r="BL67" s="18"/>
       <c r="BM67" s="18"/>
       <c r="BN67" s="18"/>
-      <c r="BO67" s="18"/>
+      <c r="BO67" s="18">
+        <f>2.9+27.6</f>
+        <v>30.5</v>
+      </c>
       <c r="BP67" s="18"/>
       <c r="BQ67" s="18"/>
       <c r="BR67" s="18"/>
       <c r="BS67" s="18"/>
       <c r="BT67" s="18"/>
-      <c r="BU67" s="18"/>
       <c r="BV67" s="18"/>
+      <c r="BW67" s="18"/>
+      <c r="BX67" s="18"/>
+      <c r="BY67" s="18"/>
+      <c r="BZ67" s="18"/>
+      <c r="CA67" s="18"/>
+      <c r="CB67" s="18"/>
+      <c r="CC67" s="18"/>
+      <c r="CD67" s="18"/>
+      <c r="CE67" s="18"/>
     </row>
-    <row r="68" spans="2:74" s="17" customFormat="1">
+    <row r="68" spans="2:83" s="17" customFormat="1">
       <c r="B68" s="19" t="s">
         <v>64</v>
       </c>
@@ -9355,18 +10205,29 @@
       <c r="BI68" s="18"/>
       <c r="BJ68" s="18"/>
       <c r="BK68" s="18"/>
+      <c r="BL68" s="18"/>
       <c r="BM68" s="18"/>
       <c r="BN68" s="18"/>
-      <c r="BO68" s="18"/>
+      <c r="BO68" s="18">
+        <v>1360.3</v>
+      </c>
       <c r="BP68" s="18"/>
       <c r="BQ68" s="18"/>
       <c r="BR68" s="18"/>
       <c r="BS68" s="18"/>
       <c r="BT68" s="18"/>
-      <c r="BU68" s="18"/>
       <c r="BV68" s="18"/>
+      <c r="BW68" s="18"/>
+      <c r="BX68" s="18"/>
+      <c r="BY68" s="18"/>
+      <c r="BZ68" s="18"/>
+      <c r="CA68" s="18"/>
+      <c r="CB68" s="18"/>
+      <c r="CC68" s="18"/>
+      <c r="CD68" s="18"/>
+      <c r="CE68" s="18"/>
     </row>
-    <row r="69" spans="2:74" s="17" customFormat="1">
+    <row r="69" spans="2:83" s="17" customFormat="1">
       <c r="B69" s="19" t="s">
         <v>63</v>
       </c>
@@ -9437,18 +10298,30 @@
       <c r="BI69" s="18"/>
       <c r="BJ69" s="18"/>
       <c r="BK69" s="18"/>
+      <c r="BL69" s="18"/>
       <c r="BM69" s="18"/>
       <c r="BN69" s="18"/>
-      <c r="BO69" s="18"/>
+      <c r="BO69" s="18">
+        <f>SUM(BO57:BO68)</f>
+        <v>49372.80000000001</v>
+      </c>
       <c r="BP69" s="18"/>
       <c r="BQ69" s="18"/>
       <c r="BR69" s="18"/>
       <c r="BS69" s="18"/>
       <c r="BT69" s="18"/>
-      <c r="BU69" s="18"/>
       <c r="BV69" s="18"/>
+      <c r="BW69" s="18"/>
+      <c r="BX69" s="18"/>
+      <c r="BY69" s="18"/>
+      <c r="BZ69" s="18"/>
+      <c r="CA69" s="18"/>
+      <c r="CB69" s="18"/>
+      <c r="CC69" s="18"/>
+      <c r="CD69" s="18"/>
+      <c r="CE69" s="18"/>
     </row>
-    <row r="70" spans="2:74" s="17" customFormat="1">
+    <row r="70" spans="2:83" s="17" customFormat="1">
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
@@ -9510,6 +10383,7 @@
       <c r="BI70" s="18"/>
       <c r="BJ70" s="18"/>
       <c r="BK70" s="18"/>
+      <c r="BL70" s="18"/>
       <c r="BM70" s="18"/>
       <c r="BN70" s="18"/>
       <c r="BO70" s="18"/>
@@ -9518,10 +10392,18 @@
       <c r="BR70" s="18"/>
       <c r="BS70" s="18"/>
       <c r="BT70" s="18"/>
-      <c r="BU70" s="18"/>
       <c r="BV70" s="18"/>
+      <c r="BW70" s="18"/>
+      <c r="BX70" s="18"/>
+      <c r="BY70" s="18"/>
+      <c r="BZ70" s="18"/>
+      <c r="CA70" s="18"/>
+      <c r="CB70" s="18"/>
+      <c r="CC70" s="18"/>
+      <c r="CD70" s="18"/>
+      <c r="CE70" s="18"/>
     </row>
-    <row r="71" spans="2:74" s="17" customFormat="1">
+    <row r="71" spans="2:83" s="17" customFormat="1">
       <c r="B71" s="19" t="s">
         <v>65</v>
       </c>
@@ -9592,6 +10474,7 @@
       <c r="BI71" s="18"/>
       <c r="BJ71" s="18"/>
       <c r="BK71" s="18"/>
+      <c r="BL71" s="18"/>
       <c r="BM71" s="18"/>
       <c r="BN71" s="18"/>
       <c r="BO71" s="18"/>
@@ -9600,10 +10483,18 @@
       <c r="BR71" s="18"/>
       <c r="BS71" s="18"/>
       <c r="BT71" s="18"/>
-      <c r="BU71" s="18"/>
       <c r="BV71" s="18"/>
+      <c r="BW71" s="18"/>
+      <c r="BX71" s="18"/>
+      <c r="BY71" s="18"/>
+      <c r="BZ71" s="18"/>
+      <c r="CA71" s="18"/>
+      <c r="CB71" s="18"/>
+      <c r="CC71" s="18"/>
+      <c r="CD71" s="18"/>
+      <c r="CE71" s="18"/>
     </row>
-    <row r="72" spans="2:74" s="17" customFormat="1">
+    <row r="72" spans="2:83" s="17" customFormat="1">
       <c r="B72" s="19" t="s">
         <v>66</v>
       </c>
@@ -9672,6 +10563,7 @@
       <c r="BI72" s="18"/>
       <c r="BJ72" s="18"/>
       <c r="BK72" s="18"/>
+      <c r="BL72" s="18"/>
       <c r="BM72" s="18"/>
       <c r="BN72" s="18"/>
       <c r="BO72" s="18"/>
@@ -9680,10 +10572,18 @@
       <c r="BR72" s="18"/>
       <c r="BS72" s="18"/>
       <c r="BT72" s="18"/>
-      <c r="BU72" s="18"/>
       <c r="BV72" s="18"/>
+      <c r="BW72" s="18"/>
+      <c r="BX72" s="18"/>
+      <c r="BY72" s="18"/>
+      <c r="BZ72" s="18"/>
+      <c r="CA72" s="18"/>
+      <c r="CB72" s="18"/>
+      <c r="CC72" s="18"/>
+      <c r="CD72" s="18"/>
+      <c r="CE72" s="18"/>
     </row>
-    <row r="73" spans="2:74" s="17" customFormat="1">
+    <row r="73" spans="2:83" s="17" customFormat="1">
       <c r="B73" s="19" t="s">
         <v>67</v>
       </c>
@@ -9752,6 +10652,7 @@
       <c r="BI73" s="18"/>
       <c r="BJ73" s="18"/>
       <c r="BK73" s="18"/>
+      <c r="BL73" s="18"/>
       <c r="BM73" s="18"/>
       <c r="BN73" s="18"/>
       <c r="BO73" s="18"/>
@@ -9760,10 +10661,18 @@
       <c r="BR73" s="18"/>
       <c r="BS73" s="18"/>
       <c r="BT73" s="18"/>
-      <c r="BU73" s="18"/>
       <c r="BV73" s="18"/>
+      <c r="BW73" s="18"/>
+      <c r="BX73" s="18"/>
+      <c r="BY73" s="18"/>
+      <c r="BZ73" s="18"/>
+      <c r="CA73" s="18"/>
+      <c r="CB73" s="18"/>
+      <c r="CC73" s="18"/>
+      <c r="CD73" s="18"/>
+      <c r="CE73" s="18"/>
     </row>
-    <row r="74" spans="2:74" s="17" customFormat="1">
+    <row r="74" spans="2:83" s="17" customFormat="1">
       <c r="B74" s="19" t="s">
         <v>50</v>
       </c>
@@ -9832,6 +10741,7 @@
       <c r="BI74" s="18"/>
       <c r="BJ74" s="18"/>
       <c r="BK74" s="18"/>
+      <c r="BL74" s="18"/>
       <c r="BM74" s="18"/>
       <c r="BN74" s="18"/>
       <c r="BO74" s="18"/>
@@ -9840,10 +10750,18 @@
       <c r="BR74" s="18"/>
       <c r="BS74" s="18"/>
       <c r="BT74" s="18"/>
-      <c r="BU74" s="18"/>
       <c r="BV74" s="18"/>
+      <c r="BW74" s="18"/>
+      <c r="BX74" s="18"/>
+      <c r="BY74" s="18"/>
+      <c r="BZ74" s="18"/>
+      <c r="CA74" s="18"/>
+      <c r="CB74" s="18"/>
+      <c r="CC74" s="18"/>
+      <c r="CD74" s="18"/>
+      <c r="CE74" s="18"/>
     </row>
-    <row r="75" spans="2:74" s="17" customFormat="1">
+    <row r="75" spans="2:83" s="17" customFormat="1">
       <c r="B75" s="19" t="s">
         <v>68</v>
       </c>
@@ -9912,6 +10830,7 @@
       <c r="BI75" s="18"/>
       <c r="BJ75" s="18"/>
       <c r="BK75" s="18"/>
+      <c r="BL75" s="18"/>
       <c r="BM75" s="18"/>
       <c r="BN75" s="18"/>
       <c r="BO75" s="18"/>
@@ -9920,10 +10839,18 @@
       <c r="BR75" s="18"/>
       <c r="BS75" s="18"/>
       <c r="BT75" s="18"/>
-      <c r="BU75" s="18"/>
       <c r="BV75" s="18"/>
+      <c r="BW75" s="18"/>
+      <c r="BX75" s="18"/>
+      <c r="BY75" s="18"/>
+      <c r="BZ75" s="18"/>
+      <c r="CA75" s="18"/>
+      <c r="CB75" s="18"/>
+      <c r="CC75" s="18"/>
+      <c r="CD75" s="18"/>
+      <c r="CE75" s="18"/>
     </row>
-    <row r="76" spans="2:74" s="17" customFormat="1">
+    <row r="76" spans="2:83" s="17" customFormat="1">
       <c r="B76" s="19" t="s">
         <v>69</v>
       </c>
@@ -9992,6 +10919,7 @@
       <c r="BI76" s="18"/>
       <c r="BJ76" s="18"/>
       <c r="BK76" s="18"/>
+      <c r="BL76" s="18"/>
       <c r="BM76" s="18"/>
       <c r="BN76" s="18"/>
       <c r="BO76" s="18"/>
@@ -10000,10 +10928,18 @@
       <c r="BR76" s="18"/>
       <c r="BS76" s="18"/>
       <c r="BT76" s="18"/>
-      <c r="BU76" s="18"/>
       <c r="BV76" s="18"/>
+      <c r="BW76" s="18"/>
+      <c r="BX76" s="18"/>
+      <c r="BY76" s="18"/>
+      <c r="BZ76" s="18"/>
+      <c r="CA76" s="18"/>
+      <c r="CB76" s="18"/>
+      <c r="CC76" s="18"/>
+      <c r="CD76" s="18"/>
+      <c r="CE76" s="18"/>
     </row>
-    <row r="77" spans="2:74" s="17" customFormat="1">
+    <row r="77" spans="2:83" s="17" customFormat="1">
       <c r="B77" s="19" t="s">
         <v>70</v>
       </c>
@@ -10073,6 +11009,7 @@
       <c r="BI77" s="18"/>
       <c r="BJ77" s="18"/>
       <c r="BK77" s="18"/>
+      <c r="BL77" s="18"/>
       <c r="BM77" s="18"/>
       <c r="BN77" s="18"/>
       <c r="BO77" s="18"/>
@@ -10081,10 +11018,18 @@
       <c r="BR77" s="18"/>
       <c r="BS77" s="18"/>
       <c r="BT77" s="18"/>
-      <c r="BU77" s="18"/>
       <c r="BV77" s="18"/>
+      <c r="BW77" s="18"/>
+      <c r="BX77" s="18"/>
+      <c r="BY77" s="18"/>
+      <c r="BZ77" s="18"/>
+      <c r="CA77" s="18"/>
+      <c r="CB77" s="18"/>
+      <c r="CC77" s="18"/>
+      <c r="CD77" s="18"/>
+      <c r="CE77" s="18"/>
     </row>
-    <row r="78" spans="2:74" s="17" customFormat="1">
+    <row r="78" spans="2:83" s="17" customFormat="1">
       <c r="B78" s="19" t="s">
         <v>61</v>
       </c>
@@ -10153,6 +11098,7 @@
       <c r="BI78" s="18"/>
       <c r="BJ78" s="18"/>
       <c r="BK78" s="18"/>
+      <c r="BL78" s="18"/>
       <c r="BM78" s="18"/>
       <c r="BN78" s="18"/>
       <c r="BO78" s="18"/>
@@ -10161,10 +11107,18 @@
       <c r="BR78" s="18"/>
       <c r="BS78" s="18"/>
       <c r="BT78" s="18"/>
-      <c r="BU78" s="18"/>
       <c r="BV78" s="18"/>
+      <c r="BW78" s="18"/>
+      <c r="BX78" s="18"/>
+      <c r="BY78" s="18"/>
+      <c r="BZ78" s="18"/>
+      <c r="CA78" s="18"/>
+      <c r="CB78" s="18"/>
+      <c r="CC78" s="18"/>
+      <c r="CD78" s="18"/>
+      <c r="CE78" s="18"/>
     </row>
-    <row r="79" spans="2:74" s="17" customFormat="1">
+    <row r="79" spans="2:83" s="17" customFormat="1">
       <c r="B79" s="19" t="s">
         <v>71</v>
       </c>
@@ -10233,6 +11187,7 @@
       <c r="BI79" s="18"/>
       <c r="BJ79" s="18"/>
       <c r="BK79" s="18"/>
+      <c r="BL79" s="18"/>
       <c r="BM79" s="18"/>
       <c r="BN79" s="18"/>
       <c r="BO79" s="18"/>
@@ -10241,10 +11196,18 @@
       <c r="BR79" s="18"/>
       <c r="BS79" s="18"/>
       <c r="BT79" s="18"/>
-      <c r="BU79" s="18"/>
       <c r="BV79" s="18"/>
+      <c r="BW79" s="18"/>
+      <c r="BX79" s="18"/>
+      <c r="BY79" s="18"/>
+      <c r="BZ79" s="18"/>
+      <c r="CA79" s="18"/>
+      <c r="CB79" s="18"/>
+      <c r="CC79" s="18"/>
+      <c r="CD79" s="18"/>
+      <c r="CE79" s="18"/>
     </row>
-    <row r="80" spans="2:74" s="17" customFormat="1">
+    <row r="80" spans="2:83" s="17" customFormat="1">
       <c r="B80" s="19" t="s">
         <v>72</v>
       </c>
@@ -10315,6 +11278,7 @@
       <c r="BI80" s="18"/>
       <c r="BJ80" s="18"/>
       <c r="BK80" s="18"/>
+      <c r="BL80" s="18"/>
       <c r="BM80" s="18"/>
       <c r="BN80" s="18"/>
       <c r="BO80" s="18"/>
@@ -10323,10 +11287,18 @@
       <c r="BR80" s="18"/>
       <c r="BS80" s="18"/>
       <c r="BT80" s="18"/>
-      <c r="BU80" s="18"/>
       <c r="BV80" s="18"/>
+      <c r="BW80" s="18"/>
+      <c r="BX80" s="18"/>
+      <c r="BY80" s="18"/>
+      <c r="BZ80" s="18"/>
+      <c r="CA80" s="18"/>
+      <c r="CB80" s="18"/>
+      <c r="CC80" s="18"/>
+      <c r="CD80" s="18"/>
+      <c r="CE80" s="18"/>
     </row>
-    <row r="81" spans="2:74" s="17" customFormat="1">
+    <row r="81" spans="2:83" s="17" customFormat="1">
       <c r="B81" s="19" t="s">
         <v>73</v>
       </c>
@@ -10395,18 +11367,29 @@
       <c r="BI81" s="18"/>
       <c r="BJ81" s="18"/>
       <c r="BK81" s="18"/>
+      <c r="BL81" s="18"/>
       <c r="BM81" s="18"/>
       <c r="BN81" s="18"/>
-      <c r="BO81" s="18"/>
+      <c r="BO81" s="18">
+        <v>29897.3</v>
+      </c>
       <c r="BP81" s="18"/>
       <c r="BQ81" s="18"/>
       <c r="BR81" s="18"/>
       <c r="BS81" s="18"/>
       <c r="BT81" s="18"/>
-      <c r="BU81" s="18"/>
       <c r="BV81" s="18"/>
+      <c r="BW81" s="18"/>
+      <c r="BX81" s="18"/>
+      <c r="BY81" s="18"/>
+      <c r="BZ81" s="18"/>
+      <c r="CA81" s="18"/>
+      <c r="CB81" s="18"/>
+      <c r="CC81" s="18"/>
+      <c r="CD81" s="18"/>
+      <c r="CE81" s="18"/>
     </row>
-    <row r="82" spans="2:74" s="17" customFormat="1">
+    <row r="82" spans="2:83" s="17" customFormat="1">
       <c r="B82" s="19" t="s">
         <v>74</v>
       </c>
@@ -10477,6 +11460,7 @@
       <c r="BI82" s="18"/>
       <c r="BJ82" s="18"/>
       <c r="BK82" s="18"/>
+      <c r="BL82" s="18"/>
       <c r="BM82" s="18"/>
       <c r="BN82" s="18"/>
       <c r="BO82" s="18"/>
@@ -10485,10 +11469,18 @@
       <c r="BR82" s="18"/>
       <c r="BS82" s="18"/>
       <c r="BT82" s="18"/>
-      <c r="BU82" s="18"/>
       <c r="BV82" s="18"/>
+      <c r="BW82" s="18"/>
+      <c r="BX82" s="18"/>
+      <c r="BY82" s="18"/>
+      <c r="BZ82" s="18"/>
+      <c r="CA82" s="18"/>
+      <c r="CB82" s="18"/>
+      <c r="CC82" s="18"/>
+      <c r="CD82" s="18"/>
+      <c r="CE82" s="18"/>
     </row>
-    <row r="84" spans="2:74" s="17" customFormat="1">
+    <row r="84" spans="2:83" s="17" customFormat="1">
       <c r="B84" s="20" t="s">
         <v>77</v>
       </c>
@@ -10557,6 +11549,7 @@
       <c r="BI84" s="18"/>
       <c r="BJ84" s="18"/>
       <c r="BK84" s="18"/>
+      <c r="BL84" s="18"/>
       <c r="BM84" s="18"/>
       <c r="BN84" s="18"/>
       <c r="BO84" s="18"/>
@@ -10565,10 +11558,18 @@
       <c r="BR84" s="18"/>
       <c r="BS84" s="18"/>
       <c r="BT84" s="18"/>
-      <c r="BU84" s="18"/>
       <c r="BV84" s="18"/>
+      <c r="BW84" s="18"/>
+      <c r="BX84" s="18"/>
+      <c r="BY84" s="18"/>
+      <c r="BZ84" s="18"/>
+      <c r="CA84" s="18"/>
+      <c r="CB84" s="18"/>
+      <c r="CC84" s="18"/>
+      <c r="CD84" s="18"/>
+      <c r="CE84" s="18"/>
     </row>
-    <row r="85" spans="2:74" s="17" customFormat="1">
+    <row r="85" spans="2:83" s="17" customFormat="1">
       <c r="B85" s="20" t="s">
         <v>78</v>
       </c>
@@ -10637,6 +11638,7 @@
       <c r="BI85" s="18"/>
       <c r="BJ85" s="18"/>
       <c r="BK85" s="18"/>
+      <c r="BL85" s="18"/>
       <c r="BM85" s="18"/>
       <c r="BN85" s="18"/>
       <c r="BO85" s="18"/>
@@ -10645,10 +11647,18 @@
       <c r="BR85" s="18"/>
       <c r="BS85" s="18"/>
       <c r="BT85" s="18"/>
-      <c r="BU85" s="18"/>
       <c r="BV85" s="18"/>
+      <c r="BW85" s="18"/>
+      <c r="BX85" s="18"/>
+      <c r="BY85" s="18"/>
+      <c r="BZ85" s="18"/>
+      <c r="CA85" s="18"/>
+      <c r="CB85" s="18"/>
+      <c r="CC85" s="18"/>
+      <c r="CD85" s="18"/>
+      <c r="CE85" s="18"/>
     </row>
-    <row r="86" spans="2:74" s="17" customFormat="1">
+    <row r="86" spans="2:83" s="17" customFormat="1">
       <c r="B86" s="20" t="s">
         <v>79</v>
       </c>
@@ -10719,6 +11729,7 @@
       <c r="BI86" s="18"/>
       <c r="BJ86" s="18"/>
       <c r="BK86" s="18"/>
+      <c r="BL86" s="18"/>
       <c r="BM86" s="18"/>
       <c r="BN86" s="18"/>
       <c r="BO86" s="18"/>
@@ -10727,8 +11738,16 @@
       <c r="BR86" s="18"/>
       <c r="BS86" s="18"/>
       <c r="BT86" s="18"/>
-      <c r="BU86" s="18"/>
       <c r="BV86" s="18"/>
+      <c r="BW86" s="18"/>
+      <c r="BX86" s="18"/>
+      <c r="BY86" s="18"/>
+      <c r="BZ86" s="18"/>
+      <c r="CA86" s="18"/>
+      <c r="CB86" s="18"/>
+      <c r="CC86" s="18"/>
+      <c r="CD86" s="18"/>
+      <c r="CE86" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10742,12 +11761,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -10861,6 +11874,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10871,15 +11890,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E302393A-19F6-42EF-83A3-1DE9A9F04922}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8897DFF-969D-4E20-9D67-799686BA9618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10895,6 +11905,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E302393A-19F6-42EF-83A3-1DE9A9F04922}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C70A9A-DFCB-424D-830E-AC04B5AD6D14}">
   <ds:schemaRefs>
